--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13552F2C-84DB-4B66-98D1-A52627FDF893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB0E121-C9DB-4643-A847-B9BD0120A2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -497,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F52621-DB17-44A2-AF63-FC128B554F1C}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -749,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB0E121-C9DB-4643-A847-B9BD0120A2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E6DE3A-A8D3-41F4-9765-9CE77F059396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -497,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F52621-DB17-44A2-AF63-FC128B554F1C}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -833,5 +833,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E6DE3A-A8D3-41F4-9765-9CE77F059396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243AE6A8-95E2-4D76-AA96-270462BB2987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -37,33 +37,9 @@
     <t>PreSelected</t>
   </si>
   <si>
-    <t>Can't Fill As Requested</t>
-  </si>
-  <si>
-    <t>Customer Changed Mind</t>
-  </si>
-  <si>
-    <t>Price Too High</t>
-  </si>
-  <si>
-    <t>Unable to Obtain CC Approval</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Abandon Reason</t>
-  </si>
-  <si>
-    <t>Cancellation Reason</t>
-  </si>
-  <si>
-    <t>Credit Reason</t>
-  </si>
-  <si>
-    <t>Return Reason</t>
-  </si>
-  <si>
     <t>Account Class</t>
   </si>
   <si>
@@ -76,9 +52,6 @@
     <t>Customer Status</t>
   </si>
   <si>
-    <t>Customer Type</t>
-  </si>
-  <si>
     <t>Invoice Payment Schedule</t>
   </si>
   <si>
@@ -91,12 +64,6 @@
     <t>Referred By</t>
   </si>
   <si>
-    <t>Store Location</t>
-  </si>
-  <si>
-    <t>Territory Type</t>
-  </si>
-  <si>
     <t>Employee Contact Person Relation</t>
   </si>
   <si>
@@ -112,12 +79,6 @@
     <t>Gift Card Reason</t>
   </si>
   <si>
-    <t>Miscellaneous Income Codes</t>
-  </si>
-  <si>
-    <t>Paid Out Codes</t>
-  </si>
-  <si>
     <t>Care Code</t>
   </si>
   <si>
@@ -127,20 +88,209 @@
     <t>Product Type</t>
   </si>
   <si>
-    <t>Redelivery Reason</t>
-  </si>
-  <si>
-    <t>Replacement Reason</t>
-  </si>
-  <si>
     <t>Vehicle Status</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>Child Value</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CCB</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Email Statements</t>
+  </si>
+  <si>
+    <t>Statements</t>
+  </si>
+  <si>
+    <t>Statements and Invoice Copies</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>In Active</t>
+  </si>
+  <si>
+    <t>Locked</t>
+  </si>
+  <si>
+    <t>Suspended</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>Net 15</t>
+  </si>
+  <si>
+    <t>On Receipt</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Wholesale</t>
+  </si>
+  <si>
+    <t>Advertisement</t>
+  </si>
+  <si>
+    <t>Friends / Colleague</t>
+  </si>
+  <si>
+    <t>Newspaper</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>Open House Promo</t>
+  </si>
+  <si>
+    <t>Store Credit</t>
+  </si>
+  <si>
+    <t>ARR</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Arrangements</t>
+  </si>
+  <si>
+    <t>Balloons</t>
+  </si>
+  <si>
+    <t>Blooming Plants</t>
+  </si>
+  <si>
+    <t>Bouquets</t>
+  </si>
+  <si>
+    <t>Gift Card</t>
+  </si>
+  <si>
+    <t>Fresh Flowers</t>
+  </si>
+  <si>
+    <t>Silk &amp; Artificial</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Enroute</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Tip Category</t>
+  </si>
+  <si>
+    <t>Staff (General)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>InvoicePaymentSchedule</t>
+  </si>
+  <si>
+    <t>PaymentTerms</t>
+  </si>
+  <si>
+    <t>PriceSheetType</t>
+  </si>
+  <si>
+    <t>ReferredBy</t>
+  </si>
+  <si>
+    <t>EmployeeDepartment</t>
+  </si>
+  <si>
+    <t>EmployeeStatus</t>
+  </si>
+  <si>
+    <t>EmployeeContactPersonRelation</t>
+  </si>
+  <si>
+    <t>GiftCardReason</t>
+  </si>
+  <si>
+    <t>CareCode</t>
+  </si>
+  <si>
+    <t>ProductDepartment</t>
+  </si>
+  <si>
+    <t>ProductType</t>
+  </si>
+  <si>
+    <t>VehicleStatus</t>
+  </si>
+  <si>
+    <t>TipsCategory</t>
+  </si>
+  <si>
+    <t>AccountClass</t>
+  </si>
+  <si>
+    <t>ARStatementInvoiceTypeId</t>
+  </si>
+  <si>
+    <t>CustomerStatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,16 +315,35 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -197,11 +366,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -213,6 +533,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -495,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F52621-DB17-44A2-AF63-FC128B554F1C}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -517,7 +876,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -525,15 +884,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -541,7 +900,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -549,7 +908,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
@@ -557,7 +916,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -565,7 +924,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -573,7 +932,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
@@ -581,7 +940,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -589,7 +948,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -597,15 +956,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
@@ -613,7 +972,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
@@ -621,7 +980,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3">
         <v>13</v>
@@ -629,7 +988,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3">
         <v>14</v>
@@ -637,7 +996,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3">
         <v>15</v>
@@ -645,7 +1004,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B18" s="3">
         <v>16</v>
@@ -653,90 +1012,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="B19" s="3">
         <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="3">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -747,91 +1026,910 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="33.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="D1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="14">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="14">
+        <v>3</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="14">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="14">
+        <v>3</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="9">
+        <v>0</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="14">
+        <v>3</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="9">
+        <v>0</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="14">
+        <v>1</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="9">
+        <v>0</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="14">
+        <v>1</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="9">
+        <v>0</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="14">
+        <v>3</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="9">
+        <v>0</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="14">
+        <v>3</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="9">
+        <v>0</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="9">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="14">
+        <v>3</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="9">
+        <v>0</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="9">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="14">
+        <v>3</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF46505-8570-4843-90D5-FE8734EED0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23DF79B-FDA1-41B6-A996-4DF5CE832F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
     <sheet name="ValueList" sheetId="1" r:id="rId2"/>
+    <sheet name="Customer" sheetId="4" r:id="rId3"/>
+    <sheet name="Test" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -284,13 +286,196 @@
   </si>
   <si>
     <t>CustomerStatus</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Address Cont.</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>123 Maple St.</t>
+  </si>
+  <si>
+    <t>Apt 4B</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Jennifer's Store--001</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t>+12135550123</t>
+  </si>
+  <si>
+    <t>Maria Lopez</t>
+  </si>
+  <si>
+    <t>Calle Mayor, 15</t>
+  </si>
+  <si>
+    <t>Apt 3A</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Petal &amp; Root--002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maria.lopez@example.es </t>
+  </si>
+  <si>
+    <t>+34915556789</t>
+  </si>
+  <si>
+    <t>Emily Johnson</t>
+  </si>
+  <si>
+    <t>600 Congress Avenue</t>
+  </si>
+  <si>
+    <t>Suite 14</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Hawthorne</t>
+  </si>
+  <si>
+    <t>emily@gmail.com</t>
+  </si>
+  <si>
+    <t>+34955559145</t>
+  </si>
+  <si>
+    <t>Linda Brown</t>
+  </si>
+  <si>
+    <t>202 Park Ave.</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>linda.brown@example.com</t>
+  </si>
+  <si>
+    <t>+12145554321</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Michael Brown</t>
+  </si>
+  <si>
+    <t>350 Fifth Avenue</t>
+  </si>
+  <si>
+    <t>Suite 730</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>mike@hotmail.com</t>
+  </si>
+  <si>
+    <t>+21245678902</t>
+  </si>
+  <si>
+    <t>John Smith William</t>
+  </si>
+  <si>
+    <t>233 S Wacker Dr</t>
+  </si>
+  <si>
+    <t>84th Floor</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">william@gmail.com	</t>
+  </si>
+  <si>
+    <t>+21245678033</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +513,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -518,10 +718,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -565,6 +766,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -575,7 +782,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -856,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F52621-DB17-44A2-AF63-FC128B554F1C}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1029,7 +1237,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A5:E7"/>
+      <selection activeCell="E19" sqref="E19:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1067,12 +1275,12 @@
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1089,7 +1297,7 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
@@ -1104,7 +1312,7 @@
       <c r="D4" s="12">
         <v>-1</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -1114,12 +1322,12 @@
         <v>0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1139,7 +1347,7 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
@@ -1154,7 +1362,7 @@
       <c r="D7" s="6">
         <v>-1</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -1164,12 +1372,12 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="17" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1186,7 +1394,7 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -1201,7 +1409,7 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
@@ -1216,7 +1424,7 @@
       <c r="D11" s="6">
         <v>-1</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -1226,12 +1434,12 @@
         <v>0</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="17" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1248,7 +1456,7 @@
       <c r="D13" s="12">
         <v>-1</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -1263,7 +1471,7 @@
       <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1280,7 +1488,7 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
@@ -1290,12 +1498,12 @@
         <v>2</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D16" s="6">
         <v>-1</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -1305,12 +1513,12 @@
         <v>0</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1327,7 +1535,7 @@
       <c r="D18" s="12">
         <v>-1</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -1337,12 +1545,12 @@
         <v>0</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D19" s="9">
         <v>1</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="17" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1359,7 +1567,7 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -1374,7 +1582,7 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
@@ -1389,7 +1597,7 @@
       <c r="D22" s="6">
         <v>-1</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
@@ -1404,7 +1612,7 @@
       <c r="D23" s="9">
         <v>1</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1421,7 +1629,7 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
@@ -1436,7 +1644,7 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
@@ -1451,7 +1659,7 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
@@ -1466,7 +1674,7 @@
       <c r="D27" s="12">
         <v>-1</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
@@ -1481,7 +1689,7 @@
       <c r="D28" s="9">
         <v>1</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="17" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1498,7 +1706,7 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="16"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
@@ -1513,7 +1721,7 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
@@ -1528,7 +1736,7 @@
       <c r="D31" s="6">
         <v>-1</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
@@ -1543,7 +1751,7 @@
       <c r="D32" s="9">
         <v>1</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="17" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1560,7 +1768,7 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
@@ -1575,7 +1783,7 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
@@ -1590,7 +1798,7 @@
       <c r="D35" s="6">
         <v>-1</v>
       </c>
-      <c r="E35" s="17"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
@@ -1605,7 +1813,7 @@
       <c r="D36" s="9">
         <v>1</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="17" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1622,7 +1830,7 @@
       <c r="D37" s="12">
         <v>-1</v>
       </c>
-      <c r="E37" s="17"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
@@ -1637,7 +1845,7 @@
       <c r="D38" s="9">
         <v>1</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="17" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1654,7 +1862,7 @@
       <c r="D39" s="12">
         <v>-1</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
@@ -1669,7 +1877,7 @@
       <c r="D40" s="9">
         <v>1</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="17" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1686,7 +1894,7 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="16"/>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
@@ -1701,7 +1909,7 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="16"/>
+      <c r="E42" s="18"/>
     </row>
     <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
@@ -1716,7 +1924,7 @@
       <c r="D43" s="6">
         <v>-1</v>
       </c>
-      <c r="E43" s="17"/>
+      <c r="E43" s="19"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
@@ -1731,7 +1939,7 @@
       <c r="D44" s="9">
         <v>1</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="17" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1748,7 +1956,7 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="16"/>
+      <c r="E45" s="18"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
@@ -1763,7 +1971,7 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="16"/>
+      <c r="E46" s="18"/>
     </row>
     <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
@@ -1778,7 +1986,7 @@
       <c r="D47" s="6">
         <v>-1</v>
       </c>
-      <c r="E47" s="17"/>
+      <c r="E47" s="19"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
@@ -1793,7 +2001,7 @@
       <c r="D48" s="9">
         <v>1</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="17" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1810,7 +2018,7 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="16"/>
+      <c r="E49" s="18"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
@@ -1825,7 +2033,7 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="16"/>
+      <c r="E50" s="18"/>
     </row>
     <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
@@ -1840,7 +2048,7 @@
       <c r="D51" s="6">
         <v>-1</v>
       </c>
-      <c r="E51" s="17"/>
+      <c r="E51" s="19"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
@@ -1855,7 +2063,7 @@
       <c r="D52" s="9">
         <v>1</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="17" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1872,7 +2080,7 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="16"/>
+      <c r="E53" s="18"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
@@ -1887,7 +2095,7 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="16"/>
+      <c r="E54" s="18"/>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
@@ -1902,7 +2110,7 @@
       <c r="D55" s="12">
         <v>-1</v>
       </c>
-      <c r="E55" s="17"/>
+      <c r="E55" s="19"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
@@ -1913,24 +2121,616 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B8A7D-056B-43CF-B8CF-47A9850E51E0}">
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="2">
+        <v>90001</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="2">
+        <v>28013</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="2">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>6</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="2">
+        <v>78701</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="2">
+        <v>75201</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" s="2">
+        <v>15</v>
+      </c>
+      <c r="O5" s="2">
+        <v>10</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10118</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2">
+        <v>15</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="2">
+        <v>60606</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="2">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{429C311D-6D48-48CA-9A9D-C04FAC21AFC1}"/>
+    <hyperlink ref="R3" r:id="rId2" xr:uid="{FAFBBC17-1F1F-4CE2-BBF2-E4AEA8EE1ED4}"/>
+    <hyperlink ref="R4" r:id="rId3" xr:uid="{F3C188DE-CC3C-4EF9-8248-BB75D6CA48C5}"/>
+    <hyperlink ref="R5" r:id="rId4" xr:uid="{3162BC19-B05A-40BA-92BD-54B8E669E299}"/>
+    <hyperlink ref="R6" r:id="rId5" xr:uid="{93615EC5-2AF1-4B5B-9A79-A890026A7F9E}"/>
+    <hyperlink ref="R7" r:id="rId6" xr:uid="{904212DF-3581-4833-B3AE-9EB777FD795F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2802F586-CEB6-4C08-8187-E8E837AA502E}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="2">
+        <v>90001</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{93960A4B-CE6C-4D60-81C7-FC9006DE0E6D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23DF79B-FDA1-41B6-A996-4DF5CE832F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C24889-E034-4724-ACE3-684ED82BE159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2121,22 +2121,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Files\MAS_FloraFire\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C24889-E034-4724-ACE3-684ED82BE159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5E701C-0F06-4AF9-84CE-DE4FBECF5A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Value" sheetId="2" r:id="rId1"/>
     <sheet name="ValueList" sheetId="1" r:id="rId2"/>
     <sheet name="Customer" sheetId="4" r:id="rId3"/>
-    <sheet name="Test" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -312,9 +311,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Store</t>
-  </si>
-  <si>
     <t>Tax</t>
   </si>
   <si>
@@ -351,9 +347,6 @@
     <t>Los Angeles</t>
   </si>
   <si>
-    <t>Jennifer's Store--001</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -378,9 +371,6 @@
     <t>Madrid</t>
   </si>
   <si>
-    <t>Petal &amp; Root--002</t>
-  </si>
-  <si>
     <t xml:space="preserve">maria.lopez@example.es </t>
   </si>
   <si>
@@ -462,13 +452,22 @@
     <t>Chicago</t>
   </si>
   <si>
-    <t xml:space="preserve">william@gmail.com	</t>
-  </si>
-  <si>
     <t>+21245678033</t>
   </si>
   <si>
     <t>Reference</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>william@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -543,7 +542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -717,12 +716,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -770,6 +782,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1237,7 +1252,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1280,7 +1295,7 @@
       <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1297,7 +1312,7 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
@@ -1312,7 +1327,7 @@
       <c r="D4" s="12">
         <v>-1</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -1327,7 +1342,7 @@
       <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>84</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1347,7 +1362,7 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
@@ -1362,7 +1377,7 @@
       <c r="D7" s="6">
         <v>-1</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -1377,7 +1392,7 @@
       <c r="D8" s="9">
         <v>1</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="18" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1394,7 +1409,7 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -1409,7 +1424,7 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
@@ -1424,7 +1439,7 @@
       <c r="D11" s="6">
         <v>-1</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -1439,7 +1454,7 @@
       <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="18" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1456,7 +1471,7 @@
       <c r="D13" s="12">
         <v>-1</v>
       </c>
-      <c r="E13" s="19"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -1471,7 +1486,7 @@
       <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="18" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1488,7 +1503,7 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
@@ -1503,7 +1518,7 @@
       <c r="D16" s="6">
         <v>-1</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -1518,7 +1533,7 @@
       <c r="D17" s="9">
         <v>1</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1535,7 +1550,7 @@
       <c r="D18" s="12">
         <v>-1</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -1550,7 +1565,7 @@
       <c r="D19" s="9">
         <v>1</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="18" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1567,7 +1582,7 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -1582,7 +1597,7 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
@@ -1597,7 +1612,7 @@
       <c r="D22" s="6">
         <v>-1</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
@@ -1612,7 +1627,7 @@
       <c r="D23" s="9">
         <v>1</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="18" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1629,7 +1644,7 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
@@ -1644,7 +1659,7 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
@@ -1659,7 +1674,7 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
@@ -1674,7 +1689,7 @@
       <c r="D27" s="12">
         <v>-1</v>
       </c>
-      <c r="E27" s="19"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
@@ -1689,7 +1704,7 @@
       <c r="D28" s="9">
         <v>1</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="18" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1706,7 +1721,7 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="18"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
@@ -1721,7 +1736,7 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
@@ -1736,7 +1751,7 @@
       <c r="D31" s="6">
         <v>-1</v>
       </c>
-      <c r="E31" s="19"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
@@ -1751,7 +1766,7 @@
       <c r="D32" s="9">
         <v>1</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1768,7 +1783,7 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="18"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
@@ -1783,7 +1798,7 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="18"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
@@ -1798,7 +1813,7 @@
       <c r="D35" s="6">
         <v>-1</v>
       </c>
-      <c r="E35" s="19"/>
+      <c r="E35" s="20"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
@@ -1813,7 +1828,7 @@
       <c r="D36" s="9">
         <v>1</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="18" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1830,7 +1845,7 @@
       <c r="D37" s="12">
         <v>-1</v>
       </c>
-      <c r="E37" s="19"/>
+      <c r="E37" s="20"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
@@ -1845,7 +1860,7 @@
       <c r="D38" s="9">
         <v>1</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="18" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1862,7 +1877,7 @@
       <c r="D39" s="12">
         <v>-1</v>
       </c>
-      <c r="E39" s="19"/>
+      <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
@@ -1877,7 +1892,7 @@
       <c r="D40" s="9">
         <v>1</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1894,7 +1909,7 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="18"/>
+      <c r="E41" s="19"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
@@ -1909,7 +1924,7 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="18"/>
+      <c r="E42" s="19"/>
     </row>
     <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
@@ -1924,7 +1939,7 @@
       <c r="D43" s="6">
         <v>-1</v>
       </c>
-      <c r="E43" s="19"/>
+      <c r="E43" s="20"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
@@ -1939,7 +1954,7 @@
       <c r="D44" s="9">
         <v>1</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1956,7 +1971,7 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="18"/>
+      <c r="E45" s="19"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
@@ -1971,7 +1986,7 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="18"/>
+      <c r="E46" s="19"/>
     </row>
     <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
@@ -1986,7 +2001,7 @@
       <c r="D47" s="6">
         <v>-1</v>
       </c>
-      <c r="E47" s="19"/>
+      <c r="E47" s="20"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
@@ -2001,7 +2016,7 @@
       <c r="D48" s="9">
         <v>1</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="18" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2018,7 +2033,7 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="18"/>
+      <c r="E49" s="19"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
@@ -2033,7 +2048,7 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="18"/>
+      <c r="E50" s="19"/>
     </row>
     <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
@@ -2048,7 +2063,7 @@
       <c r="D51" s="6">
         <v>-1</v>
       </c>
-      <c r="E51" s="19"/>
+      <c r="E51" s="20"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
@@ -2063,7 +2078,7 @@
       <c r="D52" s="9">
         <v>1</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="18" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2080,7 +2095,7 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="18"/>
+      <c r="E53" s="19"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
@@ -2095,7 +2110,7 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="18"/>
+      <c r="E54" s="19"/>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
@@ -2110,7 +2125,7 @@
       <c r="D55" s="12">
         <v>-1</v>
       </c>
-      <c r="E55" s="19"/>
+      <c r="E55" s="20"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
@@ -2121,22 +2136,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2145,10 +2160,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B8A7D-056B-43CF-B8CF-47A9850E51E0}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2161,21 +2176,20 @@
     <col min="6" max="6" width="25" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="10" width="10.77734375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
@@ -2204,92 +2218,98 @@
         <v>92</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="K1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="S1" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="I2" s="2">
         <v>90001</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2">
-        <v>5</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="T2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2297,219 +2317,235 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I3" s="2">
         <v>28013</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
-        <v>116</v>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>25</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>6</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="I4" s="2">
         <v>78701</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>107</v>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>108</v>
+      <c r="N4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2">
+        <v>0</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I5" s="2">
         <v>75201</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>15</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>10</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="I6" s="2">
         <v>10118</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2">
+      <c r="N6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2">
         <v>15</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="Q6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -2517,220 +2553,70 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="I7" s="2">
         <v>60606</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>116</v>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>10</v>
       </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>108</v>
+      <c r="P7" s="2">
+        <v>0</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>145</v>
+        <v>106</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" xr:uid="{429C311D-6D48-48CA-9A9D-C04FAC21AFC1}"/>
-    <hyperlink ref="R3" r:id="rId2" xr:uid="{FAFBBC17-1F1F-4CE2-BBF2-E4AEA8EE1ED4}"/>
-    <hyperlink ref="R4" r:id="rId3" xr:uid="{F3C188DE-CC3C-4EF9-8248-BB75D6CA48C5}"/>
-    <hyperlink ref="R5" r:id="rId4" xr:uid="{3162BC19-B05A-40BA-92BD-54B8E669E299}"/>
-    <hyperlink ref="R6" r:id="rId5" xr:uid="{93615EC5-2AF1-4B5B-9A79-A890026A7F9E}"/>
-    <hyperlink ref="R7" r:id="rId6" xr:uid="{904212DF-3581-4833-B3AE-9EB777FD795F}"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{429C311D-6D48-48CA-9A9D-C04FAC21AFC1}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{FAFBBC17-1F1F-4CE2-BBF2-E4AEA8EE1ED4}"/>
+    <hyperlink ref="S4" r:id="rId3" xr:uid="{F3C188DE-CC3C-4EF9-8248-BB75D6CA48C5}"/>
+    <hyperlink ref="S5" r:id="rId4" xr:uid="{3162BC19-B05A-40BA-92BD-54B8E669E299}"/>
+    <hyperlink ref="S6" r:id="rId5" xr:uid="{93615EC5-2AF1-4B5B-9A79-A890026A7F9E}"/>
+    <hyperlink ref="S7" r:id="rId6" xr:uid="{904212DF-3581-4833-B3AE-9EB777FD795F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2802F586-CEB6-4C08-8187-E8E837AA502E}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="2">
-        <v>90001</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2">
-        <v>5</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" xr:uid="{93960A4B-CE6C-4D60-81C7-FC9006DE0E6D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-</worksheet>
 </file>
--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5E701C-0F06-4AF9-84CE-DE4FBECF5A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2578B750-71A9-4A52-890D-B3A2604FDE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
     <sheet name="ValueList" sheetId="1" r:id="rId2"/>
     <sheet name="Customer" sheetId="4" r:id="rId3"/>
+    <sheet name="ShortCuts" sheetId="6" r:id="rId4"/>
+    <sheet name="Test" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="171">
   <si>
     <t>Name</t>
   </si>
@@ -468,6 +470,78 @@
   </si>
   <si>
     <t>william@gmail.com</t>
+  </si>
+  <si>
+    <t>Short Code</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>AML</t>
+  </si>
+  <si>
+    <t>All My Love</t>
+  </si>
+  <si>
+    <t>AOL</t>
+  </si>
+  <si>
+    <t>All Our Love</t>
+  </si>
+  <si>
+    <t>All the Best</t>
+  </si>
+  <si>
+    <t>ATB</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Best Regards</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>Best Wishes</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congratulations</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Deepest Sympathy</t>
+  </si>
+  <si>
+    <t>FBS</t>
+  </si>
+  <si>
+    <t>Feel Better Soon</t>
+  </si>
+  <si>
+    <t>GBY</t>
+  </si>
+  <si>
+    <t>God Bless You</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Good Luck</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Test 2</t>
   </si>
 </sst>
 </file>
@@ -2136,22 +2210,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2162,7 +2236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B8A7D-056B-43CF-B8CF-47A9850E51E0}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2619,4 +2693,158 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B997F-3DC4-4C7D-9993-70026FD21600}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE96B074-BAA6-41E4-A885-01589CFEB352}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2578B750-71A9-4A52-890D-B3A2604FDE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB5A4C9-9829-4E38-92EC-77CB54CA85F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
     <sheet name="ValueList" sheetId="1" r:id="rId2"/>
     <sheet name="Customer" sheetId="4" r:id="rId3"/>
     <sheet name="ShortCuts" sheetId="6" r:id="rId4"/>
-    <sheet name="Test" sheetId="7" r:id="rId5"/>
+    <sheet name="Vehicle" sheetId="7" r:id="rId5"/>
+    <sheet name="Test" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="203">
   <si>
     <t>Name</t>
   </si>
@@ -538,17 +539,113 @@
     <t>Good Luck</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Test 2</t>
+    <t>License</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Expiration Date</t>
+  </si>
+  <si>
+    <t>Maintenance Due</t>
+  </si>
+  <si>
+    <t>BD-1234</t>
+  </si>
+  <si>
+    <t>BD-5678</t>
+  </si>
+  <si>
+    <t>BD-9101</t>
+  </si>
+  <si>
+    <t>BD-1123</t>
+  </si>
+  <si>
+    <t>BD-3145</t>
+  </si>
+  <si>
+    <t>BD-6178</t>
+  </si>
+  <si>
+    <t>1HGCM82633A123456</t>
+  </si>
+  <si>
+    <t>2T1BURHE9HC876543</t>
+  </si>
+  <si>
+    <t>JHMCM56557C890123</t>
+  </si>
+  <si>
+    <t>5NPE24AF7GH456789</t>
+  </si>
+  <si>
+    <t>KMHCT4AE7GU567890</t>
+  </si>
+  <si>
+    <t>19XFB2F5XEE890567</t>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+  </si>
+  <si>
+    <t>Nissan Altima</t>
+  </si>
+  <si>
+    <t>Hyundai Sonata</t>
+  </si>
+  <si>
+    <t>Suzuki Alto</t>
+  </si>
+  <si>
+    <t>Mitsubishi Pajero</t>
+  </si>
+  <si>
+    <t>08/20/2025</t>
+  </si>
+  <si>
+    <t>07/15/2025</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>12/10/2025</t>
+  </si>
+  <si>
+    <t>10/18/2025</t>
+  </si>
+  <si>
+    <t>01/30/2024</t>
+  </si>
+  <si>
+    <t>06/30/2025</t>
+  </si>
+  <si>
+    <t>11/15/2025</t>
+  </si>
+  <si>
+    <t>09/25/2025</t>
+  </si>
+  <si>
+    <t>11/30/2025</t>
+  </si>
+  <si>
+    <t>10/20/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +698,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -808,7 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -859,6 +962,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1369,7 +1478,7 @@
       <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1386,7 +1495,7 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
@@ -1401,7 +1510,7 @@
       <c r="D4" s="12">
         <v>-1</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -1416,7 +1525,7 @@
       <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="20" t="s">
         <v>84</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1436,7 +1545,7 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
@@ -1451,7 +1560,7 @@
       <c r="D7" s="6">
         <v>-1</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -1466,7 +1575,7 @@
       <c r="D8" s="9">
         <v>1</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="20" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1483,7 +1592,7 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -1498,7 +1607,7 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
@@ -1513,7 +1622,7 @@
       <c r="D11" s="6">
         <v>-1</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -1528,7 +1637,7 @@
       <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="20" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1545,7 +1654,7 @@
       <c r="D13" s="12">
         <v>-1</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -1560,7 +1669,7 @@
       <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="20" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1577,7 +1686,7 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
@@ -1592,7 +1701,7 @@
       <c r="D16" s="6">
         <v>-1</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -1607,7 +1716,7 @@
       <c r="D17" s="9">
         <v>1</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="20" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1624,7 +1733,7 @@
       <c r="D18" s="12">
         <v>-1</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -1639,7 +1748,7 @@
       <c r="D19" s="9">
         <v>1</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="20" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1656,7 +1765,7 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="19"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -1671,7 +1780,7 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="19"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
@@ -1686,7 +1795,7 @@
       <c r="D22" s="6">
         <v>-1</v>
       </c>
-      <c r="E22" s="20"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
@@ -1701,7 +1810,7 @@
       <c r="D23" s="9">
         <v>1</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="20" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1718,7 +1827,7 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="19"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
@@ -1733,7 +1842,7 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="19"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
@@ -1748,7 +1857,7 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="19"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
@@ -1763,7 +1872,7 @@
       <c r="D27" s="12">
         <v>-1</v>
       </c>
-      <c r="E27" s="20"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
@@ -1778,7 +1887,7 @@
       <c r="D28" s="9">
         <v>1</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="20" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1795,7 +1904,7 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="19"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
@@ -1810,7 +1919,7 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="19"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
@@ -1825,7 +1934,7 @@
       <c r="D31" s="6">
         <v>-1</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
@@ -1840,7 +1949,7 @@
       <c r="D32" s="9">
         <v>1</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="20" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1857,7 +1966,7 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="19"/>
+      <c r="E33" s="21"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
@@ -1872,7 +1981,7 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="19"/>
+      <c r="E34" s="21"/>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
@@ -1887,7 +1996,7 @@
       <c r="D35" s="6">
         <v>-1</v>
       </c>
-      <c r="E35" s="20"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
@@ -1902,7 +2011,7 @@
       <c r="D36" s="9">
         <v>1</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="20" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1919,7 +2028,7 @@
       <c r="D37" s="12">
         <v>-1</v>
       </c>
-      <c r="E37" s="20"/>
+      <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
@@ -1934,7 +2043,7 @@
       <c r="D38" s="9">
         <v>1</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="20" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1951,7 +2060,7 @@
       <c r="D39" s="12">
         <v>-1</v>
       </c>
-      <c r="E39" s="20"/>
+      <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
@@ -1966,7 +2075,7 @@
       <c r="D40" s="9">
         <v>1</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="20" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1983,7 +2092,7 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="19"/>
+      <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
@@ -1998,7 +2107,7 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="19"/>
+      <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
@@ -2013,7 +2122,7 @@
       <c r="D43" s="6">
         <v>-1</v>
       </c>
-      <c r="E43" s="20"/>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
@@ -2028,7 +2137,7 @@
       <c r="D44" s="9">
         <v>1</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="20" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2045,7 +2154,7 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="19"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
@@ -2060,7 +2169,7 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="19"/>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
@@ -2075,7 +2184,7 @@
       <c r="D47" s="6">
         <v>-1</v>
       </c>
-      <c r="E47" s="20"/>
+      <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
@@ -2090,7 +2199,7 @@
       <c r="D48" s="9">
         <v>1</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="20" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2107,7 +2216,7 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="19"/>
+      <c r="E49" s="21"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
@@ -2122,7 +2231,7 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="19"/>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
@@ -2137,7 +2246,7 @@
       <c r="D51" s="6">
         <v>-1</v>
       </c>
-      <c r="E51" s="20"/>
+      <c r="E51" s="22"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
@@ -2152,7 +2261,7 @@
       <c r="D52" s="9">
         <v>1</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="20" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2169,7 +2278,7 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="19"/>
+      <c r="E53" s="21"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
@@ -2184,7 +2293,7 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="19"/>
+      <c r="E54" s="21"/>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
@@ -2199,7 +2308,7 @@
       <c r="D55" s="12">
         <v>-1</v>
       </c>
-      <c r="E55" s="20"/>
+      <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
@@ -2806,41 +2915,246 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE96B074-BAA6-41E4-A885-01589CFEB352}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="17.88671875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76421E-550A-4F58-ABC5-0AC68C5F2DE6}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="17.88671875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>169</v>
       </c>
+      <c r="B1" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>181</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB5A4C9-9829-4E38-92EC-77CB54CA85F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D0486B-BD29-45E1-BA6D-BEAFF8584C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="209">
   <si>
     <t>Name</t>
   </si>
@@ -639,6 +639,24 @@
   </si>
   <si>
     <t>10/20/2025</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>Logoff</t>
+  </si>
+  <si>
+    <t>Clock Type</t>
+  </si>
+  <si>
+    <t>Daily Overtime</t>
+  </si>
+  <si>
+    <t>Weekly Overtime</t>
+  </si>
+  <si>
+    <t>1/1/2025</t>
   </si>
 </sst>
 </file>
@@ -2319,22 +2337,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3083,35 +3101,35 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="17.88671875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="18" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>173</v>
@@ -3121,9 +3139,7 @@
       <c r="A2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>186</v>
       </c>
@@ -3134,16 +3150,14 @@
         <v>193</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>187</v>
       </c>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D0486B-BD29-45E1-BA6D-BEAFF8584C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C1E0CB-DDD4-4465-A2EC-1A855388DBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Customer" sheetId="4" r:id="rId3"/>
     <sheet name="ShortCuts" sheetId="6" r:id="rId4"/>
     <sheet name="Vehicle" sheetId="7" r:id="rId5"/>
-    <sheet name="Test" sheetId="8" r:id="rId6"/>
+    <sheet name="Product" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="340">
   <si>
     <t>Name</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Arrangements</t>
   </si>
   <si>
-    <t>Balloons</t>
-  </si>
-  <si>
     <t>Blooming Plants</t>
   </si>
   <si>
@@ -641,29 +638,425 @@
     <t>10/20/2025</t>
   </si>
   <si>
-    <t>Checkout</t>
-  </si>
-  <si>
-    <t>Logoff</t>
-  </si>
-  <si>
-    <t>Clock Type</t>
-  </si>
-  <si>
-    <t>Daily Overtime</t>
-  </si>
-  <si>
-    <t>Weekly Overtime</t>
-  </si>
-  <si>
-    <t>1/1/2025</t>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>C. Code</t>
+  </si>
+  <si>
+    <t>P. Unit</t>
+  </si>
+  <si>
+    <t>P. Unit Value</t>
+  </si>
+  <si>
+    <t>S. Unit</t>
+  </si>
+  <si>
+    <t>S. Unit Value</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Commisionable</t>
+  </si>
+  <si>
+    <t>Force W.S.</t>
+  </si>
+  <si>
+    <t>Wire Service</t>
+  </si>
+  <si>
+    <t>Non Taxable</t>
+  </si>
+  <si>
+    <t>Base Price</t>
+  </si>
+  <si>
+    <t>Mid Price</t>
+  </si>
+  <si>
+    <t>High Price</t>
+  </si>
+  <si>
+    <t>WireOut Price</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>BP Override</t>
+  </si>
+  <si>
+    <t>Track Inventory</t>
+  </si>
+  <si>
+    <t>On Hand</t>
+  </si>
+  <si>
+    <t>On Order</t>
+  </si>
+  <si>
+    <t>Low Stock</t>
+  </si>
+  <si>
+    <t>Out of Stock Sale</t>
+  </si>
+  <si>
+    <t>Is Seasonal</t>
+  </si>
+  <si>
+    <t>Is Seasonal Pricing</t>
+  </si>
+  <si>
+    <t>Seasonal Price</t>
+  </si>
+  <si>
+    <t>Seasonal Availability</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Image URL</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>F001</t>
+  </si>
+  <si>
+    <t>F002</t>
+  </si>
+  <si>
+    <t>F003</t>
+  </si>
+  <si>
+    <t>F004</t>
+  </si>
+  <si>
+    <t>F005</t>
+  </si>
+  <si>
+    <t>F006</t>
+  </si>
+  <si>
+    <t>F007</t>
+  </si>
+  <si>
+    <t>F008</t>
+  </si>
+  <si>
+    <t>F009</t>
+  </si>
+  <si>
+    <t>F010</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>HC-01</t>
+  </si>
+  <si>
+    <t>DL-01</t>
+  </si>
+  <si>
+    <t>TL-01</t>
+  </si>
+  <si>
+    <t>BQ-1001</t>
+  </si>
+  <si>
+    <t>ARR-2001</t>
+  </si>
+  <si>
+    <t>ST-3001</t>
+  </si>
+  <si>
+    <t>BQ-1002</t>
+  </si>
+  <si>
+    <t>ARR-2002</t>
+  </si>
+  <si>
+    <t>ST-3002</t>
+  </si>
+  <si>
+    <t>BQ-1003</t>
+  </si>
+  <si>
+    <t>BQ-1004</t>
+  </si>
+  <si>
+    <t>ARR-2003</t>
+  </si>
+  <si>
+    <t>ST-3003</t>
+  </si>
+  <si>
+    <t>Stems</t>
+  </si>
+  <si>
+    <t>Hyacinths Flower</t>
+  </si>
+  <si>
+    <t>Daffodils</t>
+  </si>
+  <si>
+    <t>Tulip</t>
+  </si>
+  <si>
+    <t>Rose Delight</t>
+  </si>
+  <si>
+    <t>Sunflower Bliss</t>
+  </si>
+  <si>
+    <t>Pink Lily</t>
+  </si>
+  <si>
+    <t>Daisy Charm</t>
+  </si>
+  <si>
+    <t>Orchid Elegance</t>
+  </si>
+  <si>
+    <t>Red Tulip</t>
+  </si>
+  <si>
+    <t>Peony Paradise</t>
+  </si>
+  <si>
+    <t>Spring Melody</t>
+  </si>
+  <si>
+    <t>Autumn Harvest</t>
+  </si>
+  <si>
+    <t>White Rose</t>
+  </si>
+  <si>
+    <t>Daffodils Flower</t>
+  </si>
+  <si>
+    <t>Tulip Flower</t>
+  </si>
+  <si>
+    <t>A classic bouquet of red roses</t>
+  </si>
+  <si>
+    <t>Bright sunflower arrangement</t>
+  </si>
+  <si>
+    <t>Elegant pink lily stem</t>
+  </si>
+  <si>
+    <t>Mixed daisy bouquet</t>
+  </si>
+  <si>
+    <t>Stunning orchid arrangement</t>
+  </si>
+  <si>
+    <t>Vibrant red tulip stem</t>
+  </si>
+  <si>
+    <t>Lush pink peonies bouquet</t>
+  </si>
+  <si>
+    <t>Fresh mix of spring flowers</t>
+  </si>
+  <si>
+    <t>Warm arrangement of fall colors</t>
+  </si>
+  <si>
+    <t>Elegant single white rose stem</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>34.99</t>
+  </si>
+  <si>
+    <t>6.99</t>
+  </si>
+  <si>
+    <t>54.99</t>
+  </si>
+  <si>
+    <t>30.99</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>12/31/2024</t>
+  </si>
+  <si>
+    <t>12/15/2024</t>
+  </si>
+  <si>
+    <t>12/25/2024</t>
+  </si>
+  <si>
+    <t>11/30/2024</t>
+  </si>
+  <si>
+    <t>01/01/2025</t>
+  </si>
+  <si>
+    <t>01/31/2025</t>
+  </si>
+  <si>
+    <t>FLR-A01-S01</t>
+  </si>
+  <si>
+    <t>FLR-A01-S02</t>
+  </si>
+  <si>
+    <t>FLR-A02-S01</t>
+  </si>
+  <si>
+    <t>FLR-B01-S01</t>
+  </si>
+  <si>
+    <t>FLR-B02-S02</t>
+  </si>
+  <si>
+    <t>FLR-C01-S03</t>
+  </si>
+  <si>
+    <t>FLR-C02-S01</t>
+  </si>
+  <si>
+    <t>FLR-D01-S02</t>
+  </si>
+  <si>
+    <t>FLR-E01-S01</t>
+  </si>
+  <si>
+    <t>FLR-F01-S02</t>
+  </si>
+  <si>
+    <t>Piece</t>
+  </si>
+  <si>
+    <t>Bunch</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9.99</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>49.99</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Bloomnet</t>
+  </si>
+  <si>
+    <t>FTD</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>55.99</t>
+  </si>
+  <si>
+    <t>35.99</t>
+  </si>
+  <si>
+    <t>18.99</t>
+  </si>
+  <si>
+    <t>74.99</t>
+  </si>
+  <si>
+    <t>64.99</t>
+  </si>
+  <si>
+    <t>14.99</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,8 +1115,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -736,8 +1135,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -771,19 +1176,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -929,7 +1321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -955,19 +1347,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +1368,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -988,14 +1377,35 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1436,7 +1846,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="3">
         <v>17</v>
@@ -1450,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1467,41 +1877,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="C2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>83</v>
+      <c r="E2" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="2">
@@ -1513,45 +1923,45 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11">
         <v>-1</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="C5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>84</v>
+      <c r="E5" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="2">
@@ -1563,42 +1973,42 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="6">
         <v>-1</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="9">
+        <v>92</v>
+      </c>
+      <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>85</v>
+      <c r="E8" s="19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="2">
@@ -1610,10 +2020,10 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="2">
@@ -1625,10 +2035,10 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="6">
@@ -1640,59 +2050,59 @@
       <c r="D11" s="6">
         <v>-1</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>0</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="12">
-        <v>-1</v>
-      </c>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="2">
@@ -1704,74 +2114,74 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>93</v>
+      <c r="C16" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="D16" s="6">
         <v>-1</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>0</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="C17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="12">
-        <v>1</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="12">
-        <v>-1</v>
-      </c>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="2">
@@ -1783,10 +2193,10 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="21"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="2">
@@ -1798,42 +2208,42 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="21"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="12">
-        <v>3</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="11">
+        <v>3</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="6">
         <v>-1</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>0</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="C23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="20" t="s">
-        <v>74</v>
+      <c r="E23" s="19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="2">
@@ -1845,10 +2255,10 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="21"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="2">
@@ -1860,10 +2270,10 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="21"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="2">
@@ -1875,42 +2285,42 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="21"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>4</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="12">
+      <c r="C27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11">
         <v>-1</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>0</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="C28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="8">
         <v>1</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>75</v>
+      <c r="E28" s="19" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="2">
@@ -1922,10 +2332,10 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="21"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="2">
@@ -1937,42 +2347,42 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="21"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="12">
-        <v>3</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="11">
+        <v>3</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="6">
         <v>-1</v>
       </c>
-      <c r="E31" s="22"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>0</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="C32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>76</v>
+      <c r="E32" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="2">
@@ -1984,10 +2394,10 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="21"/>
+      <c r="E33" s="20"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="2">
@@ -1999,107 +2409,107 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="21"/>
+      <c r="E34" s="20"/>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="12">
-        <v>3</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="11">
+        <v>3</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="6">
         <v>-1</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="21"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>0</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="C36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="8">
+        <v>0</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1</v>
+      </c>
+      <c r="E38" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="12">
+    <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="11">
         <v>1</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="12">
+      <c r="C39" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="11">
         <v>-1</v>
       </c>
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="9">
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="8">
         <v>0</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="9">
+      <c r="C40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="8">
         <v>1</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E40" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="12">
-        <v>1</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="12">
-        <v>-1</v>
-      </c>
-      <c r="E39" s="22"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="9">
-        <v>0</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="9">
-        <v>1</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>58</v>
+      <c r="A41" s="9" t="s">
+        <v>263</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -2110,58 +2520,58 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="21"/>
+      <c r="E41" s="20"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>59</v>
+      <c r="A42" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="21"/>
+      <c r="E42" s="20"/>
     </row>
     <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="12">
-        <v>3</v>
-      </c>
-      <c r="C43" s="12" t="s">
+      <c r="A43" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="11">
+        <v>3</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="6">
         <v>-1</v>
       </c>
-      <c r="E43" s="22"/>
+      <c r="E43" s="21"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="9">
+      <c r="A44" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="8">
         <v>0</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="9">
+      <c r="C44" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="8">
         <v>1</v>
       </c>
-      <c r="E44" s="20" t="s">
-        <v>80</v>
+      <c r="E44" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>61</v>
+      <c r="A45" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -2172,11 +2582,11 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="21"/>
+      <c r="E45" s="20"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
-        <v>62</v>
+      <c r="A46" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B46" s="2">
         <v>2</v>
@@ -2187,43 +2597,43 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="21"/>
+      <c r="E46" s="20"/>
     </row>
     <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="12">
-        <v>3</v>
-      </c>
-      <c r="C47" s="12" t="s">
+      <c r="A47" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="11">
+        <v>3</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="6">
         <v>-1</v>
       </c>
-      <c r="E47" s="22"/>
+      <c r="E47" s="21"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>0</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="9">
+      <c r="C48" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="8">
         <v>1</v>
       </c>
-      <c r="E48" s="20" t="s">
-        <v>81</v>
+      <c r="E48" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>64</v>
+      <c r="A49" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
@@ -2234,11 +2644,11 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="21"/>
+      <c r="E49" s="20"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>65</v>
+      <c r="A50" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="B50" s="2">
         <v>2</v>
@@ -2249,42 +2659,42 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="21"/>
+      <c r="E50" s="20"/>
     </row>
     <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="12">
-        <v>3</v>
-      </c>
-      <c r="C51" s="12" t="s">
+      <c r="A51" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="11">
+        <v>3</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="6">
         <v>-1</v>
       </c>
-      <c r="E51" s="22"/>
+      <c r="E51" s="21"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="8">
         <v>0</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="9">
+      <c r="C52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="8">
         <v>1</v>
       </c>
-      <c r="E52" s="20" t="s">
-        <v>82</v>
+      <c r="E52" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="2">
@@ -2296,10 +2706,10 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="21"/>
+      <c r="E53" s="20"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B54" s="2">
@@ -2311,48 +2721,41 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="21"/>
+      <c r="E54" s="20"/>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="12">
-        <v>3</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="12">
+      <c r="A55" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="11">
+        <v>3</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="11">
         <v>-1</v>
       </c>
-      <c r="E55" s="22"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="E55" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2391,89 +2794,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="I2" s="2">
         <v>90001</v>
@@ -2481,14 +2884,14 @@
       <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>3</v>
@@ -2498,16 +2901,16 @@
         <v>5</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -2518,22 +2921,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I3" s="2">
         <v>28013</v>
@@ -2541,8 +2944,8 @@
       <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>143</v>
+      <c r="K3" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
@@ -2551,7 +2954,7 @@
         <v>3</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2">
         <v>25</v>
@@ -2560,40 +2963,40 @@
         <v>6</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="T3" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="I4" s="2">
         <v>78701</v>
@@ -2601,14 +3004,14 @@
       <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>143</v>
+      <c r="K4" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>3</v>
@@ -2618,38 +3021,38 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="T4" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="I5" s="2">
         <v>75201</v>
@@ -2657,7 +3060,7 @@
       <c r="J5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -2667,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O5" s="2">
         <v>15</v>
@@ -2676,40 +3079,40 @@
         <v>10</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S5" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="T5" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="I6" s="2">
         <v>10118</v>
@@ -2717,14 +3120,14 @@
       <c r="J6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>3</v>
@@ -2734,16 +3137,16 @@
         <v>15</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S6" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="T6" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -2754,22 +3157,22 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="I7" s="2">
         <v>60606</v>
@@ -2777,8 +3180,8 @@
       <c r="J7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>143</v>
+      <c r="K7" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>24</v>
@@ -2787,7 +3190,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O7" s="2">
         <v>10</v>
@@ -2796,16 +3199,16 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>141</v>
+        <v>105</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2838,91 +3241,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +3339,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2945,149 +3348,149 @@
     <col min="2" max="2" width="24.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="17.88671875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="17" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>198</v>
+      <c r="E2" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>197</v>
+        <v>63</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>199</v>
+        <v>64</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>200</v>
+      <c r="E6" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3098,80 +3501,1556 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76421E-550A-4F58-ABC5-0AC68C5F2DE6}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.77734375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.77734375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="21.77734375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.109375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12" style="1" customWidth="1"/>
+    <col min="36" max="36" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="62.21875" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:37" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="F1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="J1" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>197</v>
-      </c>
+      <c r="D2" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="22">
+        <v>10</v>
+      </c>
+      <c r="T2" s="22">
+        <v>15</v>
+      </c>
+      <c r="U2" s="22">
+        <v>20</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="22">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" s="15"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" s="22">
+        <v>20</v>
+      </c>
+      <c r="T3" s="22">
+        <v>25</v>
+      </c>
+      <c r="U3" s="22">
+        <v>30</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="22">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB3" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK3" s="15"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="S4" s="22">
+        <v>5</v>
+      </c>
+      <c r="T4" s="22">
+        <v>10</v>
+      </c>
+      <c r="U4" s="22">
+        <v>15</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z4" s="22">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF4" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH4" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI4" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK4" s="15"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="22">
+        <v>29.99</v>
+      </c>
+      <c r="T5" s="22">
+        <v>39.99</v>
+      </c>
+      <c r="U5" s="22">
+        <v>49.99</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="W5" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" s="22">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF5" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH5" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI5" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK5" s="15"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6" s="22">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="T6" s="22">
+        <v>24.99</v>
+      </c>
+      <c r="U6" s="22">
+        <v>29.99</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="X6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB6" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK6" s="15"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="22">
+        <v>5.99</v>
+      </c>
+      <c r="T7" s="22">
+        <v>7.99</v>
+      </c>
+      <c r="U7" s="22">
+        <v>9.99</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="W7" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>100</v>
+      </c>
+      <c r="AA7" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB7" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF7" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH7" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI7" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK7" s="15"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="22">
+        <v>15.99</v>
+      </c>
+      <c r="T8" s="22">
+        <v>20.99</v>
+      </c>
+      <c r="U8" s="22">
+        <v>25.99</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="W8" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z8" s="22">
+        <v>75</v>
+      </c>
+      <c r="AA8" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB8" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH8" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI8" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="AJ8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK8" s="15"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" s="22">
+        <v>49.99</v>
+      </c>
+      <c r="T9" s="22">
+        <v>59.99</v>
+      </c>
+      <c r="U9" s="22">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="W9" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="X9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z9" s="22">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB9" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF9" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK9" s="15"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="22">
+        <v>3.99</v>
+      </c>
+      <c r="T10" s="22">
+        <v>4.99</v>
+      </c>
+      <c r="U10" s="22">
+        <v>5.99</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="22">
+        <v>150</v>
+      </c>
+      <c r="AA10" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB10" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC10" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD10" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH10" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI10" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="AJ10" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK10" s="15"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="S11" s="22">
+        <v>39.99</v>
+      </c>
+      <c r="T11" s="22">
+        <v>49.99</v>
+      </c>
+      <c r="U11" s="22">
+        <v>59.99</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="X11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z11" s="22">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB11" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH11" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI11" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK11" s="15"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="22">
+        <v>25.99</v>
+      </c>
+      <c r="T12" s="22">
+        <v>35.99</v>
+      </c>
+      <c r="U12" s="22">
+        <v>45.99</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="W12" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z12" s="22">
+        <v>60</v>
+      </c>
+      <c r="AA12" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB12" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF12" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH12" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI12" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK12" s="15"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="S13" s="22">
+        <v>29.99</v>
+      </c>
+      <c r="T13" s="22">
+        <v>39.99</v>
+      </c>
+      <c r="U13" s="22">
+        <v>49.99</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="X13" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="22">
+        <v>40</v>
+      </c>
+      <c r="AA13" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB13" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC13" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF13" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH13" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI13" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK13" s="15"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="22">
+        <v>4.99</v>
+      </c>
+      <c r="T14" s="22">
+        <v>6.99</v>
+      </c>
+      <c r="U14" s="22">
+        <v>8.99</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="W14" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="X14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="22">
+        <v>200</v>
+      </c>
+      <c r="AA14" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB14" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK14" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C1E0CB-DDD4-4465-A2EC-1A855388DBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E50F78-B047-4DAE-A632-B4D583B921D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ShortCuts" sheetId="6" r:id="rId4"/>
     <sheet name="Vehicle" sheetId="7" r:id="rId5"/>
     <sheet name="Product" sheetId="8" r:id="rId6"/>
+    <sheet name="Test" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="347">
   <si>
     <t>Name</t>
   </si>
@@ -917,24 +918,9 @@
     <t>12/01/2024</t>
   </si>
   <si>
-    <t>12/31/2024</t>
-  </si>
-  <si>
-    <t>12/15/2024</t>
-  </si>
-  <si>
-    <t>12/25/2024</t>
-  </si>
-  <si>
-    <t>11/30/2024</t>
-  </si>
-  <si>
     <t>01/01/2025</t>
   </si>
   <si>
-    <t>01/31/2025</t>
-  </si>
-  <si>
     <t>FLR-A01-S01</t>
   </si>
   <si>
@@ -977,9 +963,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>9.99</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -1007,9 +990,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>49.99</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -1031,25 +1011,67 @@
     <t>35</t>
   </si>
   <si>
-    <t>55.99</t>
-  </si>
-  <si>
-    <t>35.99</t>
-  </si>
-  <si>
-    <t>18.99</t>
-  </si>
-  <si>
-    <t>74.99</t>
-  </si>
-  <si>
-    <t>64.99</t>
-  </si>
-  <si>
-    <t>14.99</t>
-  </si>
-  <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>hc.png</t>
+  </si>
+  <si>
+    <t>dl.png</t>
+  </si>
+  <si>
+    <t>tl.png</t>
+  </si>
+  <si>
+    <t>f001.png</t>
+  </si>
+  <si>
+    <t>f002.png</t>
+  </si>
+  <si>
+    <t>f003.png</t>
+  </si>
+  <si>
+    <t>f004.png</t>
+  </si>
+  <si>
+    <t>f005.png</t>
+  </si>
+  <si>
+    <t>f006.png</t>
+  </si>
+  <si>
+    <t>f007.png</t>
+  </si>
+  <si>
+    <t>f008.png</t>
+  </si>
+  <si>
+    <t>f009.png</t>
+  </si>
+  <si>
+    <t>f010.png</t>
+  </si>
+  <si>
+    <t>31/12/2025</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>03/01/2025</t>
   </si>
 </sst>
 </file>
@@ -1377,15 +1399,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1406,6 +1419,15 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1906,7 +1928,7 @@
       <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="26" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1923,7 +1945,7 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -1938,7 +1960,7 @@
       <c r="D4" s="11">
         <v>-1</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -1953,7 +1975,7 @@
       <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="26" t="s">
         <v>83</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1973,7 +1995,7 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -1988,7 +2010,7 @@
       <c r="D7" s="6">
         <v>-1</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -2003,7 +2025,7 @@
       <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="26" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2020,7 +2042,7 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -2035,7 +2057,7 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
@@ -2050,7 +2072,7 @@
       <c r="D11" s="6">
         <v>-1</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -2065,7 +2087,7 @@
       <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="26" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2082,7 +2104,7 @@
       <c r="D13" s="11">
         <v>-1</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -2097,7 +2119,7 @@
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2114,7 +2136,7 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
@@ -2129,7 +2151,7 @@
       <c r="D16" s="6">
         <v>-1</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -2144,7 +2166,7 @@
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="26" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2161,7 +2183,7 @@
       <c r="D18" s="11">
         <v>-1</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -2176,7 +2198,7 @@
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="26" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2193,7 +2215,7 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -2208,7 +2230,7 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
@@ -2223,7 +2245,7 @@
       <c r="D22" s="6">
         <v>-1</v>
       </c>
-      <c r="E22" s="21"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -2238,7 +2260,7 @@
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="26" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2255,7 +2277,7 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="20"/>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
@@ -2270,7 +2292,7 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
@@ -2285,7 +2307,7 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="20"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
@@ -2300,7 +2322,7 @@
       <c r="D27" s="11">
         <v>-1</v>
       </c>
-      <c r="E27" s="21"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -2315,7 +2337,7 @@
       <c r="D28" s="8">
         <v>1</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="26" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2332,7 +2354,7 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
@@ -2347,7 +2369,7 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
@@ -2362,7 +2384,7 @@
       <c r="D31" s="6">
         <v>-1</v>
       </c>
-      <c r="E31" s="21"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
@@ -2377,7 +2399,7 @@
       <c r="D32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="26" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2394,7 +2416,7 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="20"/>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
@@ -2409,7 +2431,7 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="20"/>
+      <c r="E34" s="27"/>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
@@ -2424,7 +2446,7 @@
       <c r="D35" s="6">
         <v>-1</v>
       </c>
-      <c r="E35" s="21"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
@@ -2439,7 +2461,7 @@
       <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="26" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2456,7 +2478,7 @@
       <c r="D37" s="11">
         <v>-1</v>
       </c>
-      <c r="E37" s="21"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
@@ -2471,7 +2493,7 @@
       <c r="D38" s="8">
         <v>1</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="26" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2488,7 +2510,7 @@
       <c r="D39" s="11">
         <v>-1</v>
       </c>
-      <c r="E39" s="21"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -2503,7 +2525,7 @@
       <c r="D40" s="8">
         <v>1</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="26" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2520,7 +2542,7 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="20"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
@@ -2535,7 +2557,7 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="20"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
@@ -2550,7 +2572,7 @@
       <c r="D43" s="6">
         <v>-1</v>
       </c>
-      <c r="E43" s="21"/>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
@@ -2565,7 +2587,7 @@
       <c r="D44" s="8">
         <v>1</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="26" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2582,7 +2604,7 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="20"/>
+      <c r="E45" s="27"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
@@ -2597,7 +2619,7 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="20"/>
+      <c r="E46" s="27"/>
     </row>
     <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
@@ -2612,7 +2634,7 @@
       <c r="D47" s="6">
         <v>-1</v>
       </c>
-      <c r="E47" s="21"/>
+      <c r="E47" s="28"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -2627,7 +2649,7 @@
       <c r="D48" s="8">
         <v>1</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="26" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2644,7 +2666,7 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="20"/>
+      <c r="E49" s="27"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -2659,7 +2681,7 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="20"/>
+      <c r="E50" s="27"/>
     </row>
     <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
@@ -2674,7 +2696,7 @@
       <c r="D51" s="6">
         <v>-1</v>
       </c>
-      <c r="E51" s="21"/>
+      <c r="E51" s="28"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
@@ -2689,7 +2711,7 @@
       <c r="D52" s="8">
         <v>1</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="26" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2706,7 +2728,7 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="20"/>
+      <c r="E53" s="27"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
@@ -2721,7 +2743,7 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="20"/>
+      <c r="E54" s="27"/>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
@@ -2736,7 +2758,7 @@
       <c r="D55" s="11">
         <v>-1</v>
       </c>
-      <c r="E55" s="21"/>
+      <c r="E55" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3501,10 +3523,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76421E-550A-4F58-ABC5-0AC68C5F2DE6}">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3546,10 +3568,11 @@
     <col min="35" max="35" width="12" style="1" customWidth="1"/>
     <col min="36" max="36" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="62.21875" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.88671875" style="1"/>
+    <col min="38" max="38" width="12.21875" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>202</v>
       </c>
@@ -3661,154 +3684,160 @@
       <c r="AK1" s="13" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="AL1" s="13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="19" t="s">
         <v>264</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="M2" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="M2" s="19" t="s">
         <v>264</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="19" t="s">
         <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="15"/>
-      <c r="R2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="22">
+      <c r="R2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="19">
         <v>10</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="19">
         <v>15</v>
       </c>
-      <c r="U2" s="22">
+      <c r="U2" s="19">
         <v>20</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="22">
+        <v>308</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="19">
         <v>20</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AB2" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
+        <v>309</v>
+      </c>
+      <c r="AC2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
       <c r="AJ2" s="15" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="AK2" s="15"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="AL2" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="19" t="s">
         <v>265</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>56</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I3" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="19" t="s">
         <v>277</v>
       </c>
       <c r="N3" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="15" t="s">
@@ -3818,94 +3847,97 @@
       <c r="R3" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="S3" s="22">
+      <c r="S3" s="19">
         <v>20</v>
       </c>
-      <c r="T3" s="22">
+      <c r="T3" s="19">
         <v>25</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="19">
         <v>30</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="X3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="22">
+        <v>310</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="19">
         <v>20</v>
       </c>
       <c r="AA3" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AB3" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
+        <v>309</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
       <c r="AJ3" s="15" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="AK3" s="15"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="AL3" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="19" t="s">
         <v>266</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I4" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>317</v>
-      </c>
       <c r="K4" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="M4" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="M4" s="19" t="s">
         <v>278</v>
       </c>
       <c r="N4" s="15" t="s">
@@ -3921,20 +3953,20 @@
       <c r="R4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="19">
         <v>5</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="19">
         <v>10</v>
       </c>
-      <c r="U4" s="22">
+      <c r="U4" s="19">
         <v>15</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="X4" s="15" t="s">
         <v>92</v>
@@ -3942,14 +3974,14 @@
       <c r="Y4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="Z4" s="22">
+      <c r="Z4" s="19">
         <v>50</v>
       </c>
       <c r="AA4" s="15" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AB4" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AC4" s="15" t="s">
         <v>92</v>
@@ -3960,61 +3992,64 @@
       <c r="AE4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AF4" s="23" t="s">
+      <c r="AF4" s="20" t="s">
         <v>290</v>
       </c>
       <c r="AG4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AH4" s="25" t="s">
+      <c r="AH4" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="AI4" s="25" t="s">
-        <v>295</v>
+      <c r="AI4" s="22" t="s">
+        <v>341</v>
       </c>
       <c r="AJ4" s="15" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="AK4" s="15"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="AL4" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="19" t="s">
         <v>267</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>56</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I5" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>318</v>
-      </c>
       <c r="K5" s="15" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="M5" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="M5" s="19" t="s">
         <v>279</v>
       </c>
       <c r="N5" s="15" t="s">
@@ -4027,23 +4062,23 @@
         <v>3</v>
       </c>
       <c r="Q5" s="15"/>
-      <c r="R5" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="S5" s="22">
+      <c r="R5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="19">
         <v>29.99</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="19">
         <v>39.99</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="19">
         <v>49.99</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="X5" s="15" t="s">
         <v>92</v>
@@ -4051,14 +4086,14 @@
       <c r="Y5" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="Z5" s="22">
+      <c r="Z5" s="19">
         <v>50</v>
       </c>
       <c r="AA5" s="15" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AB5" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AC5" s="15" t="s">
         <v>92</v>
@@ -4069,61 +4104,64 @@
       <c r="AE5" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AF5" s="23" t="s">
+      <c r="AF5" s="20" t="s">
         <v>290</v>
       </c>
       <c r="AG5" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AH5" s="25" t="s">
+      <c r="AH5" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="AI5" s="25" t="s">
-        <v>295</v>
+      <c r="AI5" s="22" t="s">
+        <v>341</v>
       </c>
       <c r="AJ5" s="15" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="AK5" s="15"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="AL5" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="19" t="s">
         <v>268</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="M6" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="M6" s="19" t="s">
         <v>280</v>
       </c>
       <c r="N6" s="15" t="s">
@@ -4136,143 +4174,146 @@
         <v>92</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="R6" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="19">
         <v>19.989999999999998</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="19">
         <v>24.99</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="19">
         <v>29.99</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="W6" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="X6" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="X6" s="19" t="s">
         <v>3</v>
       </c>
       <c r="Y6" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="Z6" s="22">
+      <c r="Z6" s="19">
         <v>20</v>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AB6" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
+        <v>309</v>
+      </c>
+      <c r="AC6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
       <c r="AJ6" s="15" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="AK6" s="15"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="AL6" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="24" t="s">
         <v>269</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>56</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="M7" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="M7" s="19" t="s">
         <v>281</v>
       </c>
       <c r="N7" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="19" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="15"/>
-      <c r="R7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="22">
+      <c r="R7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="19">
         <v>5.99</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="19">
         <v>7.99</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7" s="19">
         <v>9.99</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="W7" s="15" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="X7" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="Y7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="22">
+      <c r="Y7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="19">
         <v>100</v>
       </c>
       <c r="AA7" s="15" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AB7" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AC7" s="15" t="s">
         <v>92</v>
@@ -4283,61 +4324,64 @@
       <c r="AE7" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AF7" s="23" t="s">
+      <c r="AF7" s="20" t="s">
         <v>291</v>
       </c>
       <c r="AG7" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AH7" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="AI7" s="25" t="s">
-        <v>297</v>
+      <c r="AH7" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI7" s="22" t="s">
+        <v>341</v>
       </c>
       <c r="AJ7" s="15" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="AK7" s="15"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="AL7" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="19" t="s">
         <v>270</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="M8" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="M8" s="19" t="s">
         <v>282</v>
       </c>
       <c r="N8" s="15" t="s">
@@ -4350,23 +4394,23 @@
         <v>3</v>
       </c>
       <c r="Q8" s="15"/>
-      <c r="R8" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="22">
+      <c r="R8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="19">
         <v>15.99</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="19">
         <v>20.99</v>
       </c>
-      <c r="U8" s="22">
+      <c r="U8" s="19">
         <v>25.99</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="X8" s="15" t="s">
         <v>92</v>
@@ -4374,14 +4418,14 @@
       <c r="Y8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="Z8" s="22">
+      <c r="Z8" s="19">
         <v>75</v>
       </c>
       <c r="AA8" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AB8" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AC8" s="15" t="s">
         <v>92</v>
@@ -4389,62 +4433,65 @@
       <c r="AD8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AE8" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF8" s="23"/>
+      <c r="AE8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="20"/>
       <c r="AG8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AH8" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="AI8" s="25" t="s">
-        <v>296</v>
+      <c r="AH8" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI8" s="22" t="s">
+        <v>341</v>
       </c>
       <c r="AJ8" s="15" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="AK8" s="15"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="AL8" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="19" t="s">
         <v>271</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>56</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="M9" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="M9" s="19" t="s">
         <v>283</v>
       </c>
       <c r="N9" s="15" t="s">
@@ -4460,142 +4507,145 @@
       <c r="R9" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="S9" s="22">
+      <c r="S9" s="19">
         <v>49.99</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="19">
         <v>59.99</v>
       </c>
-      <c r="U9" s="22">
+      <c r="U9" s="19">
         <v>69.989999999999995</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="W9" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="X9" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="X9" s="19" t="s">
         <v>3</v>
       </c>
       <c r="Y9" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="Z9" s="22">
+      <c r="Z9" s="19">
         <v>10</v>
       </c>
       <c r="AA9" s="15" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AB9" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC9" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD9" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="19" t="s">
         <v>3</v>
       </c>
       <c r="AE9" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AF9" s="23" t="s">
+      <c r="AF9" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="AG9" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
+      <c r="AG9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
       <c r="AJ9" s="15" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="AK9" s="15"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="AL9" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="19" t="s">
         <v>272</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="M10" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="M10" s="19" t="s">
         <v>284</v>
       </c>
       <c r="N10" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="19" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="15" t="s">
         <v>92</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" s="22">
+        <v>324</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="19">
         <v>3.99</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="19">
         <v>4.99</v>
       </c>
-      <c r="U10" s="22">
+      <c r="U10" s="19">
         <v>5.99</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="W10" s="15" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="X10" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="Y10" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="22">
+      <c r="Y10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="19">
         <v>150</v>
       </c>
       <c r="AA10" s="15" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AB10" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AC10" s="15" t="s">
         <v>92</v>
@@ -4603,62 +4653,65 @@
       <c r="AD10" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AE10" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF10" s="23"/>
+      <c r="AE10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="20"/>
       <c r="AG10" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AH10" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="AI10" s="25" t="s">
-        <v>300</v>
+      <c r="AH10" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="AI10" s="22" t="s">
+        <v>341</v>
       </c>
       <c r="AJ10" s="15" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="AK10" s="15"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="AL10" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="19" t="s">
         <v>273</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>56</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="M11" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="M11" s="19" t="s">
         <v>285</v>
       </c>
       <c r="N11" s="15" t="s">
@@ -4674,98 +4727,101 @@
       <c r="R11" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="19">
         <v>39.99</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="19">
         <v>49.99</v>
       </c>
-      <c r="U11" s="22">
+      <c r="U11" s="19">
         <v>59.99</v>
       </c>
       <c r="V11" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="X11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z11" s="19">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB11" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH11" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI11" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="W11" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="X11" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y11" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z11" s="22">
-        <v>30</v>
-      </c>
-      <c r="AA11" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB11" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC11" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD11" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE11" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH11" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="AI11" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="AJ11" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK11" s="15"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="19" t="s">
         <v>274</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="M12" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="M12" s="19" t="s">
         <v>286</v>
       </c>
       <c r="N12" s="15" t="s">
@@ -4778,23 +4834,23 @@
         <v>3</v>
       </c>
       <c r="Q12" s="15"/>
-      <c r="R12" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" s="22">
+      <c r="R12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="19">
         <v>25.99</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="19">
         <v>35.99</v>
       </c>
-      <c r="U12" s="22">
+      <c r="U12" s="19">
         <v>45.99</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="W12" s="15" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="X12" s="15" t="s">
         <v>92</v>
@@ -4802,14 +4858,14 @@
       <c r="Y12" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="Z12" s="22">
+      <c r="Z12" s="19">
         <v>60</v>
       </c>
       <c r="AA12" s="15" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AB12" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AC12" s="15" t="s">
         <v>92</v>
@@ -4820,67 +4876,70 @@
       <c r="AE12" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AF12" s="23" t="s">
+      <c r="AF12" s="20" t="s">
         <v>293</v>
       </c>
       <c r="AG12" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AH12" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="AI12" s="25" t="s">
-        <v>295</v>
+      <c r="AH12" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI12" s="22" t="s">
+        <v>341</v>
       </c>
       <c r="AJ12" s="15" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="AK12" s="15"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="AL12" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="19" t="s">
         <v>275</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>56</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="M13" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>287</v>
       </c>
       <c r="N13" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="O13" s="22" t="s">
+      <c r="O13" s="19" t="s">
         <v>3</v>
       </c>
       <c r="P13" s="15" t="s">
@@ -4890,37 +4949,37 @@
       <c r="R13" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="S13" s="22">
+      <c r="S13" s="19">
         <v>29.99</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="19">
         <v>39.99</v>
       </c>
-      <c r="U13" s="22">
+      <c r="U13" s="19">
         <v>49.99</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="W13" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="X13" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="22">
+        <v>313</v>
+      </c>
+      <c r="X13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="19">
         <v>40</v>
       </c>
       <c r="AA13" s="15" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AB13" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC13" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC13" s="19" t="s">
         <v>3</v>
       </c>
       <c r="AD13" s="15" t="s">
@@ -4929,61 +4988,64 @@
       <c r="AE13" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AF13" s="23" t="s">
+      <c r="AF13" s="20" t="s">
         <v>290</v>
       </c>
       <c r="AG13" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AH13" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="AI13" s="25" t="s">
-        <v>295</v>
+      <c r="AH13" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI13" s="22" t="s">
+        <v>341</v>
       </c>
       <c r="AJ13" s="15" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="AK13" s="15"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="AL13" s="15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="19" t="s">
         <v>276</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H14" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="L14" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="I14" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="19" t="s">
         <v>288</v>
       </c>
       <c r="N14" s="15" t="s">
@@ -4996,62 +5058,456 @@
         <v>3</v>
       </c>
       <c r="Q14" s="15"/>
-      <c r="R14" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="22">
+      <c r="R14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="19">
         <v>4.99</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="19">
         <v>6.99</v>
       </c>
-      <c r="U14" s="22">
+      <c r="U14" s="19">
         <v>8.99</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="W14" s="15" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="X14" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="Y14" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="22">
+      <c r="Y14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="19">
         <v>200</v>
       </c>
       <c r="AA14" s="15" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="AB14" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AC14" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AD14" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE14" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="24"/>
+      <c r="AD14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
       <c r="AJ14" s="15" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="AK14" s="15"/>
+      <c r="AL14" s="15" t="s">
+        <v>340</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4548CEF1-DD61-4E8C-BA1C-F0593B90F5FF}">
+  <dimension ref="A1:AL3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.77734375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.77734375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="21.77734375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.109375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12" style="1" customWidth="1"/>
+    <col min="36" max="36" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="62.21875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="12.21875" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="19">
+        <v>29.99</v>
+      </c>
+      <c r="T2" s="19">
+        <v>39.99</v>
+      </c>
+      <c r="U2" s="19">
+        <v>49.99</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="19">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI2" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="19">
+        <v>4.99</v>
+      </c>
+      <c r="T3" s="19">
+        <v>6.99</v>
+      </c>
+      <c r="U3" s="19">
+        <v>8.99</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="19">
+        <v>200</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB3" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E50F78-B047-4DAE-A632-B4D583B921D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46082E1-0BDA-4A20-BC66-873C78653560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="ShortCuts" sheetId="6" r:id="rId4"/>
     <sheet name="Vehicle" sheetId="7" r:id="rId5"/>
     <sheet name="Product" sheetId="8" r:id="rId6"/>
-    <sheet name="Test" sheetId="9" r:id="rId7"/>
+    <sheet name="GiftCard" sheetId="10" r:id="rId7"/>
+    <sheet name="Test" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="355">
   <si>
     <t>Name</t>
   </si>
@@ -1072,6 +1073,30 @@
   </si>
   <si>
     <t>03/01/2025</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Expiry</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Promotional</t>
+  </si>
+  <si>
+    <t>5/31/2025</t>
+  </si>
+  <si>
+    <t>6/30/2025</t>
   </si>
 </sst>
 </file>
@@ -2789,7 +2814,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5122,388 +5147,248 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4548CEF1-DD61-4E8C-BA1C-F0593B90F5FF}">
-  <dimension ref="A1:AL3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6C325F-4A76-431C-998A-38D75363C07E}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1001</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="19">
+        <v>500</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1002</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="19">
+        <v>500</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="19">
+        <v>1003</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1004</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" s="19">
+        <v>1005</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="19">
+        <v>1006</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4548CEF1-DD61-4E8C-BA1C-F0593B90F5FF}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="17" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="17" customWidth="1"/>
     <col min="7" max="7" width="11.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.77734375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.77734375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="21.77734375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="12.109375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="12" style="1" customWidth="1"/>
-    <col min="36" max="36" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="62.21875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="12.21875" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>128</v>
+        <v>347</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>204</v>
-      </c>
       <c r="F1" s="13" t="s">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>58</v>
+        <v>142</v>
+      </c>
+      <c r="B2" s="19">
+        <v>2002</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" s="19">
-        <v>29.99</v>
-      </c>
-      <c r="T2" s="19">
-        <v>39.99</v>
-      </c>
-      <c r="U2" s="19">
-        <v>49.99</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="19">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="AC2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF2" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH2" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI2" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="AJ2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="19">
-        <v>4.99</v>
-      </c>
-      <c r="T3" s="19">
-        <v>6.99</v>
-      </c>
-      <c r="U3" s="19">
-        <v>8.99</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="19">
-        <v>200</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="AC3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15" t="s">
-        <v>340</v>
+      <c r="F2" s="19">
+        <v>500</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46082E1-0BDA-4A20-BC66-873C78653560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE863BDE-0E28-4761-83C2-CCB78DCE475D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Vehicle" sheetId="7" r:id="rId5"/>
     <sheet name="Product" sheetId="8" r:id="rId6"/>
     <sheet name="GiftCard" sheetId="10" r:id="rId7"/>
-    <sheet name="Test" sheetId="9" r:id="rId8"/>
+    <sheet name="Discount" sheetId="11" r:id="rId8"/>
+    <sheet name="Test" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="378">
   <si>
     <t>Name</t>
   </si>
@@ -1097,6 +1098,75 @@
   </si>
   <si>
     <t>6/30/2025</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Applies On</t>
+  </si>
+  <si>
+    <t>SUMMER30</t>
+  </si>
+  <si>
+    <t>FLASH5</t>
+  </si>
+  <si>
+    <t>VALENTINE20</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>InActive</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>$30 off on purchases of summer flowers</t>
+  </si>
+  <si>
+    <t>Limited-time 5% discount on all orders</t>
+  </si>
+  <si>
+    <t>20% off on Valentine's Day special roses</t>
+  </si>
+  <si>
+    <t>FLOWER10</t>
+  </si>
+  <si>
+    <t>5/31/2026</t>
+  </si>
+  <si>
+    <t>10% off on all flower bouquets.</t>
+  </si>
+  <si>
+    <t>SAVE50</t>
+  </si>
+  <si>
+    <t>Flat $50 off on orders above $500.</t>
+  </si>
+  <si>
+    <t>FIRSTORDER</t>
+  </si>
+  <si>
+    <t>Flat $10 off for first-time customers.</t>
+  </si>
+  <si>
+    <t>FREEDEL</t>
+  </si>
+  <si>
+    <t>Delivery Fee</t>
+  </si>
+  <si>
+    <t>Free delivery for orders over $1,000.</t>
+  </si>
+  <si>
+    <t>MIDNIGHT100</t>
+  </si>
+  <si>
+    <t>$100 off on midnight delivery charges.</t>
   </si>
 </sst>
 </file>
@@ -5150,7 +5220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6C325F-4A76-431C-998A-38D75363C07E}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -5326,11 +5396,245 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4548CEF1-DD61-4E8C-BA1C-F0593B90F5FF}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F147CD6B-CA39-477C-82FD-5D86870A8EFB}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="19">
+        <v>30</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" s="19">
+        <v>20</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" s="19">
+        <v>5</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="19">
+        <v>50</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="19">
+        <v>10</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" s="19">
+        <v>100</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="19">
+        <v>100</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4548CEF1-DD61-4E8C-BA1C-F0593B90F5FF}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5341,54 +5645,77 @@
     <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="17" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="64.6640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>347</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>349</v>
+        <v>143</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>351</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="19">
-        <v>2002</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E2" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="19">
+        <v>30</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="19">
-        <v>500</v>
+      <c r="E2" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>362</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE863BDE-0E28-4761-83C2-CCB78DCE475D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB94C57-C102-4558-AC03-28916B230224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="Product" sheetId="8" r:id="rId6"/>
     <sheet name="GiftCard" sheetId="10" r:id="rId7"/>
     <sheet name="Discount" sheetId="11" r:id="rId8"/>
-    <sheet name="Test" sheetId="9" r:id="rId9"/>
+    <sheet name="Employee" sheetId="12" r:id="rId9"/>
+    <sheet name="Test" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="430">
   <si>
     <t>Name</t>
   </si>
@@ -1167,6 +1168,162 @@
   </si>
   <si>
     <t>$100 off on midnight delivery charges.</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>P. Type</t>
+  </si>
+  <si>
+    <t>Hire Date</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Order Review</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Emp Id</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>Contact Person</t>
+  </si>
+  <si>
+    <t>C.P. Phone</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>ana@hotmail.com</t>
+  </si>
+  <si>
+    <t>2124567800</t>
+  </si>
+  <si>
+    <t>1/1/2025</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>ana</t>
+  </si>
+  <si>
+    <t>11!!qqQQ</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>2124567890</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
+    <t>Wisozk</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>curtis@gamail.com</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>curtis</t>
+  </si>
+  <si>
+    <t>2124567801</t>
+  </si>
+  <si>
+    <t>2124567802</t>
+  </si>
+  <si>
+    <t>2124567803</t>
+  </si>
+  <si>
+    <t>2124567804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torres </t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>torres@hotmail.com</t>
+  </si>
+  <si>
+    <t>jhon@yahoo.com</t>
+  </si>
+  <si>
+    <t>mark@gmail.com</t>
+  </si>
+  <si>
+    <t>javier</t>
+  </si>
+  <si>
+    <t>jhon</t>
+  </si>
+  <si>
+    <t>mark</t>
   </si>
 </sst>
 </file>
@@ -1975,6 +2132,215 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3846B3E9-78EC-4A21-B7B1-295C9A6CBED2}">
+  <dimension ref="A1:W5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11" style="17" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="2">
+        <v>90001</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{24EA5F21-56DF-4211-9425-C16FE24C8A92}">
+      <formula1>"Friend, Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{5911B46B-8338-4EBD-A17B-77BC88737FB9}">
+      <formula1>"Accounting, Delivery, Design, Management, Sales"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{A6049911-BC78-4068-BB9C-1107ADFE0321}">
+      <formula1>"admin, employee, generic"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{4BD79A28-17C7-467F-B0B9-4293CF88683D}">
+      <formula1>"Active, InActive, Suspended, Locked"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{69E662B9-BEDA-4769-9203-0172F9A52140}">
+      <formula1>"Work, Home, Mobile, Other"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{7A7755D5-8EF9-42D2-83F6-0BEDF769BCB1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
@@ -2857,22 +3223,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2884,7 +3250,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="D5" sqref="D5:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5630,96 +5996,497 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4548CEF1-DD61-4E8C-BA1C-F0593B90F5FF}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C7655F-AC18-4255-9C9F-28DEDD520460}">
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="64.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11" style="17" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>202</v>
+        <v>378</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>128</v>
+        <v>379</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>355</v>
+        <v>86</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>357</v>
+      <c r="N1" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>391</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="C2" s="19">
-        <v>30</v>
-      </c>
-      <c r="D2" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="2">
+        <v>90001</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="M2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>366</v>
+      <c r="N2" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>403</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-      <c r="D3" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="2">
+        <v>78701</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="M3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>368</v>
+      <c r="N3" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="2">
+        <v>75201</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="W4" s="19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10118</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="W5" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="2">
+        <v>60606</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N9" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{D789D244-6FE9-435C-8205-CD6C5EF4A0EF}">
+      <formula1>"Work, Home, Mobile, Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{457FBF0E-6B63-43E3-B775-D678DA09C717}">
+      <formula1>"Active, InActive, Suspended, Locked"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N6" xr:uid="{29D1088B-A519-4F00-AB9E-DA3C36916F21}">
+      <formula1>"admin, employee, generic"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O6" xr:uid="{993906EF-6752-40F9-B3BE-870810AA043D}">
+      <formula1>"Accounting, Delivery, Design, Management, Sales"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W6" xr:uid="{C1288D44-C3F0-4DFF-809C-A0FAA7437289}">
+      <formula1>"Friend, Other"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{1990A2B3-2F87-4281-A34D-82911D5B9725}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{EF6F22FD-2BA2-425C-B99F-903468D787C4}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{90422F9B-7510-44E7-BD17-45ADE582AD75}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{A72A5338-DDB8-4645-894E-6166CBF28EE2}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{B6EF6C1B-E86B-4E73-8AB1-196973F0AD5F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId6"/>
 </worksheet>
 </file>
--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB94C57-C102-4558-AC03-28916B230224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04DC65D-909A-424C-952D-80C2CAFF6A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="428">
   <si>
     <t>Name</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Father</t>
   </si>
   <si>
-    <t>Mother</t>
-  </si>
-  <si>
     <t>Friend</t>
   </si>
   <si>
@@ -1249,9 +1246,6 @@
   </si>
   <si>
     <t>Wisozk</t>
-  </si>
-  <si>
-    <t>Home</t>
   </si>
   <si>
     <t>Mobile</t>
@@ -2120,7 +2114,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="3">
         <v>17</v>
@@ -2136,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3846B3E9-78EC-4A21-B7B1-295C9A6CBED2}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2170,174 +2164,83 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>389</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="2">
-        <v>90001</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{24EA5F21-56DF-4211-9425-C16FE24C8A92}">
-      <formula1>"Friend, Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{5911B46B-8338-4EBD-A17B-77BC88737FB9}">
-      <formula1>"Accounting, Delivery, Design, Management, Sales"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{A6049911-BC78-4068-BB9C-1107ADFE0321}">
-      <formula1>"admin, employee, generic"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{4BD79A28-17C7-467F-B0B9-4293CF88683D}">
-      <formula1>"Active, InActive, Suspended, Locked"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{69E662B9-BEDA-4769-9203-0172F9A52140}">
-      <formula1>"Work, Home, Mobile, Other"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{7A7755D5-8EF9-42D2-83F6-0BEDF769BCB1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2345,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2384,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2431,16 +2334,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2481,13 +2384,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2543,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2581,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2607,7 +2510,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="6">
         <v>-1</v>
@@ -2622,13 +2525,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2654,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2722,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2799,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2861,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2881,7 +2784,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>51</v>
+        <v>410</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
@@ -2896,7 +2799,7 @@
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="11">
         <v>3</v>
@@ -2911,7 +2814,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="8">
         <v>0</v>
@@ -2923,18 +2826,18 @@
         <v>1</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="11">
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" s="11">
         <v>-1</v>
@@ -2943,24 +2846,24 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="8">
         <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="8">
         <v>1</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="11">
         <v>1</v>
@@ -2975,7 +2878,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="8">
         <v>0</v>
@@ -2987,12 +2890,12 @@
         <v>1</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -3007,13 +2910,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
@@ -3022,7 +2925,7 @@
     </row>
     <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="11">
         <v>3</v>
@@ -3037,7 +2940,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="8">
         <v>0</v>
@@ -3049,12 +2952,12 @@
         <v>1</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -3069,7 +2972,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2">
         <v>2</v>
@@ -3084,7 +2987,7 @@
     </row>
     <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="11">
         <v>3</v>
@@ -3105,18 +3008,18 @@
         <v>0</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="8">
         <v>1</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
@@ -3131,7 +3034,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2">
         <v>2</v>
@@ -3146,7 +3049,7 @@
     </row>
     <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="11">
         <v>3</v>
@@ -3173,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -3208,7 +3111,7 @@
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="11">
         <v>3</v>
@@ -3223,22 +3126,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3281,85 +3184,85 @@
         <v>21</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>91</v>
-      </c>
       <c r="J1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>144</v>
-      </c>
       <c r="M1" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>45</v>
       </c>
       <c r="O1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="I2" s="2">
         <v>90001</v>
@@ -3374,7 +3277,7 @@
         <v>24</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>3</v>
@@ -3384,16 +3287,16 @@
         <v>5</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -3404,22 +3307,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I3" s="2">
         <v>28013</v>
@@ -3428,7 +3331,7 @@
         <v>29</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
@@ -3437,7 +3340,7 @@
         <v>3</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2">
         <v>25</v>
@@ -3446,40 +3349,40 @@
         <v>6</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="T3" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="I4" s="2">
         <v>78701</v>
@@ -3488,13 +3391,13 @@
         <v>29</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>3</v>
@@ -3504,38 +3407,38 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S4" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="T4" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="I5" s="2">
         <v>75201</v>
@@ -3553,7 +3456,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O5" s="2">
         <v>15</v>
@@ -3562,40 +3465,40 @@
         <v>10</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S5" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="T5" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="I6" s="2">
         <v>10118</v>
@@ -3610,7 +3513,7 @@
         <v>24</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>3</v>
@@ -3620,16 +3523,16 @@
         <v>15</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S6" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="T6" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -3640,22 +3543,22 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="I7" s="2">
         <v>60606</v>
@@ -3664,7 +3567,7 @@
         <v>29</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>24</v>
@@ -3673,7 +3576,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2">
         <v>10</v>
@@ -3682,16 +3585,16 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3725,90 +3628,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3838,142 +3741,142 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>200</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4035,162 +3938,162 @@
   <sheetData>
     <row r="1" spans="1:38" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AK1" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="AK1" s="13" t="s">
-        <v>235</v>
-      </c>
       <c r="AL1" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>3</v>
@@ -4212,10 +4115,10 @@
         <v>20</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X2" s="19" t="s">
         <v>3</v>
@@ -4227,10 +4130,10 @@
         <v>20</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AB2" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC2" s="19" t="s">
         <v>3</v>
@@ -4252,51 +4155,51 @@
       </c>
       <c r="AK2" s="15"/>
       <c r="AL2" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O3" s="19" t="s">
         <v>3</v>
@@ -4306,7 +4209,7 @@
       </c>
       <c r="Q3" s="15"/>
       <c r="R3" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S3" s="19">
         <v>20</v>
@@ -4318,10 +4221,10 @@
         <v>30</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="X3" s="19" t="s">
         <v>3</v>
@@ -4333,10 +4236,10 @@
         <v>20</v>
       </c>
       <c r="AA3" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB3" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>309</v>
       </c>
       <c r="AC3" s="19" t="s">
         <v>3</v>
@@ -4358,61 +4261,61 @@
       </c>
       <c r="AK3" s="15"/>
       <c r="AL3" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="Q4" s="15"/>
       <c r="R4" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S4" s="19">
         <v>5</v>
@@ -4424,100 +4327,100 @@
         <v>15</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y4" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z4" s="19">
         <v>50</v>
       </c>
       <c r="AA4" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AB4" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC4" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD4" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE4" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF4" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG4" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH4" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AI4" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AJ4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK4" s="15"/>
       <c r="AL4" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P5" s="15" t="s">
         <v>3</v>
@@ -4536,109 +4439,109 @@
         <v>49.99</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y5" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z5" s="19">
         <v>50</v>
       </c>
       <c r="AA5" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB5" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC5" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD5" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF5" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG5" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH5" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AI5" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AJ5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK5" s="15"/>
       <c r="AL5" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S6" s="19">
         <v>19.989999999999998</v>
@@ -4650,25 +4553,25 @@
         <v>29.99</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W6" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="X6" s="19" t="s">
         <v>3</v>
       </c>
       <c r="Y6" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z6" s="19">
         <v>20</v>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AB6" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC6" s="19" t="s">
         <v>3</v>
@@ -4690,51 +4593,51 @@
       </c>
       <c r="AK6" s="15"/>
       <c r="AL6" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O7" s="19" t="s">
         <v>3</v>
@@ -4756,13 +4659,13 @@
         <v>9.99</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W7" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X7" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y7" s="19" t="s">
         <v>3</v>
@@ -4771,85 +4674,85 @@
         <v>100</v>
       </c>
       <c r="AA7" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB7" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC7" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD7" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE7" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF7" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG7" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH7" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AI7" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AJ7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK7" s="15"/>
       <c r="AL7" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P8" s="15" t="s">
         <v>3</v>
@@ -4868,105 +4771,105 @@
         <v>25.99</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y8" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z8" s="19">
         <v>75</v>
       </c>
       <c r="AA8" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB8" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC8" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD8" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE8" s="19" t="s">
         <v>3</v>
       </c>
       <c r="AF8" s="20"/>
       <c r="AG8" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH8" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AI8" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AJ8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK8" s="15"/>
       <c r="AL8" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P9" s="15" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="15"/>
       <c r="R9" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S9" s="19">
         <v>49.99</v>
@@ -4978,25 +4881,25 @@
         <v>69.989999999999995</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W9" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="X9" s="19" t="s">
         <v>3</v>
       </c>
       <c r="Y9" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z9" s="19">
         <v>10</v>
       </c>
       <c r="AA9" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AB9" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC9" s="19" t="s">
         <v>3</v>
@@ -5005,10 +4908,10 @@
         <v>3</v>
       </c>
       <c r="AE9" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF9" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG9" s="19" t="s">
         <v>3</v>
@@ -5020,60 +4923,60 @@
       </c>
       <c r="AK9" s="15"/>
       <c r="AL9" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J10" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>318</v>
-      </c>
       <c r="M10" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O10" s="19" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R10" s="19" t="s">
         <v>3</v>
@@ -5088,13 +4991,13 @@
         <v>5.99</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W10" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="19" t="s">
         <v>3</v>
@@ -5103,90 +5006,90 @@
         <v>150</v>
       </c>
       <c r="AA10" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB10" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC10" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="19" t="s">
         <v>3</v>
       </c>
       <c r="AF10" s="20"/>
       <c r="AG10" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH10" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AI10" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AJ10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK10" s="15"/>
       <c r="AL10" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="19">
         <v>39.99</v>
@@ -5198,98 +5101,98 @@
         <v>59.99</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W11" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X11" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="19">
         <v>30</v>
       </c>
       <c r="AA11" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB11" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC11" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="19" t="s">
         <v>3</v>
       </c>
       <c r="AF11" s="20"/>
       <c r="AG11" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AI11" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AJ11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK11" s="15"/>
       <c r="AL11" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P12" s="15" t="s">
         <v>3</v>
@@ -5308,97 +5211,97 @@
         <v>45.99</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="W12" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X12" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y12" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z12" s="19">
         <v>60</v>
       </c>
       <c r="AA12" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB12" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC12" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE12" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF12" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG12" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH12" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AI12" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AJ12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK12" s="15"/>
       <c r="AL12" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O13" s="19" t="s">
         <v>3</v>
@@ -5408,7 +5311,7 @@
       </c>
       <c r="Q13" s="15"/>
       <c r="R13" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S13" s="19">
         <v>29.99</v>
@@ -5420,10 +5323,10 @@
         <v>49.99</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="W13" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X13" s="19" t="s">
         <v>3</v>
@@ -5435,85 +5338,85 @@
         <v>40</v>
       </c>
       <c r="AA13" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB13" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC13" s="19" t="s">
         <v>3</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE13" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF13" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG13" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH13" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AI13" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AJ13" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK13" s="15"/>
       <c r="AL13" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I14" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="L14" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>308</v>
-      </c>
       <c r="M14" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="N14" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="N14" s="15" t="s">
-        <v>289</v>
-      </c>
       <c r="O14" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>3</v>
@@ -5532,13 +5435,13 @@
         <v>8.99</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="W14" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X14" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="19" t="s">
         <v>3</v>
@@ -5547,13 +5450,13 @@
         <v>200</v>
       </c>
       <c r="AA14" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AB14" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC14" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD14" s="19" t="s">
         <v>3</v>
@@ -5572,7 +5475,7 @@
       </c>
       <c r="AK14" s="15"/>
       <c r="AL14" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -5604,39 +5507,39 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>350</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="19">
         <v>1001</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>29</v>
@@ -5648,16 +5551,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="19">
         <v>1002</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>29</v>
@@ -5666,44 +5569,44 @@
         <v>500</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="19">
         <v>1003</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="19">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B5" s="19">
         <v>1004</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>29</v>
@@ -5715,16 +5618,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B6" s="19">
         <v>1005</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>29</v>
@@ -5736,16 +5639,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B7" s="19">
         <v>1006</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>32</v>
@@ -5783,33 +5686,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>356</v>
-      </c>
       <c r="G1" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C2" s="19">
         <v>30</v>
@@ -5818,21 +5721,21 @@
         <v>29</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F2" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -5841,44 +5744,44 @@
         <v>29</v>
       </c>
       <c r="E3" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>359</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>360</v>
       </c>
       <c r="C4" s="19">
         <v>20</v>
       </c>
       <c r="D4" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>362</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C5" s="19">
         <v>5</v>
@@ -5887,21 +5790,21 @@
         <v>29</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C6" s="19">
         <v>50</v>
@@ -5910,21 +5813,21 @@
         <v>29</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C7" s="19">
         <v>10</v>
@@ -5933,21 +5836,21 @@
         <v>29</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C8" s="19">
         <v>100</v>
@@ -5956,21 +5859,21 @@
         <v>29</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F8" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C9" s="19">
         <v>100</v>
@@ -5979,13 +5882,13 @@
         <v>29</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -5999,8 +5902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C7655F-AC18-4255-9C9F-28DEDD520460}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6033,188 +5936,188 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>389</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>392</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="H2" s="2">
         <v>90001</v>
       </c>
       <c r="I2" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="L2" s="15" t="s">
         <v>395</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>396</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>45</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="R2" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="V2" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="U2" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>402</v>
-      </c>
       <c r="W2" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>404</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="H3" s="2">
         <v>78701</v>
       </c>
       <c r="I3" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>407</v>
-      </c>
       <c r="L3" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>46</v>
@@ -6223,241 +6126,241 @@
         <v>3</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="V3" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="U3" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>402</v>
-      </c>
       <c r="W3" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="H4" s="2">
         <v>75201</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L4" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>396</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>397</v>
       </c>
       <c r="O4" s="15" t="s">
         <v>44</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T4" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="V4" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="U4" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>402</v>
-      </c>
       <c r="W4" s="19" t="s">
-        <v>412</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2">
         <v>10118</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>48</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T5" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="V5" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="U5" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="V5" s="15" t="s">
-        <v>402</v>
-      </c>
       <c r="W5" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="H6" s="2">
         <v>60606</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="T6" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="V6" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="U6" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>402</v>
-      </c>
       <c r="W6" s="19" t="s">
-        <v>412</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -6465,9 +6368,6 @@
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{D789D244-6FE9-435C-8205-CD6C5EF4A0EF}">
       <formula1>"Work, Home, Mobile, Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{457FBF0E-6B63-43E3-B775-D678DA09C717}">
-      <formula1>"Active, InActive, Suspended, Locked"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N6" xr:uid="{29D1088B-A519-4F00-AB9E-DA3C36916F21}">
       <formula1>"admin, employee, generic"</formula1>
@@ -6478,13 +6378,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W6" xr:uid="{C1288D44-C3F0-4DFF-809C-A0FAA7437289}">
       <formula1>"Friend, Other"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{82A09098-B4E6-43A6-A0FC-5929BAD00340}">
+      <formula1>"Active, In Active, Suspended, Locked"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{1990A2B3-2F87-4281-A34D-82911D5B9725}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{EF6F22FD-2BA2-425C-B99F-903468D787C4}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{90422F9B-7510-44E7-BD17-45ADE582AD75}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{A72A5338-DDB8-4645-894E-6166CBF28EE2}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{B6EF6C1B-E86B-4E73-8AB1-196973F0AD5F}"/>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{90422F9B-7510-44E7-BD17-45ADE582AD75}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{A72A5338-DDB8-4645-894E-6166CBF28EE2}"/>
+    <hyperlink ref="K6" r:id="rId3" xr:uid="{B6EF6C1B-E86B-4E73-8AB1-196973F0AD5F}"/>
+    <hyperlink ref="K2" r:id="rId4" xr:uid="{1990A2B3-2F87-4281-A34D-82911D5B9725}"/>
+    <hyperlink ref="K3" r:id="rId5" xr:uid="{EF6F22FD-2BA2-425C-B99F-903468D787C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId6"/>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04DC65D-909A-424C-952D-80C2CAFF6A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980F4098-B372-4237-A357-0D765CDDD886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="GiftCard" sheetId="10" r:id="rId7"/>
     <sheet name="Discount" sheetId="11" r:id="rId8"/>
     <sheet name="Employee" sheetId="12" r:id="rId9"/>
-    <sheet name="Test" sheetId="13" r:id="rId10"/>
+    <sheet name="Zone" sheetId="13" r:id="rId10"/>
+    <sheet name="Test" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="453">
   <si>
     <t>Name</t>
   </si>
@@ -1318,6 +1319,81 @@
   </si>
   <si>
     <t>mark</t>
+  </si>
+  <si>
+    <t>Zone Name</t>
+  </si>
+  <si>
+    <t>Area Selector</t>
+  </si>
+  <si>
+    <t>Lat1</t>
+  </si>
+  <si>
+    <t>Long1</t>
+  </si>
+  <si>
+    <t>Lat2</t>
+  </si>
+  <si>
+    <t>Long2</t>
+  </si>
+  <si>
+    <t>Lat3</t>
+  </si>
+  <si>
+    <t>Long3</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Zone Fee</t>
+  </si>
+  <si>
+    <t>WithinTwo</t>
+  </si>
+  <si>
+    <t>WithinThree</t>
+  </si>
+  <si>
+    <t>WithinFour</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Wedding</t>
+  </si>
+  <si>
+    <t>FutureWithinTwo</t>
+  </si>
+  <si>
+    <t>FutureWithinThree</t>
+  </si>
+  <si>
+    <t>FutureWithinFour</t>
+  </si>
+  <si>
+    <t>Sales Tax</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Coordinates</t>
+  </si>
+  <si>
+    <t>This zone is created using coordinates</t>
+  </si>
+  <si>
+    <t>This zone is created using zip code</t>
+  </si>
+  <si>
+    <t>23.7135</t>
+  </si>
+  <si>
+    <t>90.4063</t>
   </si>
 </sst>
 </file>
@@ -2128,117 +2204,413 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3846B3E9-78EC-4A21-B7B1-295C9A6CBED2}">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11" style="17" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.21875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>378</v>
+        <v>210</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>86</v>
+        <v>429</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>87</v>
+        <v>430</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>88</v>
+        <v>431</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>89</v>
+        <v>432</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="G2" s="2">
+        <v>23.7044</v>
+      </c>
+      <c r="H2" s="2">
+        <v>90.527799999999999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>23.573899999999998</v>
+      </c>
+      <c r="J2" s="2">
+        <v>90.523300000000006</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2">
+        <v>100</v>
+      </c>
+      <c r="N2" s="2">
+        <v>80</v>
+      </c>
+      <c r="O2" s="2">
+        <v>70</v>
+      </c>
+      <c r="P2" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>250</v>
+      </c>
+      <c r="R2" s="2">
+        <v>100</v>
+      </c>
+      <c r="S2" s="2">
+        <v>80</v>
+      </c>
+      <c r="T2" s="2">
+        <v>70</v>
+      </c>
+      <c r="U2" s="2">
+        <v>8</v>
+      </c>
+      <c r="V2" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2">
+        <v>1216</v>
+      </c>
+      <c r="L3" s="2">
+        <v>60</v>
+      </c>
+      <c r="M3" s="2">
+        <v>200</v>
+      </c>
+      <c r="N3" s="2">
+        <v>150</v>
+      </c>
+      <c r="O3" s="2">
+        <v>100</v>
+      </c>
+      <c r="P3" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>270</v>
+      </c>
+      <c r="R3" s="2">
+        <v>100</v>
+      </c>
+      <c r="S3" s="2">
+        <v>80</v>
+      </c>
+      <c r="T3" s="2">
+        <v>70</v>
+      </c>
+      <c r="U3" s="2">
+        <v>9</v>
+      </c>
+      <c r="V3" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N5" s="1" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{151F146C-B6D4-4A26-ADB6-392DC8CCBB49}">
+      <formula1>"Normal, Fringe, Pool"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{898D00AD-3E7C-4EE0-9158-1346577E6B7C}">
+      <formula1>"Coordinates, Zip Code"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8F54B0-F6DD-408A-BDC6-3F39119CAFE1}">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.21875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
+        <v>1216</v>
+      </c>
+      <c r="L2" s="2">
+        <v>60</v>
+      </c>
+      <c r="M2" s="2">
+        <v>200</v>
+      </c>
+      <c r="N2" s="2">
+        <v>150</v>
+      </c>
+      <c r="O2" s="2">
+        <v>100</v>
+      </c>
+      <c r="P2" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>270</v>
+      </c>
+      <c r="R2" s="2">
+        <v>100</v>
+      </c>
+      <c r="S2" s="2">
+        <v>80</v>
+      </c>
+      <c r="T2" s="2">
+        <v>70</v>
+      </c>
+      <c r="U2" s="2">
+        <v>9</v>
+      </c>
+      <c r="V2" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{435B1A00-0968-4A46-B3B0-E0382CCC48E4}">
+      <formula1>"Coordinates, Zip Code"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{63271484-EFB7-4CD0-94C1-C1B5864990ED}">
+      <formula1>"Normal, Fringe, Pool"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -3126,22 +3498,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5902,7 +6274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C7655F-AC18-4255-9C9F-28DEDD520460}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980F4098-B372-4237-A357-0D765CDDD886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7039F8C0-271A-4575-9791-ABBAD5797E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="453">
   <si>
     <t>Name</t>
   </si>
@@ -2207,7 +2207,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2446,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8F54B0-F6DD-408A-BDC6-3F39119CAFE1}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2543,43 +2543,53 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>448</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2">
-        <v>1216</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="G2" s="2">
+        <v>23.7044</v>
+      </c>
+      <c r="H2" s="2">
+        <v>90.527799999999999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>23.573899999999998</v>
+      </c>
+      <c r="J2" s="2">
+        <v>90.523300000000006</v>
+      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M2" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" s="2">
+        <v>80</v>
+      </c>
+      <c r="O2" s="2">
+        <v>70</v>
+      </c>
+      <c r="P2" s="2">
         <v>150</v>
       </c>
-      <c r="O2" s="2">
-        <v>100</v>
-      </c>
-      <c r="P2" s="2">
+      <c r="Q2" s="2">
         <v>250</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>270</v>
       </c>
       <c r="R2" s="2">
         <v>100</v>
@@ -2591,10 +2601,10 @@
         <v>70</v>
       </c>
       <c r="U2" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V2" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -2604,10 +2614,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{435B1A00-0968-4A46-B3B0-E0382CCC48E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{B814A7C1-023E-4C80-938D-B65FC4C0E678}">
       <formula1>"Coordinates, Zip Code"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{63271484-EFB7-4CD0-94C1-C1B5864990ED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{BF548CB1-8A9B-4320-AB9D-DB86F97C22EE}">
       <formula1>"Normal, Fringe, Pool"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Files\MAS_FloraFire\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7039F8C0-271A-4575-9791-ABBAD5797E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7ABF5C-E3D2-4040-A42B-532E277A2A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="657" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -2034,7 +2034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F52621-DB17-44A2-AF63-FC128B554F1C}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -2446,7 +2446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8F54B0-F6DD-408A-BDC6-3F39119CAFE1}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -3508,22 +3508,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7ABF5C-E3D2-4040-A42B-532E277A2A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8A5173-6EB8-4C3B-82F2-0674A8EC09E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="657" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="Discount" sheetId="11" r:id="rId8"/>
     <sheet name="Employee" sheetId="12" r:id="rId9"/>
     <sheet name="Zone" sheetId="13" r:id="rId10"/>
-    <sheet name="Test" sheetId="14" r:id="rId11"/>
+    <sheet name="Slot" sheetId="15" r:id="rId11"/>
+    <sheet name="Test" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="466">
   <si>
     <t>Name</t>
   </si>
@@ -1394,6 +1395,45 @@
   </si>
   <si>
     <t>90.4063</t>
+  </si>
+  <si>
+    <t>Slot Name</t>
+  </si>
+  <si>
+    <t>Zone1</t>
+  </si>
+  <si>
+    <t>Zone2</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Minute</t>
+  </si>
+  <si>
+    <t>AM/PM</t>
+  </si>
+  <si>
+    <t>DS-MORN</t>
+  </si>
+  <si>
+    <t>DS-EVEN</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>PM</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F52621-DB17-44A2-AF63-FC128B554F1C}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -2207,7 +2247,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2443,184 +2483,151 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8F54B0-F6DD-408A-BDC6-3F39119CAFE1}">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA816B9A-A2BD-448E-99B5-2B148B525D17}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.21875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>210</v>
+        <v>454</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>127</v>
+        <v>455</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>448</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08473418-9C08-4415-9A18-E4B9858BD3EF}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>448</v>
+        <v>90</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>461</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="G2" s="2">
-        <v>23.7044</v>
-      </c>
-      <c r="H2" s="2">
-        <v>90.527799999999999</v>
-      </c>
-      <c r="I2" s="2">
-        <v>23.573899999999998</v>
-      </c>
-      <c r="J2" s="2">
-        <v>90.523300000000006</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2">
-        <v>50</v>
-      </c>
-      <c r="M2" s="2">
-        <v>100</v>
-      </c>
-      <c r="N2" s="2">
-        <v>80</v>
-      </c>
-      <c r="O2" s="2">
-        <v>70</v>
-      </c>
-      <c r="P2" s="2">
-        <v>150</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>250</v>
-      </c>
-      <c r="R2" s="2">
-        <v>100</v>
-      </c>
-      <c r="S2" s="2">
-        <v>80</v>
-      </c>
-      <c r="T2" s="2">
-        <v>70</v>
-      </c>
-      <c r="U2" s="2">
-        <v>8</v>
-      </c>
-      <c r="V2" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N4" s="1" t="s">
-        <v>67</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{B814A7C1-023E-4C80-938D-B65FC4C0E678}">
-      <formula1>"Coordinates, Zip Code"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{BF548CB1-8A9B-4320-AB9D-DB86F97C22EE}">
-      <formula1>"Normal, Fringe, Pool"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8A5173-6EB8-4C3B-82F2-0674A8EC09E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31987B9-2707-46B7-AE93-0BAAB241D220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -2486,7 +2486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA816B9A-A2BD-448E-99B5-2B148B525D17}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2572,7 +2572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08473418-9C08-4415-9A18-E4B9858BD3EF}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3515,22 +3515,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31987B9-2707-46B7-AE93-0BAAB241D220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0FAA3E-10E1-4B9B-AD90-80163F6696CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="Employee" sheetId="12" r:id="rId9"/>
     <sheet name="Zone" sheetId="13" r:id="rId10"/>
     <sheet name="Slot" sheetId="15" r:id="rId11"/>
-    <sheet name="Test" sheetId="16" r:id="rId12"/>
+    <sheet name="Mode" sheetId="17" r:id="rId12"/>
+    <sheet name="Test" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="471">
   <si>
     <t>Name</t>
   </si>
@@ -1434,6 +1435,21 @@
   </si>
   <si>
     <t>PM</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Slot1</t>
+  </si>
+  <si>
+    <t>Slot2</t>
+  </si>
+  <si>
+    <t>Mode Name</t>
   </si>
 </sst>
 </file>
@@ -2486,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA816B9A-A2BD-448E-99B5-2B148B525D17}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2569,62 +2585,96 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08473418-9C08-4415-9A18-E4B9858BD3EF}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DA318D-8073-4D46-A062-C668992104C1}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>459</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08473418-9C08-4415-9A18-E4B9858BD3EF}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0FAA3E-10E1-4B9B-AD90-80163F6696CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAC09C5-9C2B-46DF-B129-5A75E291A748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="Zone" sheetId="13" r:id="rId10"/>
     <sheet name="Slot" sheetId="15" r:id="rId11"/>
     <sheet name="Mode" sheetId="17" r:id="rId12"/>
-    <sheet name="Test" sheetId="16" r:id="rId13"/>
+    <sheet name="Code" sheetId="16" r:id="rId13"/>
+    <sheet name="Test" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="542">
   <si>
     <t>Name</t>
   </si>
@@ -1450,6 +1451,219 @@
   </si>
   <si>
     <t>Mode Name</t>
+  </si>
+  <si>
+    <t>Delivery Code</t>
+  </si>
+  <si>
+    <t>Short Description</t>
+  </si>
+  <si>
+    <t>Phone System Code</t>
+  </si>
+  <si>
+    <t>Long Description</t>
+  </si>
+  <si>
+    <t>P.S. Message Code</t>
+  </si>
+  <si>
+    <t>W.S. Message 1</t>
+  </si>
+  <si>
+    <t>Send Problem Box</t>
+  </si>
+  <si>
+    <t>W.S. Message 2</t>
+  </si>
+  <si>
+    <t>Force Sign Entry</t>
+  </si>
+  <si>
+    <t>Email File Name</t>
+  </si>
+  <si>
+    <t>Left Address Entry</t>
+  </si>
+  <si>
+    <t>Email Subject</t>
+  </si>
+  <si>
+    <t>DC001</t>
+  </si>
+  <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t>Standard Delivery</t>
+  </si>
+  <si>
+    <t>PS001</t>
+  </si>
+  <si>
+    <t>Standard delivery within 24 hrs</t>
+  </si>
+  <si>
+    <t>MSG001</t>
+  </si>
+  <si>
+    <t>WS001</t>
+  </si>
+  <si>
+    <t>WS002</t>
+  </si>
+  <si>
+    <t>std_delivery.html</t>
+  </si>
+  <si>
+    <t>Your Order is on its Way!</t>
+  </si>
+  <si>
+    <t>DC002</t>
+  </si>
+  <si>
+    <t>DC003</t>
+  </si>
+  <si>
+    <t>DC004</t>
+  </si>
+  <si>
+    <t>DC005</t>
+  </si>
+  <si>
+    <t>DC006</t>
+  </si>
+  <si>
+    <t>Express Services</t>
+  </si>
+  <si>
+    <t>Wedding Dept.</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Customer Care</t>
+  </si>
+  <si>
+    <t>Express Delivery</t>
+  </si>
+  <si>
+    <t>Wedding Delivery</t>
+  </si>
+  <si>
+    <t>Problem Resolution</t>
+  </si>
+  <si>
+    <t>Midnight Delivery</t>
+  </si>
+  <si>
+    <t>Scheduled Delivery</t>
+  </si>
+  <si>
+    <t>PS002</t>
+  </si>
+  <si>
+    <t>PS003</t>
+  </si>
+  <si>
+    <t>PS004</t>
+  </si>
+  <si>
+    <t>PS005</t>
+  </si>
+  <si>
+    <t>PS006</t>
+  </si>
+  <si>
+    <t>Delivery within 2 hours</t>
+  </si>
+  <si>
+    <t>Customized wedding delivery</t>
+  </si>
+  <si>
+    <t>Handles delivery issues</t>
+  </si>
+  <si>
+    <t>Midnight surprise delivery</t>
+  </si>
+  <si>
+    <t>Delivery on a specific date/time</t>
+  </si>
+  <si>
+    <t>MSG002</t>
+  </si>
+  <si>
+    <t>MSG003</t>
+  </si>
+  <si>
+    <t>WS003</t>
+  </si>
+  <si>
+    <t>MSG004</t>
+  </si>
+  <si>
+    <t>WS004</t>
+  </si>
+  <si>
+    <t>MSG005</t>
+  </si>
+  <si>
+    <t>WS005</t>
+  </si>
+  <si>
+    <t>MSG006</t>
+  </si>
+  <si>
+    <t>WS006</t>
+  </si>
+  <si>
+    <t>WS008</t>
+  </si>
+  <si>
+    <t>WS010</t>
+  </si>
+  <si>
+    <t>WS012</t>
+  </si>
+  <si>
+    <t>WS007</t>
+  </si>
+  <si>
+    <t>WS009</t>
+  </si>
+  <si>
+    <t>WS011</t>
+  </si>
+  <si>
+    <t>express_delivery.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	wedding_delivery.html</t>
+  </si>
+  <si>
+    <t>problem_box.html</t>
+  </si>
+  <si>
+    <t>midnight_delivery.html</t>
+  </si>
+  <si>
+    <t>scheduled_delivery.html</t>
+  </si>
+  <si>
+    <t>Quick Delivery Confirmed!</t>
+  </si>
+  <si>
+    <t>Wedding Day Delivery!</t>
+  </si>
+  <si>
+    <t>Issue with Your Delivery</t>
+  </si>
+  <si>
+    <t>Midnight Magic Delivered!</t>
+  </si>
+  <si>
+    <t>Scheduled Delivery Confirmed!</t>
   </si>
 </sst>
 </file>
@@ -2641,40 +2855,428 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08473418-9C08-4415-9A18-E4B9858BD3EF}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="23.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.21875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>468</v>
+        <v>203</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>460</v>
+        <v>485</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335E0FF-EB28-43CF-ADC1-87E3CC0231B4}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="23.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.21875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -3565,22 +4167,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAC09C5-9C2B-46DF-B129-5A75E291A748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363BA5EF-A2DE-4389-B5E3-DBC5627952CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="547">
   <si>
     <t>Name</t>
   </si>
@@ -1664,6 +1664,21 @@
   </si>
   <si>
     <t>Scheduled Delivery Confirmed!</t>
+  </si>
+  <si>
+    <t>DE-Delivered</t>
+  </si>
+  <si>
+    <t>ND-Non Delivered</t>
+  </si>
+  <si>
+    <t>PR-Problem/Exception</t>
+  </si>
+  <si>
+    <t>RC-Recycle to Delivery</t>
+  </si>
+  <si>
+    <t>RE-To be Redelivered</t>
   </si>
 </sst>
 </file>
@@ -2855,10 +2870,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08473418-9C08-4415-9A18-E4B9858BD3EF}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2869,16 +2884,17 @@
     <col min="4" max="4" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="23.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.21875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="23.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.21875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>471</v>
       </c>
@@ -2898,28 +2914,31 @@
         <v>475</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -2939,28 +2958,31 @@
         <v>488</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="K2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>493</v>
       </c>
@@ -2980,28 +3002,31 @@
         <v>517</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="K3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>494</v>
       </c>
@@ -3021,28 +3046,31 @@
         <v>518</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="K4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="M4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>495</v>
       </c>
@@ -3062,28 +3090,31 @@
         <v>520</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="I5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>496</v>
       </c>
@@ -3103,28 +3134,31 @@
         <v>522</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="K6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>497</v>
       </c>
@@ -3144,29 +3178,37 @@
         <v>524</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="K7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="M7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>541</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7" xr:uid="{1D46F3B5-3640-4AB7-B64F-010E144AE5CD}">
+      <formula1>"DE-Delivered, ND-Non Delivered, PR-Problem/Exception, RC-Recycle to Delivery, RE-To be Redelivered"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -3174,10 +3216,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335E0FF-EB28-43CF-ADC1-87E3CC0231B4}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3187,17 +3229,17 @@
     <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="23.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.21875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="7" width="20.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="23.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.21875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>471</v>
       </c>
@@ -3217,28 +3259,31 @@
         <v>475</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -3258,28 +3303,36 @@
         <v>488</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="K2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>492</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{ED109305-AE0F-4868-BAC4-B01844E7B8DA}">
+      <formula1>"DE-Delivered, ND-Non Delivered, PR-Problem/Exception, RC-Recycle to Delivery, RE-To be Redelivered"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -4167,22 +4220,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363BA5EF-A2DE-4389-B5E3-DBC5627952CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C400922-5134-45A9-A99A-B4F5B4480F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -2872,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08473418-9C08-4415-9A18-E4B9858BD3EF}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3218,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335E0FF-EB28-43CF-ADC1-87E3CC0231B4}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3309,7 +3309,7 @@
         <v>489</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>490</v>
@@ -3321,7 +3321,7 @@
         <v>491</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>492</v>
@@ -4220,22 +4220,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C400922-5134-45A9-A99A-B4F5B4480F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CAB6E9-A0FE-4DCE-AAF2-00A343144CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet name="Slot" sheetId="15" r:id="rId11"/>
     <sheet name="Mode" sheetId="17" r:id="rId12"/>
     <sheet name="Code" sheetId="16" r:id="rId13"/>
-    <sheet name="Test" sheetId="18" r:id="rId14"/>
+    <sheet name="ShortCode" sheetId="19" r:id="rId14"/>
+    <sheet name="Test" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="567">
   <si>
     <t>Name</t>
   </si>
@@ -1679,6 +1680,66 @@
   </si>
   <si>
     <t>RE-To be Redelivered</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Delivery Type</t>
+  </si>
+  <si>
+    <t>Delivery Zone</t>
+  </si>
+  <si>
+    <t>Special Delivery Charge</t>
+  </si>
+  <si>
+    <t>Special Instruction</t>
+  </si>
+  <si>
+    <t>Flower Haven</t>
+  </si>
+  <si>
+    <t>Elegant Petals</t>
+  </si>
+  <si>
+    <t>Sunshine Florals</t>
+  </si>
+  <si>
+    <t>Blooming Gardens</t>
+  </si>
+  <si>
+    <t>Petal Place</t>
+  </si>
+  <si>
+    <t>+1 214-555-4321</t>
+  </si>
+  <si>
+    <t>+34 93 555 1234</t>
+  </si>
+  <si>
+    <t>+1 305-555-0987</t>
+  </si>
+  <si>
+    <t>+1 212-555-5678</t>
+  </si>
+  <si>
+    <t>+1 213-555-1212</t>
+  </si>
+  <si>
+    <t>Deliver by the front desk</t>
+  </si>
+  <si>
+    <t>Leave at concierge desk</t>
+  </si>
+  <si>
+    <t>Ring doorbell upon arrival</t>
+  </si>
+  <si>
+    <t>Call before delivery</t>
+  </si>
+  <si>
+    <t>Handle with care, fragile items</t>
   </si>
 </sst>
 </file>
@@ -2492,7 +2553,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3215,10 +3276,313 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335E0FF-EB28-43CF-ADC1-87E3CC0231B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0917F802-0E2D-4130-BB01-3BF4DABE74A1}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="2">
+        <v>90001</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="2">
+        <v>78701</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="2">
+        <v>75201</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10118</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="2">
+        <v>60606</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="2">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{30530826-5438-41C9-919B-15E1BBA2A894}">
+      <formula1>"DE-Delivered, ND-Non Delivered, PR-Problem/Exception, RC-Recycle to Delivery, RE-To be Redelivered"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6" xr:uid="{A451F331-FB9B-49FF-8811-6728988F89E3}">
+      <formula1>"Wire Out,Phone Out,Delivery,Fringe,Pool,Overseas,CarryOut, WillCall,Ship, Pickup, Redelivery,Replacement"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11E0920-74B1-45FC-985E-816EB2D6DCE4}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -3226,110 +3590,115 @@
   <cols>
     <col min="1" max="1" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="23.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="31.21875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>471</v>
+        <v>145</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>203</v>
+        <v>547</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>472</v>
+        <v>85</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>473</v>
+        <v>86</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>474</v>
+        <v>87</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>475</v>
+        <v>88</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>476</v>
+        <v>90</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>477</v>
+        <v>97</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>478</v>
+        <v>551</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>480</v>
+        <v>549</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>481</v>
+        <v>21</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>482</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>483</v>
+        <v>552</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>484</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>485</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>486</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>487</v>
+        <v>101</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>488</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
+      </c>
+      <c r="H2" s="2">
+        <v>90001</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>561</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>490</v>
+        <v>562</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>492</v>
+      <c r="N2" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{ED109305-AE0F-4868-BAC4-B01844E7B8DA}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{AE6AE72B-3D46-46E3-BF08-4039EE5228A3}">
+      <formula1>"Wire Out,Phone Out,Delivery,Fringe,Pool,Overseas,CarryOut, WillCall,Ship, Pickup, Redelivery,Replacement"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{5E871586-1560-49A9-B6DF-E1BDE75A7859}">
       <formula1>"DE-Delivered, ND-Non Delivered, PR-Problem/Exception, RC-Recycle to Delivery, RE-To be Redelivered"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4220,22 +4589,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4247,7 +4616,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:I7"/>
+      <selection activeCell="D2" sqref="D2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Files\MAS_FloraFire\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CAB6E9-A0FE-4DCE-AAF2-00A343144CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54238026-0007-49B1-BC90-4DDEF953EC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="573">
   <si>
     <t>Name</t>
   </si>
@@ -377,9 +377,6 @@
     <t>Madrid</t>
   </si>
   <si>
-    <t xml:space="preserve">maria.lopez@example.es </t>
-  </si>
-  <si>
     <t>+34915556789</t>
   </si>
   <si>
@@ -1016,9 +1013,6 @@
     <t>35</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>File Name</t>
   </si>
   <si>
@@ -1740,6 +1734,30 @@
   </si>
   <si>
     <t>Handle with care, fragile items</t>
+  </si>
+  <si>
+    <t>maria.lopez@example.es</t>
+  </si>
+  <si>
+    <t>Misc Income Reason</t>
+  </si>
+  <si>
+    <t>Paid Out Reason</t>
+  </si>
+  <si>
+    <t>Cash Drawer Over</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Employee Meals</t>
+  </si>
+  <si>
+    <t>Postage</t>
+  </si>
+  <si>
+    <t>Car Wash</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1850,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2006,12 +2024,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2091,10 +2137,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2378,10 +2430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F52621-DB17-44A2-AF63-FC128B554F1C}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2540,6 +2592,22 @@
       </c>
       <c r="B19" s="3">
         <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B21" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2581,90 +2649,90 @@
   <sheetData>
     <row r="1" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>445</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>451</v>
-      </c>
       <c r="F2" s="15" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G2" s="2">
         <v>23.7044</v>
@@ -2718,13 +2786,13 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -2809,62 +2877,62 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>456</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>461</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -2892,35 +2960,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -2957,310 +3025,310 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>480</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>521</v>
-      </c>
       <c r="K3" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="K4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>91</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>91</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -3279,7 +3347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0917F802-0E2D-4130-BB01-3BF4DABE74A1}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3304,10 +3372,10 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>85</v>
@@ -3331,27 +3399,27 @@
         <v>97</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
@@ -3372,16 +3440,16 @@
         <v>90001</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>3</v>
@@ -3392,34 +3460,34 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="H3" s="2">
         <v>78701</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>45</v>
@@ -3436,38 +3504,38 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="H4" s="2">
         <v>75201</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>3</v>
@@ -3478,34 +3546,34 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="H5" s="2">
         <v>10118</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>45</v>
@@ -3522,40 +3590,40 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H6" s="2">
         <v>60606</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>91</v>
@@ -3607,10 +3675,10 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>85</v>
@@ -3634,27 +3702,27 @@
         <v>97</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
@@ -3675,16 +3743,16 @@
         <v>90001</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>91</v>
@@ -3709,10 +3777,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3772,7 +3840,7 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -3787,7 +3855,7 @@
       <c r="D4" s="11">
         <v>-1</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -3822,7 +3890,7 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -3837,7 +3905,7 @@
       <c r="D7" s="6">
         <v>-1</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -3869,7 +3937,7 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -3884,7 +3952,7 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
@@ -3899,7 +3967,7 @@
       <c r="D11" s="6">
         <v>-1</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -3931,7 +3999,7 @@
       <c r="D13" s="11">
         <v>-1</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -3963,7 +4031,7 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
@@ -3978,7 +4046,7 @@
       <c r="D16" s="6">
         <v>-1</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -4010,7 +4078,7 @@
       <c r="D18" s="11">
         <v>-1</v>
       </c>
-      <c r="E18" s="28"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -4042,7 +4110,7 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="30"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -4057,7 +4125,7 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
@@ -4072,7 +4140,7 @@
       <c r="D22" s="6">
         <v>-1</v>
       </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -4104,7 +4172,7 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="27"/>
+      <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
@@ -4119,7 +4187,7 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
@@ -4134,7 +4202,7 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
@@ -4149,7 +4217,7 @@
       <c r="D27" s="11">
         <v>-1</v>
       </c>
-      <c r="E27" s="28"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -4159,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -4181,7 +4249,7 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="27"/>
+      <c r="E29" s="30"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
@@ -4196,7 +4264,7 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="27"/>
+      <c r="E30" s="30"/>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
@@ -4211,7 +4279,7 @@
       <c r="D31" s="6">
         <v>-1</v>
       </c>
-      <c r="E31" s="28"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
@@ -4230,7 +4298,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>50</v>
       </c>
@@ -4243,22 +4311,22 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="27"/>
+      <c r="E33" s="30"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>3</v>
+      <c r="C34" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="27"/>
+      <c r="E34" s="30"/>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
@@ -4273,7 +4341,7 @@
       <c r="D35" s="6">
         <v>-1</v>
       </c>
-      <c r="E35" s="28"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
@@ -4305,7 +4373,7 @@
       <c r="D37" s="11">
         <v>-1</v>
       </c>
-      <c r="E37" s="28"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
@@ -4337,7 +4405,7 @@
       <c r="D39" s="11">
         <v>-1</v>
       </c>
-      <c r="E39" s="28"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -4358,7 +4426,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -4369,7 +4437,7 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="27"/>
+      <c r="E41" s="30"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
@@ -4384,7 +4452,7 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="27"/>
+      <c r="E42" s="30"/>
     </row>
     <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
@@ -4399,7 +4467,7 @@
       <c r="D43" s="6">
         <v>-1</v>
       </c>
-      <c r="E43" s="28"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
@@ -4431,7 +4499,7 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="27"/>
+      <c r="E45" s="30"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
@@ -4446,7 +4514,7 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="27"/>
+      <c r="E46" s="30"/>
     </row>
     <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
@@ -4461,7 +4529,7 @@
       <c r="D47" s="6">
         <v>-1</v>
       </c>
-      <c r="E47" s="28"/>
+      <c r="E47" s="27"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -4493,7 +4561,7 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="27"/>
+      <c r="E49" s="30"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -4508,7 +4576,7 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="27"/>
+      <c r="E50" s="30"/>
     </row>
     <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
@@ -4523,7 +4591,7 @@
       <c r="D51" s="6">
         <v>-1</v>
       </c>
-      <c r="E51" s="28"/>
+      <c r="E51" s="27"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
@@ -4555,7 +4623,7 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="27"/>
+      <c r="E53" s="30"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
@@ -4570,44 +4638,125 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="27"/>
+      <c r="E54" s="30"/>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="11">
-        <v>3</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="11">
+      <c r="B55" s="6">
+        <v>3</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="6">
         <v>-1</v>
       </c>
-      <c r="E55" s="28"/>
+      <c r="E55" s="30"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B56" s="8">
+        <v>0</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="B57" s="6">
+        <v>1</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E57" s="29"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B58" s="8">
+        <v>0</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="8">
+        <v>1</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="30"/>
+    </row>
+    <row r="60" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B60" s="11">
+        <v>2</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="E23:E27"/>
+  <mergeCells count="18">
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="E40:E43"/>
     <mergeCell ref="E44:E47"/>
     <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="E23:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4615,8 +4764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B8A7D-056B-43CF-B8CF-47A9850E51E0}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:I7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4671,13 +4820,13 @@
         <v>90</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>92</v>
@@ -4692,7 +4841,7 @@
         <v>94</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>95</v>
@@ -4734,7 +4883,7 @@
         <v>29</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>24</v>
@@ -4794,7 +4943,7 @@
         <v>29</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
@@ -4818,10 +4967,10 @@
         <v>104</v>
       </c>
       <c r="S3" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="T3" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -4830,22 +4979,22 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="I4" s="2">
         <v>78701</v>
@@ -4854,7 +5003,7 @@
         <v>29</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
@@ -4876,10 +5025,10 @@
         <v>104</v>
       </c>
       <c r="S4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="T4" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -4888,20 +5037,20 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="I5" s="2">
         <v>75201</v>
@@ -4934,10 +5083,10 @@
         <v>104</v>
       </c>
       <c r="S5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="T5" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -4946,22 +5095,22 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="I6" s="2">
         <v>10118</v>
@@ -4992,10 +5141,10 @@
         <v>104</v>
       </c>
       <c r="S6" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="T6" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -5006,22 +5155,22 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I7" s="2">
         <v>60606</v>
@@ -5030,7 +5179,7 @@
         <v>29</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>24</v>
@@ -5054,10 +5203,10 @@
         <v>104</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5070,7 +5219,7 @@
     <hyperlink ref="S7" r:id="rId6" xr:uid="{904212DF-3581-4833-B3AE-9EB777FD795F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -5091,90 +5240,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5204,142 +5353,142 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5352,8 +5501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76421E-550A-4F58-ABC5-0AC68C5F2DE6}">
   <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3:AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5401,123 +5550,123 @@
   <sheetData>
     <row r="1" spans="1:38" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AK1" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="AK1" s="13" t="s">
-        <v>234</v>
-      </c>
       <c r="AL1" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>60</v>
@@ -5526,37 +5675,37 @@
         <v>29</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>3</v>
@@ -5578,10 +5727,10 @@
         <v>20</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X2" s="19" t="s">
         <v>3</v>
@@ -5593,10 +5742,10 @@
         <v>20</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AB2" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC2" s="19" t="s">
         <v>3</v>
@@ -5618,12 +5767,12 @@
       </c>
       <c r="AK2" s="15"/>
       <c r="AL2" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>60</v>
@@ -5632,37 +5781,37 @@
         <v>29</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O3" s="19" t="s">
         <v>3</v>
@@ -5684,10 +5833,10 @@
         <v>30</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X3" s="19" t="s">
         <v>3</v>
@@ -5702,7 +5851,7 @@
         <v>307</v>
       </c>
       <c r="AB3" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC3" s="19" t="s">
         <v>3</v>
@@ -5724,12 +5873,12 @@
       </c>
       <c r="AK3" s="15"/>
       <c r="AL3" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>60</v>
@@ -5738,37 +5887,37 @@
         <v>29</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O4" s="15" t="s">
         <v>91</v>
@@ -5790,10 +5939,10 @@
         <v>15</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="X4" s="15" t="s">
         <v>91</v>
@@ -5805,10 +5954,10 @@
         <v>50</v>
       </c>
       <c r="AA4" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB4" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC4" s="15" t="s">
         <v>91</v>
@@ -5820,28 +5969,28 @@
         <v>91</v>
       </c>
       <c r="AF4" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG4" s="15" t="s">
         <v>91</v>
       </c>
       <c r="AH4" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AI4" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AJ4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK4" s="15"/>
       <c r="AL4" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>60</v>
@@ -5850,37 +5999,37 @@
         <v>29</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>91</v>
@@ -5902,10 +6051,10 @@
         <v>49.99</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X5" s="15" t="s">
         <v>91</v>
@@ -5917,10 +6066,10 @@
         <v>50</v>
       </c>
       <c r="AA5" s="15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AB5" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC5" s="15" t="s">
         <v>91</v>
@@ -5932,67 +6081,67 @@
         <v>91</v>
       </c>
       <c r="AF5" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG5" s="15" t="s">
         <v>91</v>
       </c>
       <c r="AH5" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AI5" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AJ5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK5" s="15"/>
       <c r="AL5" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>56</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>91</v>
@@ -6001,7 +6150,7 @@
         <v>91</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R6" s="15" t="s">
         <v>91</v>
@@ -6016,10 +6165,10 @@
         <v>29.99</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W6" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X6" s="19" t="s">
         <v>3</v>
@@ -6031,10 +6180,10 @@
         <v>20</v>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AB6" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC6" s="19" t="s">
         <v>3</v>
@@ -6056,12 +6205,12 @@
       </c>
       <c r="AK6" s="15"/>
       <c r="AL6" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>60</v>
@@ -6070,37 +6219,37 @@
         <v>29</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O7" s="19" t="s">
         <v>3</v>
@@ -6122,10 +6271,10 @@
         <v>9.99</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="W7" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="X7" s="15" t="s">
         <v>91</v>
@@ -6137,10 +6286,10 @@
         <v>100</v>
       </c>
       <c r="AA7" s="15" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="AB7" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC7" s="15" t="s">
         <v>91</v>
@@ -6152,28 +6301,28 @@
         <v>91</v>
       </c>
       <c r="AF7" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG7" s="15" t="s">
         <v>91</v>
       </c>
       <c r="AH7" s="22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AI7" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AJ7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK7" s="15"/>
       <c r="AL7" s="15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>60</v>
@@ -6182,37 +6331,37 @@
         <v>62</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O8" s="15" t="s">
         <v>91</v>
@@ -6234,10 +6383,10 @@
         <v>25.99</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="X8" s="15" t="s">
         <v>91</v>
@@ -6249,10 +6398,10 @@
         <v>75</v>
       </c>
       <c r="AA8" s="15" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AB8" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC8" s="15" t="s">
         <v>91</v>
@@ -6268,22 +6417,22 @@
         <v>91</v>
       </c>
       <c r="AH8" s="22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AI8" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AJ8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK8" s="15"/>
       <c r="AL8" s="15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>57</v>
@@ -6292,37 +6441,37 @@
         <v>29</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O9" s="15" t="s">
         <v>91</v>
@@ -6344,10 +6493,10 @@
         <v>69.989999999999995</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="W9" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X9" s="19" t="s">
         <v>3</v>
@@ -6359,10 +6508,10 @@
         <v>10</v>
       </c>
       <c r="AA9" s="15" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AB9" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC9" s="19" t="s">
         <v>3</v>
@@ -6374,7 +6523,7 @@
         <v>91</v>
       </c>
       <c r="AF9" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG9" s="19" t="s">
         <v>3</v>
@@ -6386,12 +6535,12 @@
       </c>
       <c r="AK9" s="15"/>
       <c r="AL9" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>57</v>
@@ -6400,37 +6549,37 @@
         <v>29</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J10" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>317</v>
-      </c>
       <c r="M10" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O10" s="19" t="s">
         <v>3</v>
@@ -6439,7 +6588,7 @@
         <v>91</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R10" s="19" t="s">
         <v>3</v>
@@ -6454,10 +6603,10 @@
         <v>5.99</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W10" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="X10" s="15" t="s">
         <v>91</v>
@@ -6469,10 +6618,10 @@
         <v>150</v>
       </c>
       <c r="AA10" s="15" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="AB10" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC10" s="15" t="s">
         <v>91</v>
@@ -6488,22 +6637,22 @@
         <v>91</v>
       </c>
       <c r="AH10" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AI10" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AJ10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK10" s="15"/>
       <c r="AL10" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>57</v>
@@ -6512,37 +6661,37 @@
         <v>29</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O11" s="15" t="s">
         <v>91</v>
@@ -6564,10 +6713,10 @@
         <v>59.99</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="W11" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X11" s="15" t="s">
         <v>91</v>
@@ -6579,10 +6728,10 @@
         <v>30</v>
       </c>
       <c r="AA11" s="15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AB11" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC11" s="15" t="s">
         <v>91</v>
@@ -6598,22 +6747,22 @@
         <v>91</v>
       </c>
       <c r="AH11" s="22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AI11" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AJ11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK11" s="15"/>
       <c r="AL11" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>57</v>
@@ -6622,37 +6771,37 @@
         <v>29</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O12" s="15" t="s">
         <v>91</v>
@@ -6674,10 +6823,10 @@
         <v>45.99</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="W12" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X12" s="15" t="s">
         <v>91</v>
@@ -6689,10 +6838,10 @@
         <v>60</v>
       </c>
       <c r="AA12" s="15" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB12" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC12" s="15" t="s">
         <v>91</v>
@@ -6704,28 +6853,28 @@
         <v>91</v>
       </c>
       <c r="AF12" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG12" s="15" t="s">
         <v>91</v>
       </c>
       <c r="AH12" s="22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AI12" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AJ12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK12" s="15"/>
       <c r="AL12" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>57</v>
@@ -6734,37 +6883,37 @@
         <v>29</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O13" s="19" t="s">
         <v>3</v>
@@ -6786,10 +6935,10 @@
         <v>49.99</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W13" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X13" s="19" t="s">
         <v>3</v>
@@ -6801,10 +6950,10 @@
         <v>40</v>
       </c>
       <c r="AA13" s="15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AB13" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC13" s="19" t="s">
         <v>3</v>
@@ -6816,28 +6965,28 @@
         <v>91</v>
       </c>
       <c r="AF13" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG13" s="15" t="s">
         <v>91</v>
       </c>
       <c r="AH13" s="22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AI13" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AJ13" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK13" s="15"/>
       <c r="AL13" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>57</v>
@@ -6846,37 +6995,37 @@
         <v>29</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I14" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="L14" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>307</v>
-      </c>
       <c r="M14" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="N14" s="15" t="s">
         <v>287</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>288</v>
       </c>
       <c r="O14" s="15" t="s">
         <v>91</v>
@@ -6898,10 +7047,10 @@
         <v>8.99</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W14" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X14" s="15" t="s">
         <v>91</v>
@@ -6913,10 +7062,10 @@
         <v>200</v>
       </c>
       <c r="AA14" s="15" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="AB14" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC14" s="15" t="s">
         <v>91</v>
@@ -6938,7 +7087,7 @@
       </c>
       <c r="AK14" s="15"/>
       <c r="AL14" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -6970,30 +7119,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>348</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="19">
         <v>1001</v>
@@ -7002,7 +7151,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>29</v>
@@ -7014,7 +7163,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="19">
         <v>1002</v>
@@ -7023,7 +7172,7 @@
         <v>52</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>29</v>
@@ -7037,7 +7186,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="19">
         <v>1003</v>
@@ -7046,7 +7195,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>62</v>
@@ -7055,12 +7204,12 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B5" s="19">
         <v>1004</v>
@@ -7069,7 +7218,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>29</v>
@@ -7081,7 +7230,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B6" s="19">
         <v>1005</v>
@@ -7090,7 +7239,7 @@
         <v>53</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>29</v>
@@ -7102,7 +7251,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B7" s="19">
         <v>1006</v>
@@ -7111,7 +7260,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>32</v>
@@ -7149,33 +7298,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C2" s="19">
         <v>30</v>
@@ -7184,21 +7333,21 @@
         <v>29</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -7207,44 +7356,44 @@
         <v>29</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C4" s="19">
         <v>20</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>357</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>359</v>
       </c>
       <c r="C5" s="19">
         <v>5</v>
@@ -7253,21 +7402,21 @@
         <v>29</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C6" s="19">
         <v>50</v>
@@ -7276,21 +7425,21 @@
         <v>29</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C7" s="19">
         <v>10</v>
@@ -7299,21 +7448,21 @@
         <v>29</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C8" s="19">
         <v>100</v>
@@ -7322,21 +7471,21 @@
         <v>29</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C9" s="19">
         <v>100</v>
@@ -7345,13 +7494,13 @@
         <v>29</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -7399,10 +7548,10 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>85</v>
@@ -7423,7 +7572,7 @@
         <v>90</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>97</v>
@@ -7432,48 +7581,48 @@
         <v>96</v>
       </c>
       <c r="L1" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="P1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>387</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
@@ -7494,22 +7643,22 @@
         <v>90001</v>
       </c>
       <c r="I2" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>394</v>
-      </c>
       <c r="K2" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>393</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>395</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>45</v>
@@ -7518,22 +7667,22 @@
         <v>91</v>
       </c>
       <c r="Q2" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="U2" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="V2" s="15" t="s">
         <v>399</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>401</v>
       </c>
       <c r="W2" s="19" t="s">
         <v>51</v>
@@ -7541,46 +7690,46 @@
     </row>
     <row r="3" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="H3" s="2">
         <v>78701</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>46</v>
@@ -7589,22 +7738,22 @@
         <v>3</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="R3" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="T3" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="S3" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>400</v>
-      </c>
       <c r="U3" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="W3" s="19" t="s">
         <v>51</v>
@@ -7612,44 +7761,44 @@
     </row>
     <row r="4" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="H4" s="2">
         <v>75201</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O4" s="15" t="s">
         <v>44</v>
@@ -7658,22 +7807,22 @@
         <v>91</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="R4" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="T4" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="S4" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>400</v>
-      </c>
       <c r="U4" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="W4" s="19" t="s">
         <v>51</v>
@@ -7681,46 +7830,46 @@
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="H5" s="2">
         <v>10118</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>48</v>
@@ -7729,22 +7878,22 @@
         <v>91</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="R5" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="T5" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="S5" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>400</v>
-      </c>
       <c r="U5" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="W5" s="19" t="s">
         <v>51</v>
@@ -7752,46 +7901,46 @@
     </row>
     <row r="6" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H6" s="2">
         <v>60606</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>48</v>
@@ -7800,22 +7949,22 @@
         <v>91</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="R6" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="T6" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="S6" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>400</v>
-      </c>
       <c r="U6" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="W6" s="19" t="s">
         <v>51</v>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54238026-0007-49B1-BC90-4DDEF953EC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD85706-CAAD-4198-97F3-767AE9FAFF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -2137,6 +2137,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2144,9 +2147,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3779,7 +3779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
@@ -3840,7 +3840,7 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -3855,7 +3855,7 @@
       <c r="D4" s="11">
         <v>-1</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -3890,7 +3890,7 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -3905,7 +3905,7 @@
       <c r="D7" s="6">
         <v>-1</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -3937,7 +3937,7 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -3952,7 +3952,7 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
@@ -3967,7 +3967,7 @@
       <c r="D11" s="6">
         <v>-1</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -3999,7 +3999,7 @@
       <c r="D13" s="11">
         <v>-1</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -4031,7 +4031,7 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
@@ -4046,7 +4046,7 @@
       <c r="D16" s="6">
         <v>-1</v>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -4078,7 +4078,7 @@
       <c r="D18" s="11">
         <v>-1</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -4110,7 +4110,7 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -4125,7 +4125,7 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
@@ -4140,7 +4140,7 @@
       <c r="D22" s="6">
         <v>-1</v>
       </c>
-      <c r="E22" s="27"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -4172,7 +4172,7 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="30"/>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
@@ -4187,7 +4187,7 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
@@ -4202,7 +4202,7 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
@@ -4217,7 +4217,7 @@
       <c r="D27" s="11">
         <v>-1</v>
       </c>
-      <c r="E27" s="27"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -4249,7 +4249,7 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
@@ -4264,7 +4264,7 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="30"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
@@ -4279,7 +4279,7 @@
       <c r="D31" s="6">
         <v>-1</v>
       </c>
-      <c r="E31" s="27"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
@@ -4311,7 +4311,7 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="30"/>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
@@ -4326,7 +4326,7 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="30"/>
+      <c r="E34" s="27"/>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
@@ -4341,7 +4341,7 @@
       <c r="D35" s="6">
         <v>-1</v>
       </c>
-      <c r="E35" s="27"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
@@ -4373,7 +4373,7 @@
       <c r="D37" s="11">
         <v>-1</v>
       </c>
-      <c r="E37" s="27"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
@@ -4405,7 +4405,7 @@
       <c r="D39" s="11">
         <v>-1</v>
       </c>
-      <c r="E39" s="27"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -4437,7 +4437,7 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="30"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
@@ -4452,7 +4452,7 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="30"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
@@ -4467,7 +4467,7 @@
       <c r="D43" s="6">
         <v>-1</v>
       </c>
-      <c r="E43" s="27"/>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
@@ -4499,7 +4499,7 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="30"/>
+      <c r="E45" s="27"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
@@ -4514,7 +4514,7 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="30"/>
+      <c r="E46" s="27"/>
     </row>
     <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
@@ -4529,7 +4529,7 @@
       <c r="D47" s="6">
         <v>-1</v>
       </c>
-      <c r="E47" s="27"/>
+      <c r="E47" s="28"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -4561,7 +4561,7 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="30"/>
+      <c r="E49" s="27"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -4576,7 +4576,7 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="30"/>
+      <c r="E50" s="27"/>
     </row>
     <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
@@ -4591,7 +4591,7 @@
       <c r="D51" s="6">
         <v>-1</v>
       </c>
-      <c r="E51" s="27"/>
+      <c r="E51" s="28"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
@@ -4623,7 +4623,7 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="30"/>
+      <c r="E53" s="27"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
@@ -4638,7 +4638,7 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="30"/>
+      <c r="E54" s="27"/>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
@@ -4653,7 +4653,7 @@
       <c r="D55" s="6">
         <v>-1</v>
       </c>
-      <c r="E55" s="30"/>
+      <c r="E55" s="27"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
@@ -4668,7 +4668,7 @@
       <c r="D56" s="8">
         <v>1</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="E56" s="29" t="s">
         <v>566</v>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       <c r="D57" s="6">
         <v>-1</v>
       </c>
-      <c r="E57" s="29"/>
+      <c r="E57" s="30"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
@@ -4717,7 +4717,7 @@
       <c r="D59" s="2">
         <v>0</v>
       </c>
-      <c r="E59" s="30"/>
+      <c r="E59" s="27"/>
     </row>
     <row r="60" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
@@ -4732,15 +4732,10 @@
       <c r="D60" s="11">
         <v>-1</v>
       </c>
-      <c r="E60" s="27"/>
+      <c r="E60" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E56:E57"/>
     <mergeCell ref="E58:E60"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
@@ -4754,6 +4749,11 @@
     <mergeCell ref="E48:E51"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E56:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -5501,7 +5501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76421E-550A-4F58-ABC5-0AC68C5F2DE6}">
   <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AA3" sqref="AA3:AA14"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD85706-CAAD-4198-97F3-767AE9FAFF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4B57B2-323C-42A4-8C91-7EE7E320F4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
     <sheet name="ValueList" sheetId="1" r:id="rId2"/>
     <sheet name="Customer" sheetId="4" r:id="rId3"/>
-    <sheet name="ShortCuts" sheetId="6" r:id="rId4"/>
-    <sheet name="Vehicle" sheetId="7" r:id="rId5"/>
-    <sheet name="Product" sheetId="8" r:id="rId6"/>
+    <sheet name="Product" sheetId="8" r:id="rId4"/>
+    <sheet name="ShortCuts" sheetId="6" r:id="rId5"/>
+    <sheet name="Vehicle" sheetId="7" r:id="rId6"/>
     <sheet name="GiftCard" sheetId="10" r:id="rId7"/>
     <sheet name="Discount" sheetId="11" r:id="rId8"/>
     <sheet name="Employee" sheetId="12" r:id="rId9"/>
@@ -3779,7 +3779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
@@ -4736,6 +4736,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E56:E57"/>
     <mergeCell ref="E58:E60"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
@@ -4752,8 +4754,6 @@
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E56:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -5224,285 +5224,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B997F-3DC4-4C7D-9993-70026FD21600}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE96B074-BAA6-41E4-A885-01589CFEB352}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="17.88671875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76421E-550A-4F58-ABC5-0AC68C5F2DE6}">
   <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3:AA14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7097,6 +6823,280 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B997F-3DC4-4C7D-9993-70026FD21600}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE96B074-BAA6-41E4-A885-01589CFEB352}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="17.88671875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6C325F-4A76-431C-998A-38D75363C07E}">
   <dimension ref="A1:G7"/>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4B57B2-323C-42A4-8C91-7EE7E320F4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFE84EC-D90C-48C8-AB27-C0B91973B5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
     <sheet name="ValueList" sheetId="1" r:id="rId2"/>
     <sheet name="Customer" sheetId="4" r:id="rId3"/>
     <sheet name="Product" sheetId="8" r:id="rId4"/>
-    <sheet name="ShortCuts" sheetId="6" r:id="rId5"/>
-    <sheet name="Vehicle" sheetId="7" r:id="rId6"/>
-    <sheet name="GiftCard" sheetId="10" r:id="rId7"/>
-    <sheet name="Discount" sheetId="11" r:id="rId8"/>
-    <sheet name="Employee" sheetId="12" r:id="rId9"/>
-    <sheet name="Zone" sheetId="13" r:id="rId10"/>
-    <sheet name="Slot" sheetId="15" r:id="rId11"/>
-    <sheet name="Mode" sheetId="17" r:id="rId12"/>
-    <sheet name="Code" sheetId="16" r:id="rId13"/>
-    <sheet name="ShortCode" sheetId="19" r:id="rId14"/>
+    <sheet name="Discount" sheetId="11" r:id="rId5"/>
+    <sheet name="GiftCard" sheetId="10" r:id="rId6"/>
+    <sheet name="Employee" sheetId="12" r:id="rId7"/>
+    <sheet name="Zone" sheetId="13" r:id="rId8"/>
+    <sheet name="Slot" sheetId="15" r:id="rId9"/>
+    <sheet name="Mode" sheetId="17" r:id="rId10"/>
+    <sheet name="Code" sheetId="16" r:id="rId11"/>
+    <sheet name="ShortCode" sheetId="19" r:id="rId12"/>
+    <sheet name="Vehicle" sheetId="7" r:id="rId13"/>
+    <sheet name="ShortCuts" sheetId="6" r:id="rId14"/>
     <sheet name="Test" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -2617,332 +2617,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3846B3E9-78EC-4A21-B7B1-295C9A6CBED2}">
-  <dimension ref="A1:V5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.21875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="G2" s="2">
-        <v>23.7044</v>
-      </c>
-      <c r="H2" s="2">
-        <v>90.527799999999999</v>
-      </c>
-      <c r="I2" s="2">
-        <v>23.573899999999998</v>
-      </c>
-      <c r="J2" s="2">
-        <v>90.523300000000006</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2">
-        <v>50</v>
-      </c>
-      <c r="M2" s="2">
-        <v>100</v>
-      </c>
-      <c r="N2" s="2">
-        <v>80</v>
-      </c>
-      <c r="O2" s="2">
-        <v>70</v>
-      </c>
-      <c r="P2" s="2">
-        <v>150</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>250</v>
-      </c>
-      <c r="R2" s="2">
-        <v>100</v>
-      </c>
-      <c r="S2" s="2">
-        <v>80</v>
-      </c>
-      <c r="T2" s="2">
-        <v>70</v>
-      </c>
-      <c r="U2" s="2">
-        <v>8</v>
-      </c>
-      <c r="V2" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2">
-        <v>1216</v>
-      </c>
-      <c r="L3" s="2">
-        <v>60</v>
-      </c>
-      <c r="M3" s="2">
-        <v>200</v>
-      </c>
-      <c r="N3" s="2">
-        <v>150</v>
-      </c>
-      <c r="O3" s="2">
-        <v>100</v>
-      </c>
-      <c r="P3" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>270</v>
-      </c>
-      <c r="R3" s="2">
-        <v>100</v>
-      </c>
-      <c r="S3" s="2">
-        <v>80</v>
-      </c>
-      <c r="T3" s="2">
-        <v>70</v>
-      </c>
-      <c r="U3" s="2">
-        <v>9</v>
-      </c>
-      <c r="V3" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{151F146C-B6D4-4A26-ADB6-392DC8CCBB49}">
-      <formula1>"Normal, Fringe, Pool"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{898D00AD-3E7C-4EE0-9158-1346577E6B7C}">
-      <formula1>"Coordinates, Zip Code"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA816B9A-A2BD-448E-99B5-2B148B525D17}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>463</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DA318D-8073-4D46-A062-C668992104C1}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2997,7 +2671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08473418-9C08-4415-9A18-E4B9858BD3EF}">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -3343,7 +3017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0917F802-0E2D-4130-BB01-3BF4DABE74A1}">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -3641,6 +3315,280 @@
       <formula1>"Wire Out,Phone Out,Delivery,Fringe,Pool,Overseas,CarryOut, WillCall,Ship, Pickup, Redelivery,Replacement"</formula1>
     </dataValidation>
   </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE96B074-BAA6-41E4-A885-01589CFEB352}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="17.88671875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B997F-3DC4-4C7D-9993-70026FD21600}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -4736,24 +4684,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E28:E31"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="E52:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4764,8 +4712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B8A7D-056B-43CF-B8CF-47A9850E51E0}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5059,7 +5007,7 @@
         <v>29</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
@@ -5119,7 +5067,7 @@
         <v>29</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>24</v>
@@ -5227,8 +5175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76421E-550A-4F58-ABC5-0AC68C5F2DE6}">
   <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6824,280 +6772,240 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B997F-3DC4-4C7D-9993-70026FD21600}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F147CD6B-CA39-477C-82FD-5D86870A8EFB}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>165</v>
+        <v>126</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="19">
+        <v>30</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="19">
+        <v>20</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="19">
+        <v>5</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="19">
+        <v>50</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="19">
+        <v>10</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="19">
+        <v>100</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C9" s="19">
+        <v>100</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE96B074-BAA6-41E4-A885-01589CFEB352}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="17.88671875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6C325F-4A76-431C-998A-38D75363C07E}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -7276,241 +7184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F147CD6B-CA39-477C-82FD-5D86870A8EFB}">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="C2" s="19">
-        <v>30</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="C4" s="19">
-        <v>20</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="C5" s="19">
-        <v>5</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="C6" s="19">
-        <v>50</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="C7" s="19">
-        <v>10</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="C8" s="19">
-        <v>100</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="C9" s="19">
-        <v>100</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C7655F-AC18-4255-9C9F-28DEDD520460}">
   <dimension ref="A1:W9"/>
   <sheetViews>
@@ -8004,4 +7678,330 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3846B3E9-78EC-4A21-B7B1-295C9A6CBED2}">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.21875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="G2" s="2">
+        <v>23.7044</v>
+      </c>
+      <c r="H2" s="2">
+        <v>90.527799999999999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>23.573899999999998</v>
+      </c>
+      <c r="J2" s="2">
+        <v>90.523300000000006</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2">
+        <v>100</v>
+      </c>
+      <c r="N2" s="2">
+        <v>80</v>
+      </c>
+      <c r="O2" s="2">
+        <v>70</v>
+      </c>
+      <c r="P2" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>250</v>
+      </c>
+      <c r="R2" s="2">
+        <v>100</v>
+      </c>
+      <c r="S2" s="2">
+        <v>80</v>
+      </c>
+      <c r="T2" s="2">
+        <v>70</v>
+      </c>
+      <c r="U2" s="2">
+        <v>8</v>
+      </c>
+      <c r="V2" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2">
+        <v>1216</v>
+      </c>
+      <c r="L3" s="2">
+        <v>60</v>
+      </c>
+      <c r="M3" s="2">
+        <v>200</v>
+      </c>
+      <c r="N3" s="2">
+        <v>150</v>
+      </c>
+      <c r="O3" s="2">
+        <v>100</v>
+      </c>
+      <c r="P3" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>270</v>
+      </c>
+      <c r="R3" s="2">
+        <v>100</v>
+      </c>
+      <c r="S3" s="2">
+        <v>80</v>
+      </c>
+      <c r="T3" s="2">
+        <v>70</v>
+      </c>
+      <c r="U3" s="2">
+        <v>9</v>
+      </c>
+      <c r="V3" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{151F146C-B6D4-4A26-ADB6-392DC8CCBB49}">
+      <formula1>"Normal, Fringe, Pool"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{898D00AD-3E7C-4EE0-9158-1346577E6B7C}">
+      <formula1>"Coordinates, Zip Code"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA816B9A-A2BD-448E-99B5-2B148B525D17}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFE84EC-D90C-48C8-AB27-C0B91973B5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0D627A-8801-472F-9934-4B4CF8D35E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -23,11 +23,12 @@
     <sheet name="Zone" sheetId="13" r:id="rId8"/>
     <sheet name="Slot" sheetId="15" r:id="rId9"/>
     <sheet name="Mode" sheetId="17" r:id="rId10"/>
-    <sheet name="Code" sheetId="16" r:id="rId11"/>
-    <sheet name="ShortCode" sheetId="19" r:id="rId12"/>
-    <sheet name="Vehicle" sheetId="7" r:id="rId13"/>
-    <sheet name="ShortCuts" sheetId="6" r:id="rId14"/>
-    <sheet name="Test" sheetId="20" r:id="rId15"/>
+    <sheet name="Calendar" sheetId="21" r:id="rId11"/>
+    <sheet name="Code" sheetId="16" r:id="rId12"/>
+    <sheet name="ShortCode" sheetId="19" r:id="rId13"/>
+    <sheet name="Vehicle" sheetId="7" r:id="rId14"/>
+    <sheet name="ShortCuts" sheetId="6" r:id="rId15"/>
+    <sheet name="Test" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="576">
   <si>
     <t>Name</t>
   </si>
@@ -1758,6 +1759,15 @@
   </si>
   <si>
     <t>Car Wash</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -2137,10 +2147,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2621,7 +2631,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2672,6 +2682,51 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F571E0E-8389-463F-9299-88D0F2C4674B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08473418-9C08-4415-9A18-E4B9858BD3EF}">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -3017,7 +3072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0917F802-0E2D-4130-BB01-3BF4DABE74A1}">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -3320,7 +3375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE96B074-BAA6-41E4-A885-01589CFEB352}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -3485,7 +3540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B997F-3DC4-4C7D-9993-70026FD21600}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -3594,7 +3649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11E0920-74B1-45FC-985E-816EB2D6DCE4}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -3788,7 +3843,7 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -3803,7 +3858,7 @@
       <c r="D4" s="11">
         <v>-1</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -3838,7 +3893,7 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -3853,7 +3908,7 @@
       <c r="D7" s="6">
         <v>-1</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -3885,7 +3940,7 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -3900,7 +3955,7 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
@@ -3915,7 +3970,7 @@
       <c r="D11" s="6">
         <v>-1</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -3947,7 +4002,7 @@
       <c r="D13" s="11">
         <v>-1</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -3979,7 +4034,7 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
@@ -3994,7 +4049,7 @@
       <c r="D16" s="6">
         <v>-1</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -4026,7 +4081,7 @@
       <c r="D18" s="11">
         <v>-1</v>
       </c>
-      <c r="E18" s="28"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -4058,7 +4113,7 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -4073,7 +4128,7 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
@@ -4088,7 +4143,7 @@
       <c r="D22" s="6">
         <v>-1</v>
       </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -4120,7 +4175,7 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="27"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
@@ -4135,7 +4190,7 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
@@ -4150,7 +4205,7 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
@@ -4165,7 +4220,7 @@
       <c r="D27" s="11">
         <v>-1</v>
       </c>
-      <c r="E27" s="28"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -4197,7 +4252,7 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="27"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
@@ -4212,7 +4267,7 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="27"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
@@ -4227,7 +4282,7 @@
       <c r="D31" s="6">
         <v>-1</v>
       </c>
-      <c r="E31" s="28"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
@@ -4259,7 +4314,7 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="27"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
@@ -4274,7 +4329,7 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="27"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
@@ -4289,7 +4344,7 @@
       <c r="D35" s="6">
         <v>-1</v>
       </c>
-      <c r="E35" s="28"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
@@ -4321,7 +4376,7 @@
       <c r="D37" s="11">
         <v>-1</v>
       </c>
-      <c r="E37" s="28"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
@@ -4353,7 +4408,7 @@
       <c r="D39" s="11">
         <v>-1</v>
       </c>
-      <c r="E39" s="28"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -4385,7 +4440,7 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="27"/>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
@@ -4400,7 +4455,7 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="27"/>
+      <c r="E42" s="28"/>
     </row>
     <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
@@ -4415,7 +4470,7 @@
       <c r="D43" s="6">
         <v>-1</v>
       </c>
-      <c r="E43" s="28"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
@@ -4447,7 +4502,7 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="27"/>
+      <c r="E45" s="28"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
@@ -4462,7 +4517,7 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="27"/>
+      <c r="E46" s="28"/>
     </row>
     <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
@@ -4477,7 +4532,7 @@
       <c r="D47" s="6">
         <v>-1</v>
       </c>
-      <c r="E47" s="28"/>
+      <c r="E47" s="27"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -4509,7 +4564,7 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="27"/>
+      <c r="E49" s="28"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -4524,7 +4579,7 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="27"/>
+      <c r="E50" s="28"/>
     </row>
     <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
@@ -4539,7 +4594,7 @@
       <c r="D51" s="6">
         <v>-1</v>
       </c>
-      <c r="E51" s="28"/>
+      <c r="E51" s="27"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
@@ -4571,7 +4626,7 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="27"/>
+      <c r="E53" s="28"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
@@ -4586,7 +4641,7 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="27"/>
+      <c r="E54" s="28"/>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
@@ -4601,7 +4656,7 @@
       <c r="D55" s="6">
         <v>-1</v>
       </c>
-      <c r="E55" s="27"/>
+      <c r="E55" s="28"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
@@ -4665,7 +4720,7 @@
       <c r="D59" s="2">
         <v>0</v>
       </c>
-      <c r="E59" s="27"/>
+      <c r="E59" s="28"/>
     </row>
     <row r="60" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
@@ -4680,10 +4735,18 @@
       <c r="D60" s="11">
         <v>-1</v>
       </c>
-      <c r="E60" s="28"/>
+      <c r="E60" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="E40:E43"/>
@@ -4691,17 +4754,9 @@
     <mergeCell ref="E48:E51"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="E52:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4712,7 +4767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B8A7D-056B-43CF-B8CF-47A9850E51E0}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K4" sqref="K4:K6"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0D627A-8801-472F-9934-4B4CF8D35E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D425D6-4A8D-42A2-8709-6060549D2CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -2144,19 +2144,19 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2685,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F571E0E-8389-463F-9299-88D0F2C4674B}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3826,7 +3826,7 @@
       <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="28" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -3858,7 +3858,7 @@
       <c r="D4" s="11">
         <v>-1</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -3873,7 +3873,7 @@
       <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="28" t="s">
         <v>82</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -3893,7 +3893,7 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -3908,7 +3908,7 @@
       <c r="D7" s="6">
         <v>-1</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -3923,7 +3923,7 @@
       <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="28" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3940,7 +3940,7 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -3955,7 +3955,7 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
@@ -3970,7 +3970,7 @@
       <c r="D11" s="6">
         <v>-1</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -3985,7 +3985,7 @@
       <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="28" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
       <c r="D13" s="11">
         <v>-1</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -4017,7 +4017,7 @@
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="28" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
@@ -4049,7 +4049,7 @@
       <c r="D16" s="6">
         <v>-1</v>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -4064,7 +4064,7 @@
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="28" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       <c r="D18" s="11">
         <v>-1</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -4096,7 +4096,7 @@
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="28" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -4128,7 +4128,7 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
@@ -4143,7 +4143,7 @@
       <c r="D22" s="6">
         <v>-1</v>
       </c>
-      <c r="E22" s="27"/>
+      <c r="E22" s="30"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -4158,7 +4158,7 @@
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="28" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="28"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
@@ -4190,7 +4190,7 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="28"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
@@ -4205,7 +4205,7 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="28"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
@@ -4220,7 +4220,7 @@
       <c r="D27" s="11">
         <v>-1</v>
       </c>
-      <c r="E27" s="27"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -4235,7 +4235,7 @@
       <c r="D28" s="8">
         <v>1</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="28" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4252,7 +4252,7 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="28"/>
+      <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
@@ -4267,7 +4267,7 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="28"/>
+      <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
@@ -4282,7 +4282,7 @@
       <c r="D31" s="6">
         <v>-1</v>
       </c>
-      <c r="E31" s="27"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
@@ -4297,7 +4297,7 @@
       <c r="D32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4314,7 +4314,7 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="28"/>
+      <c r="E33" s="29"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
@@ -4329,7 +4329,7 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="28"/>
+      <c r="E34" s="29"/>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
@@ -4344,7 +4344,7 @@
       <c r="D35" s="6">
         <v>-1</v>
       </c>
-      <c r="E35" s="27"/>
+      <c r="E35" s="30"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
@@ -4359,7 +4359,7 @@
       <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="28" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       <c r="D37" s="11">
         <v>-1</v>
       </c>
-      <c r="E37" s="27"/>
+      <c r="E37" s="30"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
@@ -4391,7 +4391,7 @@
       <c r="D38" s="8">
         <v>1</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
       <c r="D39" s="11">
         <v>-1</v>
       </c>
-      <c r="E39" s="27"/>
+      <c r="E39" s="30"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -4423,7 +4423,7 @@
       <c r="D40" s="8">
         <v>1</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="28" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4440,7 +4440,7 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="28"/>
+      <c r="E41" s="29"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
@@ -4455,7 +4455,7 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="28"/>
+      <c r="E42" s="29"/>
     </row>
     <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
@@ -4470,7 +4470,7 @@
       <c r="D43" s="6">
         <v>-1</v>
       </c>
-      <c r="E43" s="27"/>
+      <c r="E43" s="30"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
@@ -4485,7 +4485,7 @@
       <c r="D44" s="8">
         <v>1</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="28"/>
+      <c r="E45" s="29"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
@@ -4517,7 +4517,7 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="28"/>
+      <c r="E46" s="29"/>
     </row>
     <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
@@ -4532,7 +4532,7 @@
       <c r="D47" s="6">
         <v>-1</v>
       </c>
-      <c r="E47" s="27"/>
+      <c r="E47" s="30"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -4547,7 +4547,7 @@
       <c r="D48" s="8">
         <v>1</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="28" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4564,7 +4564,7 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="28"/>
+      <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -4579,7 +4579,7 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="28"/>
+      <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
@@ -4594,7 +4594,7 @@
       <c r="D51" s="6">
         <v>-1</v>
       </c>
-      <c r="E51" s="27"/>
+      <c r="E51" s="30"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
@@ -4609,7 +4609,7 @@
       <c r="D52" s="8">
         <v>1</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="28" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4626,7 +4626,7 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="28"/>
+      <c r="E53" s="29"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
@@ -4641,7 +4641,7 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="28"/>
+      <c r="E54" s="29"/>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
@@ -4656,7 +4656,7 @@
       <c r="D55" s="6">
         <v>-1</v>
       </c>
-      <c r="E55" s="28"/>
+      <c r="E55" s="29"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
@@ -4671,7 +4671,7 @@
       <c r="D56" s="8">
         <v>1</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="26" t="s">
         <v>566</v>
       </c>
     </row>
@@ -4688,7 +4688,7 @@
       <c r="D57" s="6">
         <v>-1</v>
       </c>
-      <c r="E57" s="30"/>
+      <c r="E57" s="27"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
@@ -4703,7 +4703,7 @@
       <c r="D58" s="8">
         <v>1</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="28" t="s">
         <v>567</v>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       <c r="D59" s="2">
         <v>0</v>
       </c>
-      <c r="E59" s="28"/>
+      <c r="E59" s="29"/>
     </row>
     <row r="60" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
@@ -4735,10 +4735,12 @@
       <c r="D60" s="11">
         <v>-1</v>
       </c>
-      <c r="E60" s="27"/>
+      <c r="E60" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="E58:E60"/>
     <mergeCell ref="E52:E55"/>
@@ -4755,8 +4757,6 @@
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4767,8 +4767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B8A7D-056B-43CF-B8CF-47A9850E51E0}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4886,7 +4886,7 @@
         <v>29</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>24</v>
@@ -4946,7 +4946,7 @@
         <v>29</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
@@ -5062,7 +5062,7 @@
         <v>29</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
@@ -5182,7 +5182,7 @@
         <v>29</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>24</v>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D425D6-4A8D-42A2-8709-6060549D2CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E94FA54-5DCD-4563-87EB-B178886ED5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="ShortCode" sheetId="19" r:id="rId13"/>
     <sheet name="Vehicle" sheetId="7" r:id="rId14"/>
     <sheet name="ShortCuts" sheetId="6" r:id="rId15"/>
-    <sheet name="Test" sheetId="20" r:id="rId16"/>
+    <sheet name="Test" sheetId="22" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="577">
   <si>
     <t>Name</t>
   </si>
@@ -960,51 +960,27 @@
     <t>Bunch</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Bloomnet</t>
   </si>
   <si>
@@ -1768,6 +1744,33 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>Recipe</t>
+  </si>
+  <si>
+    <t>BQ001</t>
+  </si>
+  <si>
+    <t>BQ-1005</t>
+  </si>
+  <si>
+    <t>Elegant Bouquet</t>
+  </si>
+  <si>
+    <t>FLR-D01-S03</t>
+  </si>
+  <si>
+    <t>2 Tulip, 3 Daffodils, 2 Hyacinths Flower</t>
+  </si>
+  <si>
+    <t>bq001.png</t>
+  </si>
+  <si>
+    <t>BQ002</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -2067,7 +2070,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2144,19 +2147,22 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2606,7 +2612,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B20" s="2">
         <v>18</v>
@@ -2614,7 +2620,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B21" s="2">
         <v>19</v>
@@ -2644,35 +2650,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -2698,26 +2704,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -2754,310 +2760,310 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>141</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>91</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="M4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>91</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>532</v>
-      </c>
       <c r="M5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>528</v>
-      </c>
       <c r="I6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>533</v>
-      </c>
       <c r="M6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>522</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>91</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -3104,7 +3110,7 @@
         <v>144</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>85</v>
@@ -3128,27 +3134,27 @@
         <v>97</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
@@ -3169,16 +3175,16 @@
         <v>90001</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>3</v>
@@ -3189,10 +3195,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>114</v>
@@ -3213,10 +3219,10 @@
         <v>78701</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>45</v>
@@ -3233,10 +3239,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>121</v>
@@ -3255,16 +3261,16 @@
         <v>75201</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>3</v>
@@ -3275,10 +3281,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>128</v>
@@ -3299,10 +3305,10 @@
         <v>10118</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>45</v>
@@ -3319,10 +3325,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>135</v>
@@ -3343,16 +3349,16 @@
         <v>60606</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>91</v>
@@ -3650,129 +3656,286 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11E0920-74B1-45FC-985E-816EB2D6DCE4}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570EFCBF-8E1B-4B5B-AD83-ED4683CA7299}">
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.77734375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.77734375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="21.77734375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.109375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12" style="1" customWidth="1"/>
+    <col min="36" max="36" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.21875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.6640625" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>545</v>
+        <v>126</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="J2" s="23">
+        <v>70</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="L2" s="23">
         <v>90</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="2">
-        <v>90001</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="2">
+      <c r="M2" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="23">
+        <v>90</v>
+      </c>
+      <c r="T2" s="23">
+        <v>120</v>
+      </c>
+      <c r="U2" s="23">
+        <v>150</v>
+      </c>
+      <c r="V2" s="23">
+        <v>20</v>
+      </c>
+      <c r="W2" s="23">
+        <v>0</v>
+      </c>
+      <c r="X2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="23">
         <v>10</v>
       </c>
+      <c r="AA2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="AM2" s="23" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{AE6AE72B-3D46-46E3-BF08-4039EE5228A3}">
-      <formula1>"Wire Out,Phone Out,Delivery,Fringe,Pool,Overseas,CarryOut, WillCall,Ship, Pickup, Redelivery,Replacement"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{5E871586-1560-49A9-B6DF-E1BDE75A7859}">
-      <formula1>"DE-Delivered, ND-Non Delivered, PR-Problem/Exception, RC-Recycle to Delivery, RE-To be Redelivered"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -3782,8 +3945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3826,7 +3989,7 @@
       <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="26" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3843,7 +4006,7 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="29"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -3858,7 +4021,7 @@
       <c r="D4" s="11">
         <v>-1</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -3873,7 +4036,7 @@
       <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="26" t="s">
         <v>82</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -3893,7 +4056,7 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -3908,7 +4071,7 @@
       <c r="D7" s="6">
         <v>-1</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -3923,7 +4086,7 @@
       <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="26" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3940,7 +4103,7 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -3955,7 +4118,7 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
@@ -3970,7 +4133,7 @@
       <c r="D11" s="6">
         <v>-1</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -3985,7 +4148,7 @@
       <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4002,7 +4165,7 @@
       <c r="D13" s="11">
         <v>-1</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -4017,7 +4180,7 @@
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="26" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4034,7 +4197,7 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
@@ -4049,7 +4212,7 @@
       <c r="D16" s="6">
         <v>-1</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -4064,7 +4227,7 @@
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4081,7 +4244,7 @@
       <c r="D18" s="11">
         <v>-1</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -4096,7 +4259,7 @@
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="26" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4113,7 +4276,7 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="29"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -4128,7 +4291,7 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
@@ -4143,7 +4306,7 @@
       <c r="D22" s="6">
         <v>-1</v>
       </c>
-      <c r="E22" s="30"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -4158,7 +4321,7 @@
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="26" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4175,7 +4338,7 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="29"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
@@ -4190,7 +4353,7 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="29"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
@@ -4205,7 +4368,7 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="29"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
@@ -4220,7 +4383,7 @@
       <c r="D27" s="11">
         <v>-1</v>
       </c>
-      <c r="E27" s="30"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -4235,7 +4398,7 @@
       <c r="D28" s="8">
         <v>1</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="26" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4252,7 +4415,7 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="29"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
@@ -4267,7 +4430,7 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="29"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
@@ -4282,7 +4445,7 @@
       <c r="D31" s="6">
         <v>-1</v>
       </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
@@ -4297,7 +4460,7 @@
       <c r="D32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="26" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4314,11 +4477,11 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="29"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
@@ -4329,7 +4492,7 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="29"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
@@ -4344,7 +4507,7 @@
       <c r="D35" s="6">
         <v>-1</v>
       </c>
-      <c r="E35" s="30"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
@@ -4359,7 +4522,7 @@
       <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="26" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4376,7 +4539,7 @@
       <c r="D37" s="11">
         <v>-1</v>
       </c>
-      <c r="E37" s="30"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
@@ -4391,7 +4554,7 @@
       <c r="D38" s="8">
         <v>1</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="26" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4408,7 +4571,7 @@
       <c r="D39" s="11">
         <v>-1</v>
       </c>
-      <c r="E39" s="30"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -4423,7 +4586,7 @@
       <c r="D40" s="8">
         <v>1</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="26" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4440,7 +4603,7 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="29"/>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
@@ -4455,7 +4618,7 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="29"/>
+      <c r="E42" s="28"/>
     </row>
     <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
@@ -4470,7 +4633,7 @@
       <c r="D43" s="6">
         <v>-1</v>
       </c>
-      <c r="E43" s="30"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
@@ -4485,7 +4648,7 @@
       <c r="D44" s="8">
         <v>1</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="26" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4502,7 +4665,7 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="29"/>
+      <c r="E45" s="28"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
@@ -4517,7 +4680,7 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="29"/>
+      <c r="E46" s="28"/>
     </row>
     <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
@@ -4532,7 +4695,7 @@
       <c r="D47" s="6">
         <v>-1</v>
       </c>
-      <c r="E47" s="30"/>
+      <c r="E47" s="27"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -4547,7 +4710,7 @@
       <c r="D48" s="8">
         <v>1</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" s="26" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4564,7 +4727,7 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="29"/>
+      <c r="E49" s="28"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -4579,7 +4742,7 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="29"/>
+      <c r="E50" s="28"/>
     </row>
     <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
@@ -4594,7 +4757,7 @@
       <c r="D51" s="6">
         <v>-1</v>
       </c>
-      <c r="E51" s="30"/>
+      <c r="E51" s="27"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
@@ -4609,7 +4772,7 @@
       <c r="D52" s="8">
         <v>1</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="26" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4626,7 +4789,7 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="29"/>
+      <c r="E53" s="28"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
@@ -4641,7 +4804,7 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="29"/>
+      <c r="E54" s="28"/>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
@@ -4656,11 +4819,11 @@
       <c r="D55" s="6">
         <v>-1</v>
       </c>
-      <c r="E55" s="29"/>
+      <c r="E55" s="28"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B56" s="8">
         <v>0</v>
@@ -4671,13 +4834,13 @@
       <c r="D56" s="8">
         <v>1</v>
       </c>
-      <c r="E56" s="26" t="s">
-        <v>566</v>
+      <c r="E56" s="29" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B57" s="6">
         <v>1</v>
@@ -4688,11 +4851,11 @@
       <c r="D57" s="6">
         <v>-1</v>
       </c>
-      <c r="E57" s="27"/>
+      <c r="E57" s="30"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B58" s="8">
         <v>0</v>
@@ -4703,13 +4866,13 @@
       <c r="D58" s="8">
         <v>1</v>
       </c>
-      <c r="E58" s="28" t="s">
-        <v>567</v>
+      <c r="E58" s="26" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B59" s="2">
         <v>1</v>
@@ -4720,11 +4883,11 @@
       <c r="D59" s="2">
         <v>0</v>
       </c>
-      <c r="E59" s="29"/>
+      <c r="E59" s="28"/>
     </row>
     <row r="60" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B60" s="11">
         <v>2</v>
@@ -4735,12 +4898,10 @@
       <c r="D60" s="11">
         <v>-1</v>
       </c>
-      <c r="E60" s="30"/>
+      <c r="E60" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="E58:E60"/>
     <mergeCell ref="E52:E55"/>
@@ -4757,6 +4918,8 @@
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4767,7 +4930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B8A7D-056B-43CF-B8CF-47A9850E51E0}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -4970,7 +5133,7 @@
         <v>104</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="T3" s="15" t="s">
         <v>112</v>
@@ -5228,15 +5391,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76421E-550A-4F58-ABC5-0AC68C5F2DE6}">
-  <dimension ref="A1:AL14"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AP16" sqref="AP16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
@@ -5248,7 +5411,7 @@
     <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="37.44140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -5272,12 +5435,15 @@
     <col min="34" max="34" width="12.109375" style="1" customWidth="1"/>
     <col min="35" max="35" width="12" style="1" customWidth="1"/>
     <col min="36" max="36" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="62.21875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12.21875" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="8.88671875" style="1"/>
+    <col min="39" max="39" width="12.6640625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.5546875" style="1" customWidth="1"/>
+    <col min="41" max="41" width="8.88671875" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>200</v>
       </c>
@@ -5390,10 +5556,16 @@
         <v>233</v>
       </c>
       <c r="AL1" s="13" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="AN1" s="31" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>234</v>
       </c>
@@ -5422,13 +5594,13 @@
         <v>304</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>304</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>262</v>
@@ -5456,10 +5628,10 @@
         <v>20</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>306</v>
+        <v>310</v>
+      </c>
+      <c r="W2" s="19">
+        <v>10</v>
       </c>
       <c r="X2" s="19" t="s">
         <v>3</v>
@@ -5471,10 +5643,10 @@
         <v>20</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB2" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AC2" s="19" t="s">
         <v>3</v>
@@ -5496,10 +5668,14 @@
       </c>
       <c r="AK2" s="15"/>
       <c r="AL2" s="15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="2"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>235</v>
       </c>
@@ -5528,13 +5704,13 @@
         <v>305</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>305</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>275</v>
@@ -5562,10 +5738,10 @@
         <v>30</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>308</v>
+        <v>315</v>
+      </c>
+      <c r="W3" s="19">
+        <v>20</v>
       </c>
       <c r="X3" s="19" t="s">
         <v>3</v>
@@ -5577,10 +5753,10 @@
         <v>20</v>
       </c>
       <c r="AA3" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB3" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AC3" s="19" t="s">
         <v>3</v>
@@ -5602,10 +5778,14 @@
       </c>
       <c r="AK3" s="15"/>
       <c r="AL3" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="AM3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="2"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>236</v>
       </c>
@@ -5634,13 +5814,13 @@
         <v>304</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>304</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>276</v>
@@ -5668,10 +5848,10 @@
         <v>15</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="W4" s="15" t="s">
         <v>309</v>
+      </c>
+      <c r="W4" s="19">
+        <v>5</v>
       </c>
       <c r="X4" s="15" t="s">
         <v>91</v>
@@ -5683,10 +5863,10 @@
         <v>50</v>
       </c>
       <c r="AA4" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB4" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AC4" s="15" t="s">
         <v>91</v>
@@ -5707,17 +5887,21 @@
         <v>292</v>
       </c>
       <c r="AI4" s="22" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AJ4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK4" s="15"/>
       <c r="AL4" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="AM4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="2"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>237</v>
       </c>
@@ -5731,7 +5915,7 @@
         <v>251</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>265</v>
@@ -5746,13 +5930,13 @@
         <v>305</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>305</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>277</v>
@@ -5780,10 +5964,10 @@
         <v>49.99</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="W5" s="15" t="s">
-        <v>310</v>
+        <v>331</v>
+      </c>
+      <c r="W5" s="19">
+        <v>29.99</v>
       </c>
       <c r="X5" s="15" t="s">
         <v>91</v>
@@ -5795,10 +5979,10 @@
         <v>50</v>
       </c>
       <c r="AA5" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB5" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AC5" s="15" t="s">
         <v>91</v>
@@ -5819,17 +6003,21 @@
         <v>292</v>
       </c>
       <c r="AI5" s="22" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AJ5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK5" s="15"/>
       <c r="AL5" s="15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="AM5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="2"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>238</v>
       </c>
@@ -5858,7 +6046,7 @@
         <v>304</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>304</v>
@@ -5879,7 +6067,7 @@
         <v>91</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="R6" s="15" t="s">
         <v>91</v>
@@ -5894,10 +6082,10 @@
         <v>29.99</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="W6" s="15" t="s">
-        <v>308</v>
+        <v>315</v>
+      </c>
+      <c r="W6" s="19">
+        <v>19.989999999999998</v>
       </c>
       <c r="X6" s="19" t="s">
         <v>3</v>
@@ -5909,10 +6097,10 @@
         <v>20</v>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB6" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AC6" s="19" t="s">
         <v>3</v>
@@ -5934,10 +6122,14 @@
       </c>
       <c r="AK6" s="15"/>
       <c r="AL6" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="AM6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="2"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>239</v>
       </c>
@@ -5966,13 +6158,13 @@
         <v>305</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>305</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>279</v>
@@ -6000,10 +6192,10 @@
         <v>9.99</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="W7" s="15" t="s">
         <v>309</v>
+      </c>
+      <c r="W7" s="19">
+        <v>5.99</v>
       </c>
       <c r="X7" s="15" t="s">
         <v>91</v>
@@ -6015,10 +6207,10 @@
         <v>100</v>
       </c>
       <c r="AA7" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB7" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AC7" s="15" t="s">
         <v>91</v>
@@ -6036,20 +6228,24 @@
         <v>91</v>
       </c>
       <c r="AH7" s="22" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="AI7" s="22" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AJ7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK7" s="15"/>
       <c r="AL7" s="15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="AM7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN7" s="2"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>240</v>
       </c>
@@ -6063,7 +6259,7 @@
         <v>254</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>268</v>
@@ -6078,13 +6274,13 @@
         <v>304</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>304</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>280</v>
@@ -6112,10 +6308,10 @@
         <v>25.99</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="W8" s="15" t="s">
-        <v>313</v>
+        <v>332</v>
+      </c>
+      <c r="W8" s="19">
+        <v>15.99</v>
       </c>
       <c r="X8" s="15" t="s">
         <v>91</v>
@@ -6127,10 +6323,10 @@
         <v>75</v>
       </c>
       <c r="AA8" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB8" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AC8" s="15" t="s">
         <v>91</v>
@@ -6146,20 +6342,24 @@
         <v>91</v>
       </c>
       <c r="AH8" s="22" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="AI8" s="22" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AJ8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK8" s="15"/>
       <c r="AL8" s="15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="AM8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN8" s="2"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>241</v>
       </c>
@@ -6188,13 +6388,13 @@
         <v>305</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>305</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>281</v>
@@ -6222,10 +6422,10 @@
         <v>69.989999999999995</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="W9" s="15" t="s">
-        <v>314</v>
+        <v>333</v>
+      </c>
+      <c r="W9" s="19">
+        <v>49.99</v>
       </c>
       <c r="X9" s="19" t="s">
         <v>3</v>
@@ -6237,10 +6437,10 @@
         <v>10</v>
       </c>
       <c r="AA9" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB9" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AC9" s="19" t="s">
         <v>3</v>
@@ -6264,10 +6464,14 @@
       </c>
       <c r="AK9" s="15"/>
       <c r="AL9" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="AM9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN9" s="2"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>242</v>
       </c>
@@ -6296,13 +6500,13 @@
         <v>304</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>304</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>282</v>
@@ -6317,7 +6521,7 @@
         <v>91</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="R10" s="19" t="s">
         <v>3</v>
@@ -6332,10 +6536,10 @@
         <v>5.99</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="W10" s="15" t="s">
-        <v>315</v>
+        <v>307</v>
+      </c>
+      <c r="W10" s="19">
+        <v>3.99</v>
       </c>
       <c r="X10" s="15" t="s">
         <v>91</v>
@@ -6347,10 +6551,10 @@
         <v>150</v>
       </c>
       <c r="AA10" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB10" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AC10" s="15" t="s">
         <v>91</v>
@@ -6369,17 +6573,21 @@
         <v>293</v>
       </c>
       <c r="AI10" s="22" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AJ10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK10" s="15"/>
       <c r="AL10" s="15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="AM10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN10" s="2"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>243</v>
       </c>
@@ -6393,7 +6601,7 @@
         <v>257</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>271</v>
@@ -6414,7 +6622,7 @@
         <v>305</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>283</v>
@@ -6442,10 +6650,10 @@
         <v>59.99</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="W11" s="15" t="s">
-        <v>311</v>
+        <v>334</v>
+      </c>
+      <c r="W11" s="19">
+        <v>39.99</v>
       </c>
       <c r="X11" s="15" t="s">
         <v>91</v>
@@ -6457,10 +6665,10 @@
         <v>30</v>
       </c>
       <c r="AA11" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB11" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AC11" s="15" t="s">
         <v>91</v>
@@ -6476,20 +6684,24 @@
         <v>91</v>
       </c>
       <c r="AH11" s="22" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="AI11" s="22" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AJ11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK11" s="15"/>
       <c r="AL11" s="15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+      <c r="AM11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN11" s="2"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>244</v>
       </c>
@@ -6518,13 +6730,13 @@
         <v>304</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>304</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>284</v>
@@ -6552,10 +6764,10 @@
         <v>45.99</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="W12" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
+      </c>
+      <c r="W12" s="19">
+        <v>25.99</v>
       </c>
       <c r="X12" s="15" t="s">
         <v>91</v>
@@ -6567,10 +6779,10 @@
         <v>60</v>
       </c>
       <c r="AA12" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB12" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AC12" s="15" t="s">
         <v>91</v>
@@ -6588,20 +6800,24 @@
         <v>91</v>
       </c>
       <c r="AH12" s="22" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="AI12" s="22" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AJ12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK12" s="15"/>
       <c r="AL12" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="AM12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN12" s="2"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>245</v>
       </c>
@@ -6636,7 +6852,7 @@
         <v>305</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M13" s="19" t="s">
         <v>285</v>
@@ -6664,10 +6880,10 @@
         <v>49.99</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="W13" s="15" t="s">
-        <v>311</v>
+        <v>331</v>
+      </c>
+      <c r="W13" s="19">
+        <v>29.99</v>
       </c>
       <c r="X13" s="19" t="s">
         <v>3</v>
@@ -6679,10 +6895,10 @@
         <v>40</v>
       </c>
       <c r="AA13" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB13" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AC13" s="19" t="s">
         <v>3</v>
@@ -6700,20 +6916,24 @@
         <v>91</v>
       </c>
       <c r="AH13" s="22" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="AI13" s="22" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AJ13" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK13" s="15"/>
       <c r="AL13" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+      <c r="AM13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN13" s="2"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>246</v>
       </c>
@@ -6742,13 +6962,13 @@
         <v>305</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>305</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>286</v>
@@ -6776,10 +6996,10 @@
         <v>8.99</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="W14" s="15" t="s">
-        <v>316</v>
+        <v>308</v>
+      </c>
+      <c r="W14" s="19">
+        <v>4.99</v>
       </c>
       <c r="X14" s="15" t="s">
         <v>91</v>
@@ -6791,10 +7011,10 @@
         <v>200</v>
       </c>
       <c r="AA14" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB14" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AC14" s="15" t="s">
         <v>91</v>
@@ -6816,7 +7036,123 @@
       </c>
       <c r="AK14" s="15"/>
       <c r="AL14" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
+      </c>
+      <c r="AM14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN14" s="2"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="23">
+        <v>90</v>
+      </c>
+      <c r="T15" s="23">
+        <v>120</v>
+      </c>
+      <c r="U15" s="23">
+        <v>150</v>
+      </c>
+      <c r="V15" s="23">
+        <v>20</v>
+      </c>
+      <c r="W15" s="23">
+        <v>90</v>
+      </c>
+      <c r="X15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="23">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK15" s="23"/>
+      <c r="AL15" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="AM15" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6854,7 +7190,7 @@
         <v>126</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>141</v>
@@ -6863,7 +7199,7 @@
         <v>231</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>209</v>
@@ -6871,10 +7207,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C2" s="19">
         <v>30</v>
@@ -6883,21 +7219,21 @@
         <v>29</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -6906,44 +7242,44 @@
         <v>29</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C4" s="19">
         <v>20</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C5" s="19">
         <v>5</v>
@@ -6952,21 +7288,21 @@
         <v>29</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C6" s="19">
         <v>50</v>
@@ -6975,21 +7311,21 @@
         <v>29</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C7" s="19">
         <v>10</v>
@@ -6998,21 +7334,21 @@
         <v>29</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C8" s="19">
         <v>100</v>
@@ -7021,21 +7357,21 @@
         <v>29</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C9" s="19">
         <v>100</v>
@@ -7044,13 +7380,13 @@
         <v>29</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -7085,22 +7421,22 @@
         <v>126</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>141</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -7114,7 +7450,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>29</v>
@@ -7135,7 +7471,7 @@
         <v>52</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>29</v>
@@ -7158,7 +7494,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>62</v>
@@ -7172,7 +7508,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B5" s="19">
         <v>1004</v>
@@ -7181,7 +7517,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>29</v>
@@ -7193,7 +7529,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B6" s="19">
         <v>1005</v>
@@ -7202,7 +7538,7 @@
         <v>53</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>29</v>
@@ -7214,7 +7550,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B7" s="19">
         <v>1006</v>
@@ -7223,7 +7559,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>32</v>
@@ -7277,10 +7613,10 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>85</v>
@@ -7301,7 +7637,7 @@
         <v>90</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>97</v>
@@ -7310,48 +7646,48 @@
         <v>96</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>141</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="O1" s="13" t="s">
         <v>202</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
@@ -7372,22 +7708,22 @@
         <v>90001</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>45</v>
@@ -7396,22 +7732,22 @@
         <v>91</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>127</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="W2" s="19" t="s">
         <v>51</v>
@@ -7419,10 +7755,10 @@
     </row>
     <row r="3" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>114</v>
@@ -7443,22 +7779,22 @@
         <v>78701</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>46</v>
@@ -7467,22 +7803,22 @@
         <v>3</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="R3" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="S3" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="S3" s="15" t="s">
-        <v>404</v>
-      </c>
       <c r="T3" s="15" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="U3" s="15" t="s">
         <v>127</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="W3" s="19" t="s">
         <v>51</v>
@@ -7490,10 +7826,10 @@
     </row>
     <row r="4" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>121</v>
@@ -7512,22 +7848,22 @@
         <v>75201</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="O4" s="15" t="s">
         <v>44</v>
@@ -7536,22 +7872,22 @@
         <v>91</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="U4" s="15" t="s">
         <v>127</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="W4" s="19" t="s">
         <v>51</v>
@@ -7559,10 +7895,10 @@
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>128</v>
@@ -7583,22 +7919,22 @@
         <v>10118</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>48</v>
@@ -7607,22 +7943,22 @@
         <v>91</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="U5" s="15" t="s">
         <v>127</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="W5" s="19" t="s">
         <v>51</v>
@@ -7630,10 +7966,10 @@
     </row>
     <row r="6" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>135</v>
@@ -7654,22 +7990,22 @@
         <v>60606</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>48</v>
@@ -7678,22 +8014,22 @@
         <v>91</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>127</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="W6" s="19" t="s">
         <v>51</v>
@@ -7768,7 +8104,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>209</v>
@@ -7777,81 +8113,81 @@
         <v>126</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>437</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G2" s="2">
         <v>23.7044</v>
@@ -7905,13 +8241,13 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -7996,62 +8332,62 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E94FA54-5DCD-4563-87EB-B178886ED5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFD28AC-4CA4-4277-BA8E-2A9AA102062A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
     <sheet name="ValueList" sheetId="1" r:id="rId2"/>
     <sheet name="Customer" sheetId="4" r:id="rId3"/>
-    <sheet name="Product" sheetId="8" r:id="rId4"/>
-    <sheet name="Discount" sheetId="11" r:id="rId5"/>
-    <sheet name="GiftCard" sheetId="10" r:id="rId6"/>
-    <sheet name="Employee" sheetId="12" r:id="rId7"/>
-    <sheet name="Zone" sheetId="13" r:id="rId8"/>
-    <sheet name="Slot" sheetId="15" r:id="rId9"/>
-    <sheet name="Mode" sheetId="17" r:id="rId10"/>
-    <sheet name="Calendar" sheetId="21" r:id="rId11"/>
-    <sheet name="Code" sheetId="16" r:id="rId12"/>
-    <sheet name="ShortCode" sheetId="19" r:id="rId13"/>
-    <sheet name="Vehicle" sheetId="7" r:id="rId14"/>
-    <sheet name="ShortCuts" sheetId="6" r:id="rId15"/>
-    <sheet name="Test" sheetId="22" r:id="rId16"/>
+    <sheet name="Sheet7" sheetId="29" r:id="rId4"/>
+    <sheet name="Product" sheetId="8" r:id="rId5"/>
+    <sheet name="Discount" sheetId="11" r:id="rId6"/>
+    <sheet name="GiftCard" sheetId="10" r:id="rId7"/>
+    <sheet name="Employee" sheetId="12" r:id="rId8"/>
+    <sheet name="Zone" sheetId="13" r:id="rId9"/>
+    <sheet name="Slot" sheetId="15" r:id="rId10"/>
+    <sheet name="Mode" sheetId="17" r:id="rId11"/>
+    <sheet name="Calendar" sheetId="21" r:id="rId12"/>
+    <sheet name="Code" sheetId="16" r:id="rId13"/>
+    <sheet name="ShortCode" sheetId="19" r:id="rId14"/>
+    <sheet name="Vehicle" sheetId="7" r:id="rId15"/>
+    <sheet name="ShortCuts" sheetId="6" r:id="rId16"/>
+    <sheet name="Test" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="583">
   <si>
     <t>Name</t>
   </si>
@@ -1771,6 +1772,24 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>Business Credit Card</t>
+  </si>
+  <si>
+    <t>Tax Exempt</t>
+  </si>
+  <si>
+    <t>Churches</t>
+  </si>
+  <si>
+    <t>Personal House Account</t>
+  </si>
+  <si>
+    <t>Business House Account</t>
+  </si>
+  <si>
+    <t>VIP</t>
   </si>
 </sst>
 </file>
@@ -2147,13 +2166,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2162,7 +2175,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2633,6 +2652,92 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA816B9A-A2BD-448E-99B5-2B148B525D17}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DA318D-8073-4D46-A062-C668992104C1}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2687,7 +2792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F571E0E-8389-463F-9299-88D0F2C4674B}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2732,7 +2837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08473418-9C08-4415-9A18-E4B9858BD3EF}">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -3078,7 +3183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0917F802-0E2D-4130-BB01-3BF4DABE74A1}">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -3381,7 +3486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE96B074-BAA6-41E4-A885-01589CFEB352}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -3546,7 +3651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B997F-3DC4-4C7D-9993-70026FD21600}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -3655,7 +3760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570EFCBF-8E1B-4B5B-AD83-ED4683CA7299}">
   <dimension ref="A1:AM2"/>
   <sheetViews>
@@ -3989,7 +4094,7 @@
       <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="29" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4006,7 +4111,7 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -4021,7 +4126,7 @@
       <c r="D4" s="11">
         <v>-1</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -4036,7 +4141,7 @@
       <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="29" t="s">
         <v>82</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -4056,7 +4161,7 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -4071,7 +4176,7 @@
       <c r="D7" s="6">
         <v>-1</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -4086,7 +4191,7 @@
       <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="29" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4103,7 +4208,7 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -4118,7 +4223,7 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
@@ -4133,7 +4238,7 @@
       <c r="D11" s="6">
         <v>-1</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -4148,7 +4253,7 @@
       <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="29" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4165,7 +4270,7 @@
       <c r="D13" s="11">
         <v>-1</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -4180,7 +4285,7 @@
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="29" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4197,7 +4302,7 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
@@ -4212,7 +4317,7 @@
       <c r="D16" s="6">
         <v>-1</v>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -4227,7 +4332,7 @@
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="29" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4244,7 +4349,7 @@
       <c r="D18" s="11">
         <v>-1</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -4259,7 +4364,7 @@
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="29" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4276,7 +4381,7 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="30"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -4291,7 +4396,7 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
@@ -4306,7 +4411,7 @@
       <c r="D22" s="6">
         <v>-1</v>
       </c>
-      <c r="E22" s="27"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -4321,7 +4426,7 @@
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="29" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4338,7 +4443,7 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="28"/>
+      <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
@@ -4353,7 +4458,7 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="28"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
@@ -4368,7 +4473,7 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="28"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
@@ -4383,7 +4488,7 @@
       <c r="D27" s="11">
         <v>-1</v>
       </c>
-      <c r="E27" s="27"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -4398,7 +4503,7 @@
       <c r="D28" s="8">
         <v>1</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="29" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4415,7 +4520,7 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="28"/>
+      <c r="E29" s="30"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
@@ -4430,7 +4535,7 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="28"/>
+      <c r="E30" s="30"/>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
@@ -4445,7 +4550,7 @@
       <c r="D31" s="6">
         <v>-1</v>
       </c>
-      <c r="E31" s="27"/>
+      <c r="E31" s="31"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
@@ -4460,7 +4565,7 @@
       <c r="D32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="29" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4477,7 +4582,7 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="28"/>
+      <c r="E33" s="30"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
@@ -4492,7 +4597,7 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="28"/>
+      <c r="E34" s="30"/>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
@@ -4507,7 +4612,7 @@
       <c r="D35" s="6">
         <v>-1</v>
       </c>
-      <c r="E35" s="27"/>
+      <c r="E35" s="31"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
@@ -4522,7 +4627,7 @@
       <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="29" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4539,7 +4644,7 @@
       <c r="D37" s="11">
         <v>-1</v>
       </c>
-      <c r="E37" s="27"/>
+      <c r="E37" s="31"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
@@ -4554,7 +4659,7 @@
       <c r="D38" s="8">
         <v>1</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="29" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4571,7 +4676,7 @@
       <c r="D39" s="11">
         <v>-1</v>
       </c>
-      <c r="E39" s="27"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -4586,7 +4691,7 @@
       <c r="D40" s="8">
         <v>1</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="29" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4603,7 +4708,7 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="28"/>
+      <c r="E41" s="30"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
@@ -4618,7 +4723,7 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="28"/>
+      <c r="E42" s="30"/>
     </row>
     <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
@@ -4633,7 +4738,7 @@
       <c r="D43" s="6">
         <v>-1</v>
       </c>
-      <c r="E43" s="27"/>
+      <c r="E43" s="31"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
@@ -4648,7 +4753,7 @@
       <c r="D44" s="8">
         <v>1</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="29" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4665,7 +4770,7 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="28"/>
+      <c r="E45" s="30"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
@@ -4680,7 +4785,7 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="28"/>
+      <c r="E46" s="30"/>
     </row>
     <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
@@ -4695,7 +4800,7 @@
       <c r="D47" s="6">
         <v>-1</v>
       </c>
-      <c r="E47" s="27"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -4710,7 +4815,7 @@
       <c r="D48" s="8">
         <v>1</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="29" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4727,7 +4832,7 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="28"/>
+      <c r="E49" s="30"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -4742,7 +4847,7 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="28"/>
+      <c r="E50" s="30"/>
     </row>
     <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
@@ -4757,7 +4862,7 @@
       <c r="D51" s="6">
         <v>-1</v>
       </c>
-      <c r="E51" s="27"/>
+      <c r="E51" s="31"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
@@ -4772,7 +4877,7 @@
       <c r="D52" s="8">
         <v>1</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="29" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4789,7 +4894,7 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="28"/>
+      <c r="E53" s="30"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
@@ -4804,7 +4909,7 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="28"/>
+      <c r="E54" s="30"/>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
@@ -4819,7 +4924,7 @@
       <c r="D55" s="6">
         <v>-1</v>
       </c>
-      <c r="E55" s="28"/>
+      <c r="E55" s="30"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
@@ -4834,7 +4939,7 @@
       <c r="D56" s="8">
         <v>1</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="27" t="s">
         <v>558</v>
       </c>
     </row>
@@ -4851,7 +4956,7 @@
       <c r="D57" s="6">
         <v>-1</v>
       </c>
-      <c r="E57" s="30"/>
+      <c r="E57" s="28"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
@@ -4866,7 +4971,7 @@
       <c r="D58" s="8">
         <v>1</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="29" t="s">
         <v>559</v>
       </c>
     </row>
@@ -4883,7 +4988,7 @@
       <c r="D59" s="2">
         <v>0</v>
       </c>
-      <c r="E59" s="28"/>
+      <c r="E59" s="30"/>
     </row>
     <row r="60" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
@@ -4898,10 +5003,12 @@
       <c r="D60" s="11">
         <v>-1</v>
       </c>
-      <c r="E60" s="27"/>
+      <c r="E60" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="E58:E60"/>
     <mergeCell ref="E52:E55"/>
@@ -4918,8 +5025,6 @@
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4930,8 +5035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B8A7D-056B-43CF-B8CF-47A9850E51E0}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4945,7 +5050,8 @@
     <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="10.77734375" style="1" customWidth="1"/>
-    <col min="11" max="12" width="8.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="28.109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.44140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="8.77734375" style="1" customWidth="1"/>
@@ -5019,7 +5125,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>91</v>
       </c>
@@ -5052,7 +5158,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>577</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>91</v>
@@ -5112,7 +5218,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>579</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>3</v>
@@ -5172,7 +5278,7 @@
         <v>140</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>578</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>91</v>
@@ -5228,7 +5334,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>580</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>3</v>
@@ -5288,7 +5394,7 @@
         <v>140</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>24</v>
+        <v>582</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>91</v>
@@ -5348,7 +5454,7 @@
         <v>25</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>24</v>
+        <v>581</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
@@ -5377,12 +5483,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{429C311D-6D48-48CA-9A9D-C04FAC21AFC1}"/>
-    <hyperlink ref="S3" r:id="rId2" xr:uid="{FAFBBC17-1F1F-4CE2-BBF2-E4AEA8EE1ED4}"/>
-    <hyperlink ref="S4" r:id="rId3" xr:uid="{F3C188DE-CC3C-4EF9-8248-BB75D6CA48C5}"/>
-    <hyperlink ref="S5" r:id="rId4" xr:uid="{3162BC19-B05A-40BA-92BD-54B8E669E299}"/>
-    <hyperlink ref="S6" r:id="rId5" xr:uid="{93615EC5-2AF1-4B5B-9A79-A890026A7F9E}"/>
-    <hyperlink ref="S7" r:id="rId6" xr:uid="{904212DF-3581-4833-B3AE-9EB777FD795F}"/>
+    <hyperlink ref="S3" r:id="rId1" xr:uid="{FAFBBC17-1F1F-4CE2-BBF2-E4AEA8EE1ED4}"/>
+    <hyperlink ref="S4" r:id="rId2" xr:uid="{F3C188DE-CC3C-4EF9-8248-BB75D6CA48C5}"/>
+    <hyperlink ref="S5" r:id="rId3" xr:uid="{3162BC19-B05A-40BA-92BD-54B8E669E299}"/>
+    <hyperlink ref="S6" r:id="rId4" xr:uid="{93615EC5-2AF1-4B5B-9A79-A890026A7F9E}"/>
+    <hyperlink ref="S7" r:id="rId5" xr:uid="{904212DF-3581-4833-B3AE-9EB777FD795F}"/>
+    <hyperlink ref="S2" r:id="rId6" xr:uid="{429C311D-6D48-48CA-9A9D-C04FAC21AFC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId7"/>
@@ -5390,10 +5496,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74CEE41-67AF-486E-ADE0-1CB29D3B8F57}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76421E-550A-4F58-ABC5-0AC68C5F2DE6}">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AP16" sqref="AP16"/>
     </sheetView>
   </sheetViews>
@@ -5561,7 +5681,7 @@
       <c r="AM1" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="AN1" s="31" t="s">
+      <c r="AN1" s="26" t="s">
         <v>576</v>
       </c>
     </row>
@@ -7162,7 +7282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F147CD6B-CA39-477C-82FD-5D86870A8EFB}">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -7396,7 +7516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6C325F-4A76-431C-998A-38D75363C07E}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -7575,7 +7695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C7655F-AC18-4255-9C9F-28DEDD520460}">
   <dimension ref="A1:W9"/>
   <sheetViews>
@@ -8071,7 +8191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3846B3E9-78EC-4A21-B7B1-295C9A6CBED2}">
   <dimension ref="A1:V5"/>
   <sheetViews>
@@ -8309,90 +8429,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA816B9A-A2BD-448E-99B5-2B148B525D17}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,28 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFD28AC-4CA4-4277-BA8E-2A9AA102062A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C761F0A7-763D-4CDB-B3BB-713A210255FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
     <sheet name="ValueList" sheetId="1" r:id="rId2"/>
     <sheet name="Customer" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet7" sheetId="29" r:id="rId4"/>
-    <sheet name="Product" sheetId="8" r:id="rId5"/>
-    <sheet name="Discount" sheetId="11" r:id="rId6"/>
-    <sheet name="GiftCard" sheetId="10" r:id="rId7"/>
-    <sheet name="Employee" sheetId="12" r:id="rId8"/>
-    <sheet name="Zone" sheetId="13" r:id="rId9"/>
-    <sheet name="Slot" sheetId="15" r:id="rId10"/>
-    <sheet name="Mode" sheetId="17" r:id="rId11"/>
-    <sheet name="Calendar" sheetId="21" r:id="rId12"/>
-    <sheet name="Code" sheetId="16" r:id="rId13"/>
-    <sheet name="ShortCode" sheetId="19" r:id="rId14"/>
-    <sheet name="Vehicle" sheetId="7" r:id="rId15"/>
-    <sheet name="ShortCuts" sheetId="6" r:id="rId16"/>
-    <sheet name="Test" sheetId="22" r:id="rId17"/>
+    <sheet name="Product" sheetId="8" r:id="rId4"/>
+    <sheet name="Discount" sheetId="11" r:id="rId5"/>
+    <sheet name="GiftCard" sheetId="10" r:id="rId6"/>
+    <sheet name="Employee" sheetId="12" r:id="rId7"/>
+    <sheet name="Zone" sheetId="13" r:id="rId8"/>
+    <sheet name="Slot" sheetId="15" r:id="rId9"/>
+    <sheet name="Mode" sheetId="17" r:id="rId10"/>
+    <sheet name="Calendar" sheetId="21" r:id="rId11"/>
+    <sheet name="Code" sheetId="16" r:id="rId12"/>
+    <sheet name="ShortCode" sheetId="19" r:id="rId13"/>
+    <sheet name="Vehicle" sheetId="7" r:id="rId14"/>
+    <sheet name="ShortCuts" sheetId="6" r:id="rId15"/>
+    <sheet name="Test" sheetId="22" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="587">
   <si>
     <t>Name</t>
   </si>
@@ -1790,6 +1789,18 @@
   </si>
   <si>
     <t>VIP</t>
+  </si>
+  <si>
+    <t>Green Plants</t>
+  </si>
+  <si>
+    <t>New Customer</t>
+  </si>
+  <si>
+    <t>Employee Recognition</t>
+  </si>
+  <si>
+    <t>Corporate Gift</t>
   </si>
 </sst>
 </file>
@@ -2169,19 +2180,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2652,92 +2663,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA816B9A-A2BD-448E-99B5-2B148B525D17}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DA318D-8073-4D46-A062-C668992104C1}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2792,7 +2717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F571E0E-8389-463F-9299-88D0F2C4674B}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2837,7 +2762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08473418-9C08-4415-9A18-E4B9858BD3EF}">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -3183,7 +3108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0917F802-0E2D-4130-BB01-3BF4DABE74A1}">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -3486,12 +3411,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE96B074-BAA6-41E4-A885-01589CFEB352}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3596,7 +3521,7 @@
         <v>186</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>192</v>
@@ -3651,7 +3576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B997F-3DC4-4C7D-9993-70026FD21600}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -3760,7 +3685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570EFCBF-8E1B-4B5B-AD83-ED4683CA7299}">
   <dimension ref="A1:AM2"/>
   <sheetViews>
@@ -4094,7 +4019,7 @@
       <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="27" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4111,7 +4036,7 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -4126,7 +4051,7 @@
       <c r="D4" s="11">
         <v>-1</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -4141,7 +4066,7 @@
       <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>82</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -4161,7 +4086,7 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -4176,7 +4101,7 @@
       <c r="D7" s="6">
         <v>-1</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -4191,7 +4116,7 @@
       <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="27" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4208,7 +4133,7 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -4223,7 +4148,7 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
@@ -4238,7 +4163,7 @@
       <c r="D11" s="6">
         <v>-1</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -4253,7 +4178,7 @@
       <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="27" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4270,7 +4195,7 @@
       <c r="D13" s="11">
         <v>-1</v>
       </c>
-      <c r="E13" s="31"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -4285,7 +4210,7 @@
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="27" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4302,7 +4227,7 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
@@ -4317,7 +4242,7 @@
       <c r="D16" s="6">
         <v>-1</v>
       </c>
-      <c r="E16" s="31"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -4332,7 +4257,7 @@
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="27" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4349,7 +4274,7 @@
       <c r="D18" s="11">
         <v>-1</v>
       </c>
-      <c r="E18" s="31"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -4364,7 +4289,7 @@
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="27" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4381,7 +4306,7 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -4396,7 +4321,7 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
@@ -4411,7 +4336,7 @@
       <c r="D22" s="6">
         <v>-1</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -4426,7 +4351,7 @@
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="27" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4443,7 +4368,7 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="30"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
@@ -4458,7 +4383,7 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
@@ -4473,7 +4398,7 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
@@ -4488,7 +4413,7 @@
       <c r="D27" s="11">
         <v>-1</v>
       </c>
-      <c r="E27" s="31"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -4503,7 +4428,7 @@
       <c r="D28" s="8">
         <v>1</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="27" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4520,7 +4445,7 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
@@ -4535,7 +4460,7 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="30"/>
+      <c r="E30" s="31"/>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
@@ -4550,7 +4475,7 @@
       <c r="D31" s="6">
         <v>-1</v>
       </c>
-      <c r="E31" s="31"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
@@ -4565,7 +4490,7 @@
       <c r="D32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="27" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4582,7 +4507,7 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="30"/>
+      <c r="E33" s="31"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
@@ -4597,7 +4522,7 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="30"/>
+      <c r="E34" s="31"/>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
@@ -4612,7 +4537,7 @@
       <c r="D35" s="6">
         <v>-1</v>
       </c>
-      <c r="E35" s="31"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
@@ -4627,7 +4552,7 @@
       <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="27" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4644,7 +4569,7 @@
       <c r="D37" s="11">
         <v>-1</v>
       </c>
-      <c r="E37" s="31"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
@@ -4659,7 +4584,7 @@
       <c r="D38" s="8">
         <v>1</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4676,7 +4601,7 @@
       <c r="D39" s="11">
         <v>-1</v>
       </c>
-      <c r="E39" s="31"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -4691,7 +4616,7 @@
       <c r="D40" s="8">
         <v>1</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="27" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4708,7 +4633,7 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="30"/>
+      <c r="E41" s="31"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
@@ -4723,7 +4648,7 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="30"/>
+      <c r="E42" s="31"/>
     </row>
     <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
@@ -4738,7 +4663,7 @@
       <c r="D43" s="6">
         <v>-1</v>
       </c>
-      <c r="E43" s="31"/>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
@@ -4753,7 +4678,7 @@
       <c r="D44" s="8">
         <v>1</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="27" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4770,7 +4695,7 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="30"/>
+      <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
@@ -4785,7 +4710,7 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="30"/>
+      <c r="E46" s="31"/>
     </row>
     <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
@@ -4800,7 +4725,7 @@
       <c r="D47" s="6">
         <v>-1</v>
       </c>
-      <c r="E47" s="31"/>
+      <c r="E47" s="28"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -4815,7 +4740,7 @@
       <c r="D48" s="8">
         <v>1</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="27" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4832,7 +4757,7 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="30"/>
+      <c r="E49" s="31"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -4847,7 +4772,7 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="30"/>
+      <c r="E50" s="31"/>
     </row>
     <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
@@ -4862,7 +4787,7 @@
       <c r="D51" s="6">
         <v>-1</v>
       </c>
-      <c r="E51" s="31"/>
+      <c r="E51" s="28"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
@@ -4877,7 +4802,7 @@
       <c r="D52" s="8">
         <v>1</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="27" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4894,7 +4819,7 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="30"/>
+      <c r="E53" s="31"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
@@ -4909,7 +4834,7 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="30"/>
+      <c r="E54" s="31"/>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
@@ -4924,7 +4849,7 @@
       <c r="D55" s="6">
         <v>-1</v>
       </c>
-      <c r="E55" s="30"/>
+      <c r="E55" s="31"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
@@ -4939,7 +4864,7 @@
       <c r="D56" s="8">
         <v>1</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="29" t="s">
         <v>558</v>
       </c>
     </row>
@@ -4956,7 +4881,7 @@
       <c r="D57" s="6">
         <v>-1</v>
       </c>
-      <c r="E57" s="28"/>
+      <c r="E57" s="30"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
@@ -4971,7 +4896,7 @@
       <c r="D58" s="8">
         <v>1</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" s="27" t="s">
         <v>559</v>
       </c>
     </row>
@@ -4988,7 +4913,7 @@
       <c r="D59" s="2">
         <v>0</v>
       </c>
-      <c r="E59" s="30"/>
+      <c r="E59" s="31"/>
     </row>
     <row r="60" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
@@ -5003,20 +4928,10 @@
       <c r="D60" s="11">
         <v>-1</v>
       </c>
-      <c r="E60" s="31"/>
+      <c r="E60" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="E40:E43"/>
@@ -5025,6 +4940,16 @@
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="E52:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -5035,7 +4960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B8A7D-056B-43CF-B8CF-47A9850E51E0}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5496,25 +5421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74CEE41-67AF-486E-ADE0-1CB29D3B8F57}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76421E-550A-4F58-ABC5-0AC68C5F2DE6}">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AP16" sqref="AP16"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6263,7 +6174,7 @@
         <v>253</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>261</v>
+        <v>583</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>267</v>
@@ -6379,7 +6290,7 @@
         <v>254</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>261</v>
+        <v>583</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>268</v>
@@ -6605,7 +6516,7 @@
         <v>256</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>261</v>
+        <v>583</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>270</v>
@@ -7282,7 +7193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F147CD6B-CA39-477C-82FD-5D86870A8EFB}">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -7516,12 +7427,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6C325F-4A76-431C-998A-38D75363C07E}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7588,7 +7499,7 @@
         <v>1002</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>52</v>
+        <v>584</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>343</v>
@@ -7634,7 +7545,7 @@
         <v>1004</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>53</v>
+        <v>585</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>343</v>
@@ -7676,7 +7587,7 @@
         <v>1006</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>53</v>
+        <v>586</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>343</v>
@@ -7695,12 +7606,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C7655F-AC18-4255-9C9F-28DEDD520460}">
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7870,7 +7781,7 @@
         <v>391</v>
       </c>
       <c r="W2" s="19" t="s">
-        <v>51</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7941,7 +7852,7 @@
         <v>391</v>
       </c>
       <c r="W3" s="19" t="s">
-        <v>51</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7980,7 +7891,7 @@
         <v>385</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>386</v>
@@ -8010,7 +7921,7 @@
         <v>391</v>
       </c>
       <c r="W4" s="19" t="s">
-        <v>51</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8081,7 +7992,7 @@
         <v>391</v>
       </c>
       <c r="W5" s="19" t="s">
-        <v>51</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8152,7 +8063,7 @@
         <v>391</v>
       </c>
       <c r="W6" s="19" t="s">
-        <v>51</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -8162,7 +8073,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{D789D244-6FE9-435C-8205-CD6C5EF4A0EF}">
       <formula1>"Work, Home, Mobile, Other"</formula1>
     </dataValidation>
@@ -8175,8 +8086,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W6" xr:uid="{C1288D44-C3F0-4DFF-809C-A0FAA7437289}">
       <formula1>"Friend, Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{82A09098-B4E6-43A6-A0FC-5929BAD00340}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3 M5:M6" xr:uid="{82A09098-B4E6-43A6-A0FC-5929BAD00340}">
       <formula1>"Active, In Active, Suspended, Locked"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4" xr:uid="{2DD87148-6E55-45E0-929E-9E9954D4F012}">
+      <formula1>"Active, Inactive, Suspended, Locked"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -8191,7 +8105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3846B3E9-78EC-4A21-B7B1-295C9A6CBED2}">
   <dimension ref="A1:V5"/>
   <sheetViews>
@@ -8429,4 +8343,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA816B9A-A2BD-448E-99B5-2B148B525D17}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C761F0A7-763D-4CDB-B3BB-713A210255FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462E904D-2A9E-41A6-BF5E-571F3460F420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
     <sheet name="ValueList" sheetId="1" r:id="rId2"/>
     <sheet name="Customer" sheetId="4" r:id="rId3"/>
     <sheet name="Product" sheetId="8" r:id="rId4"/>
-    <sheet name="Discount" sheetId="11" r:id="rId5"/>
-    <sheet name="GiftCard" sheetId="10" r:id="rId6"/>
-    <sheet name="Employee" sheetId="12" r:id="rId7"/>
-    <sheet name="Zone" sheetId="13" r:id="rId8"/>
-    <sheet name="Slot" sheetId="15" r:id="rId9"/>
-    <sheet name="Mode" sheetId="17" r:id="rId10"/>
-    <sheet name="Calendar" sheetId="21" r:id="rId11"/>
-    <sheet name="Code" sheetId="16" r:id="rId12"/>
-    <sheet name="ShortCode" sheetId="19" r:id="rId13"/>
-    <sheet name="Vehicle" sheetId="7" r:id="rId14"/>
-    <sheet name="ShortCuts" sheetId="6" r:id="rId15"/>
-    <sheet name="Test" sheetId="22" r:id="rId16"/>
+    <sheet name="Import" sheetId="23" r:id="rId5"/>
+    <sheet name="Discount" sheetId="11" r:id="rId6"/>
+    <sheet name="GiftCard" sheetId="10" r:id="rId7"/>
+    <sheet name="Employee" sheetId="12" r:id="rId8"/>
+    <sheet name="Zone" sheetId="13" r:id="rId9"/>
+    <sheet name="Slot" sheetId="15" r:id="rId10"/>
+    <sheet name="Mode" sheetId="17" r:id="rId11"/>
+    <sheet name="Calendar" sheetId="21" r:id="rId12"/>
+    <sheet name="Code" sheetId="16" r:id="rId13"/>
+    <sheet name="ShortCode" sheetId="19" r:id="rId14"/>
+    <sheet name="Vehicle" sheetId="7" r:id="rId15"/>
+    <sheet name="ShortCuts" sheetId="6" r:id="rId16"/>
+    <sheet name="Test" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="611">
   <si>
     <t>Name</t>
   </si>
@@ -813,12 +814,6 @@
     <t>ST-3002</t>
   </si>
   <si>
-    <t>BQ-1003</t>
-  </si>
-  <si>
-    <t>BQ-1004</t>
-  </si>
-  <si>
     <t>ARR-2003</t>
   </si>
   <si>
@@ -1770,12 +1765,6 @@
     <t>BQ002</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Business Credit Card</t>
-  </si>
-  <si>
     <t>Tax Exempt</t>
   </si>
   <si>
@@ -1801,6 +1790,90 @@
   </si>
   <si>
     <t>Corporate Gift</t>
+  </si>
+  <si>
+    <t>Loose Flowers</t>
+  </si>
+  <si>
+    <t>Roses</t>
+  </si>
+  <si>
+    <t>Silk Red Rose Bouquet</t>
+  </si>
+  <si>
+    <t>Artificial White Orchid</t>
+  </si>
+  <si>
+    <t>SF001</t>
+  </si>
+  <si>
+    <t>SF002</t>
+  </si>
+  <si>
+    <t>SILK-ROSE01</t>
+  </si>
+  <si>
+    <t>ART-ORCHD02</t>
+  </si>
+  <si>
+    <t>A beautiful bouquet of high-quality silk red roses, perfect for home decor and gifting.</t>
+  </si>
+  <si>
+    <t>Elegant artificial white orchids with lifelike petals, ideal for long-lasting decoration.</t>
+  </si>
+  <si>
+    <t>SF-A01-S01</t>
+  </si>
+  <si>
+    <t>SF-A02-S02</t>
+  </si>
+  <si>
+    <t>sf001.webp</t>
+  </si>
+  <si>
+    <t>sf002.jpg</t>
+  </si>
+  <si>
+    <t>WED001</t>
+  </si>
+  <si>
+    <t>WED002</t>
+  </si>
+  <si>
+    <t>Elegant Bridal Bouquet</t>
+  </si>
+  <si>
+    <t>Wedding Table Centerpiece</t>
+  </si>
+  <si>
+    <t>WED-BOUQ01</t>
+  </si>
+  <si>
+    <t>WED-CENT02</t>
+  </si>
+  <si>
+    <t>A handcrafted bridal bouquet featuring fresh roses, lilies, and baby's breath.</t>
+  </si>
+  <si>
+    <t>A stunning floral centerpiece with seasonal blooms and lush greenery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	WED-A01-S01</t>
+  </si>
+  <si>
+    <t>WED-B02-S02</t>
+  </si>
+  <si>
+    <t>wed001.jpg</t>
+  </si>
+  <si>
+    <t>wed002.jpg</t>
+  </si>
+  <si>
+    <t>BP-1003</t>
+  </si>
+  <si>
+    <t>BP-1004</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2177,22 +2250,19 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2642,7 +2712,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B20" s="2">
         <v>18</v>
@@ -2650,7 +2720,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B21" s="2">
         <v>19</v>
@@ -2663,6 +2733,92 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA816B9A-A2BD-448E-99B5-2B148B525D17}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DA318D-8073-4D46-A062-C668992104C1}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2680,35 +2836,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -2717,7 +2873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F571E0E-8389-463F-9299-88D0F2C4674B}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2734,26 +2890,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -2762,11 +2918,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08473418-9C08-4415-9A18-E4B9858BD3EF}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -2790,310 +2946,310 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>463</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>465</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>141</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>470</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="K3" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="K4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>91</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>91</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -3108,7 +3264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0917F802-0E2D-4130-BB01-3BF4DABE74A1}">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -3140,7 +3296,7 @@
         <v>144</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>85</v>
@@ -3164,27 +3320,27 @@
         <v>97</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
@@ -3205,16 +3361,16 @@
         <v>90001</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>3</v>
@@ -3225,10 +3381,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>114</v>
@@ -3249,10 +3405,10 @@
         <v>78701</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>45</v>
@@ -3269,10 +3425,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>121</v>
@@ -3291,16 +3447,16 @@
         <v>75201</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>3</v>
@@ -3311,10 +3467,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>128</v>
@@ -3335,10 +3491,10 @@
         <v>10118</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>45</v>
@@ -3355,10 +3511,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>135</v>
@@ -3379,16 +3535,16 @@
         <v>60606</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>91</v>
@@ -3411,12 +3567,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE96B074-BAA6-41E4-A885-01589CFEB352}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3576,7 +3732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B997F-3DC4-4C7D-9993-70026FD21600}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -3685,7 +3841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570EFCBF-8E1B-4B5B-AD83-ED4683CA7299}">
   <dimension ref="A1:AM2"/>
   <sheetViews>
@@ -3850,15 +4006,15 @@
         <v>233</v>
       </c>
       <c r="AL1" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AM1" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>60</v>
@@ -3867,37 +4023,37 @@
         <v>29</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J2" s="23">
         <v>70</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L2" s="23">
         <v>90</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>3</v>
@@ -3959,7 +4115,7 @@
       </c>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AM2" s="23" t="s">
         <v>91</v>
@@ -3975,8 +4131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4019,7 +4175,7 @@
       <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4036,7 +4192,7 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -4051,7 +4207,7 @@
       <c r="D4" s="11">
         <v>-1</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -4066,7 +4222,7 @@
       <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>82</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -4086,7 +4242,7 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -4101,7 +4257,7 @@
       <c r="D7" s="6">
         <v>-1</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -4116,7 +4272,7 @@
       <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4133,7 +4289,7 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -4148,7 +4304,7 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
@@ -4163,7 +4319,7 @@
       <c r="D11" s="6">
         <v>-1</v>
       </c>
-      <c r="E11" s="31"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -4178,7 +4334,7 @@
       <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4195,7 +4351,7 @@
       <c r="D13" s="11">
         <v>-1</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -4210,7 +4366,7 @@
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="26" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4227,7 +4383,7 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="31"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
@@ -4242,7 +4398,7 @@
       <c r="D16" s="6">
         <v>-1</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -4257,7 +4413,7 @@
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4274,7 +4430,7 @@
       <c r="D18" s="11">
         <v>-1</v>
       </c>
-      <c r="E18" s="28"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -4289,7 +4445,7 @@
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="26" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4306,7 +4462,7 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -4321,7 +4477,7 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
@@ -4336,7 +4492,7 @@
       <c r="D22" s="6">
         <v>-1</v>
       </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -4351,7 +4507,7 @@
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4368,7 +4524,7 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="31"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
@@ -4383,7 +4539,7 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="31"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
@@ -4398,7 +4554,7 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="31"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
@@ -4413,7 +4569,7 @@
       <c r="D27" s="11">
         <v>-1</v>
       </c>
-      <c r="E27" s="28"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -4428,7 +4584,7 @@
       <c r="D28" s="8">
         <v>1</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="26" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4445,7 +4601,7 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="31"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
@@ -4460,7 +4616,7 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="31"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
@@ -4475,7 +4631,7 @@
       <c r="D31" s="6">
         <v>-1</v>
       </c>
-      <c r="E31" s="28"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
@@ -4490,7 +4646,7 @@
       <c r="D32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4507,11 +4663,11 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="31"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
@@ -4522,7 +4678,7 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="31"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
@@ -4537,7 +4693,7 @@
       <c r="D35" s="6">
         <v>-1</v>
       </c>
-      <c r="E35" s="28"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
@@ -4552,7 +4708,7 @@
       <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="26" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4569,7 +4725,7 @@
       <c r="D37" s="11">
         <v>-1</v>
       </c>
-      <c r="E37" s="28"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
@@ -4584,7 +4740,7 @@
       <c r="D38" s="8">
         <v>1</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="26" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4601,7 +4757,7 @@
       <c r="D39" s="11">
         <v>-1</v>
       </c>
-      <c r="E39" s="28"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -4616,13 +4772,13 @@
       <c r="D40" s="8">
         <v>1</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="26" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -4633,7 +4789,7 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="31"/>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
@@ -4648,7 +4804,7 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="31"/>
+      <c r="E42" s="28"/>
     </row>
     <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
@@ -4663,7 +4819,7 @@
       <c r="D43" s="6">
         <v>-1</v>
       </c>
-      <c r="E43" s="28"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
@@ -4678,7 +4834,7 @@
       <c r="D44" s="8">
         <v>1</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="26" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4695,7 +4851,7 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="31"/>
+      <c r="E45" s="28"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
@@ -4710,7 +4866,7 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="31"/>
+      <c r="E46" s="28"/>
     </row>
     <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
@@ -4725,7 +4881,7 @@
       <c r="D47" s="6">
         <v>-1</v>
       </c>
-      <c r="E47" s="28"/>
+      <c r="E47" s="27"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -4740,7 +4896,7 @@
       <c r="D48" s="8">
         <v>1</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="26" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4757,7 +4913,7 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="31"/>
+      <c r="E49" s="28"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -4772,7 +4928,7 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="31"/>
+      <c r="E50" s="28"/>
     </row>
     <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
@@ -4787,7 +4943,7 @@
       <c r="D51" s="6">
         <v>-1</v>
       </c>
-      <c r="E51" s="28"/>
+      <c r="E51" s="27"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
@@ -4802,7 +4958,7 @@
       <c r="D52" s="8">
         <v>1</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="26" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4819,7 +4975,7 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="31"/>
+      <c r="E53" s="28"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
@@ -4834,7 +4990,7 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="31"/>
+      <c r="E54" s="28"/>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
@@ -4849,11 +5005,11 @@
       <c r="D55" s="6">
         <v>-1</v>
       </c>
-      <c r="E55" s="31"/>
+      <c r="E55" s="28"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B56" s="8">
         <v>0</v>
@@ -4865,12 +5021,12 @@
         <v>1</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B57" s="6">
         <v>1</v>
@@ -4885,7 +5041,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B58" s="8">
         <v>0</v>
@@ -4896,13 +5052,13 @@
       <c r="D58" s="8">
         <v>1</v>
       </c>
-      <c r="E58" s="27" t="s">
-        <v>559</v>
+      <c r="E58" s="26" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B59" s="2">
         <v>1</v>
@@ -4913,11 +5069,11 @@
       <c r="D59" s="2">
         <v>0</v>
       </c>
-      <c r="E59" s="31"/>
+      <c r="E59" s="28"/>
     </row>
     <row r="60" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B60" s="11">
         <v>2</v>
@@ -4928,10 +5084,18 @@
       <c r="D60" s="11">
         <v>-1</v>
       </c>
-      <c r="E60" s="28"/>
+      <c r="E60" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="E40:E43"/>
@@ -4940,16 +5104,8 @@
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="E52:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4960,8 +5116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B8A7D-056B-43CF-B8CF-47A9850E51E0}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5050,7 +5206,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>91</v>
       </c>
@@ -5083,7 +5239,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>91</v>
@@ -5143,7 +5299,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>3</v>
@@ -5164,7 +5320,7 @@
         <v>104</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="T3" s="15" t="s">
         <v>112</v>
@@ -5203,7 +5359,7 @@
         <v>140</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>91</v>
@@ -5259,7 +5415,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>3</v>
@@ -5319,7 +5475,7 @@
         <v>140</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>91</v>
@@ -5379,7 +5535,7 @@
         <v>25</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
@@ -5422,20 +5578,1276 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76421E-550A-4F58-ABC5-0AC68C5F2DE6}">
-  <dimension ref="A1:AN15"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="79.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.77734375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.77734375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="21.77734375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.109375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12" style="1" customWidth="1"/>
+    <col min="36" max="36" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.5546875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="8.88671875" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="T2" s="2">
+        <v>34.99</v>
+      </c>
+      <c r="U2" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="V2" s="2">
+        <v>25.99</v>
+      </c>
+      <c r="W2" s="2">
+        <v>15</v>
+      </c>
+      <c r="X2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="T3" s="2">
+        <v>44.99</v>
+      </c>
+      <c r="U3" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="V3" s="2">
+        <v>35.99</v>
+      </c>
+      <c r="W3" s="2">
+        <v>20</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="19">
+        <v>5.99</v>
+      </c>
+      <c r="T4" s="19">
+        <v>7.99</v>
+      </c>
+      <c r="U4" s="19">
+        <v>9.99</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="W4" s="19">
+        <v>5.99</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="19">
+        <v>100</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF4" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="AI4" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="19">
+        <v>15.99</v>
+      </c>
+      <c r="T5" s="19">
+        <v>20.99</v>
+      </c>
+      <c r="U5" s="19">
+        <v>25.99</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="W5" s="19">
+        <v>15.99</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z5" s="19">
+        <v>75</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH5" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="AI5" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="S6" s="19">
+        <v>39.99</v>
+      </c>
+      <c r="T6" s="19">
+        <v>49.99</v>
+      </c>
+      <c r="U6" s="19">
+        <v>59.99</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="W6" s="19">
+        <v>39.99</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z6" s="19">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB6" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH6" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="AI6" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="19">
+        <v>25.99</v>
+      </c>
+      <c r="T7" s="19">
+        <v>35.99</v>
+      </c>
+      <c r="U7" s="19">
+        <v>45.99</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="W7" s="19">
+        <v>25.99</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z7" s="19">
+        <v>60</v>
+      </c>
+      <c r="AA7" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB7" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF7" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH7" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="AI7" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="19">
+        <v>4.99</v>
+      </c>
+      <c r="T8" s="19">
+        <v>6.99</v>
+      </c>
+      <c r="U8" s="19">
+        <v>8.99</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="W8" s="19">
+        <v>4.99</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>200</v>
+      </c>
+      <c r="AA8" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB8" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC8" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="2">
+        <v>99.99</v>
+      </c>
+      <c r="T9" s="2">
+        <v>129.99</v>
+      </c>
+      <c r="U9" s="2">
+        <v>159.99</v>
+      </c>
+      <c r="V9" s="2">
+        <v>89.99</v>
+      </c>
+      <c r="W9" s="2">
+        <v>50</v>
+      </c>
+      <c r="X9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>50</v>
+      </c>
+      <c r="AA9" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB9" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="2">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="T10" s="2">
+        <v>99.99</v>
+      </c>
+      <c r="U10" s="2">
+        <v>119.99</v>
+      </c>
+      <c r="V10" s="2">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="W10" s="2">
+        <v>40</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB10" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="23">
+        <v>90</v>
+      </c>
+      <c r="T11" s="23">
+        <v>120</v>
+      </c>
+      <c r="U11" s="23">
+        <v>150</v>
+      </c>
+      <c r="V11" s="23">
+        <v>20</v>
+      </c>
+      <c r="W11" s="23">
+        <v>90</v>
+      </c>
+      <c r="X11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="23">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK11" s="23"/>
+      <c r="AL11" s="23" t="s">
+        <v>572</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB6C220-98DB-4070-A1DE-74811C615533}">
+  <dimension ref="A1:AL9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -5468,13 +6880,11 @@
     <col min="36" max="36" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12.21875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="12.6640625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.5546875" style="1" customWidth="1"/>
-    <col min="41" max="41" width="8.88671875" style="1" customWidth="1"/>
-    <col min="42" max="16384" width="8.88671875" style="1"/>
+    <col min="39" max="39" width="8.88671875" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>200</v>
       </c>
@@ -5587,16 +6997,10 @@
         <v>233</v>
       </c>
       <c r="AL1" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>568</v>
-      </c>
-      <c r="AN1" s="26" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>234</v>
       </c>
@@ -5610,34 +7014,34 @@
         <v>248</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>57</v>
+        <v>583</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>3</v>
@@ -5659,7 +7063,7 @@
         <v>20</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="W2" s="19">
         <v>10</v>
@@ -5674,10 +7078,10 @@
         <v>20</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB2" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AC2" s="19" t="s">
         <v>3</v>
@@ -5699,14 +7103,10 @@
       </c>
       <c r="AK2" s="15"/>
       <c r="AL2" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="AM2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN2" s="2"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>235</v>
       </c>
@@ -5720,34 +7120,34 @@
         <v>249</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>57</v>
+        <v>583</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O3" s="19" t="s">
         <v>3</v>
@@ -5769,7 +7169,7 @@
         <v>30</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="W3" s="19">
         <v>20</v>
@@ -5784,10 +7184,10 @@
         <v>20</v>
       </c>
       <c r="AA3" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB3" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AC3" s="19" t="s">
         <v>3</v>
@@ -5809,14 +7209,10 @@
       </c>
       <c r="AK3" s="15"/>
       <c r="AL3" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="AM3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN3" s="2"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>236</v>
       </c>
@@ -5830,34 +7226,34 @@
         <v>250</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>57</v>
+        <v>583</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O4" s="15" t="s">
         <v>91</v>
@@ -5879,7 +7275,7 @@
         <v>15</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="W4" s="19">
         <v>5</v>
@@ -5894,10 +7290,10 @@
         <v>50</v>
       </c>
       <c r="AA4" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB4" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AC4" s="15" t="s">
         <v>91</v>
@@ -5909,30 +7305,26 @@
         <v>91</v>
       </c>
       <c r="AF4" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AG4" s="15" t="s">
         <v>91</v>
       </c>
       <c r="AH4" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AI4" s="22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AJ4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK4" s="15"/>
       <c r="AL4" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="AM4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN4" s="2"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>237</v>
       </c>
@@ -5949,31 +7341,31 @@
         <v>57</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>91</v>
@@ -5995,7 +7387,7 @@
         <v>49.99</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="W5" s="19">
         <v>29.99</v>
@@ -6010,10 +7402,10 @@
         <v>50</v>
       </c>
       <c r="AA5" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB5" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AC5" s="15" t="s">
         <v>91</v>
@@ -6025,30 +7417,26 @@
         <v>91</v>
       </c>
       <c r="AF5" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AG5" s="15" t="s">
         <v>91</v>
       </c>
       <c r="AH5" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AI5" s="22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AJ5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK5" s="15"/>
       <c r="AL5" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="AM5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN5" s="2"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>238</v>
       </c>
@@ -6065,40 +7453,40 @@
         <v>56</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J6" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="15" t="s">
         <v>311</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>313</v>
       </c>
       <c r="R6" s="15" t="s">
         <v>91</v>
@@ -6113,7 +7501,7 @@
         <v>29.99</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="W6" s="19">
         <v>19.989999999999998</v>
@@ -6128,10 +7516,10 @@
         <v>20</v>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB6" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AC6" s="19" t="s">
         <v>3</v>
@@ -6153,30 +7541,26 @@
       </c>
       <c r="AK6" s="15"/>
       <c r="AL6" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="AM6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN6" s="2"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="F7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>267</v>
       </c>
       <c r="G7" s="15" t="s">
@@ -6186,84 +7570,80 @@
         <v>299</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>279</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>3</v>
+        <v>285</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="15"/>
-      <c r="R7" s="19" t="s">
-        <v>3</v>
+      <c r="R7" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="S7" s="19">
-        <v>5.99</v>
+        <v>49.99</v>
       </c>
       <c r="T7" s="19">
-        <v>7.99</v>
+        <v>59.99</v>
       </c>
       <c r="U7" s="19">
-        <v>9.99</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="W7" s="19">
-        <v>5.99</v>
-      </c>
-      <c r="X7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y7" s="19" t="s">
-        <v>3</v>
+        <v>49.99</v>
+      </c>
+      <c r="X7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="Z7" s="19">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AA7" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB7" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD7" s="15" t="s">
-        <v>91</v>
+        <v>304</v>
+      </c>
+      <c r="AC7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="AE7" s="15" t="s">
         <v>91</v>
       </c>
       <c r="AF7" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="AG7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH7" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="AI7" s="22" t="s">
-        <v>330</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="AG7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
       <c r="AJ7" s="15" t="s">
         <v>3</v>
       </c>
@@ -6271,26 +7651,22 @@
       <c r="AL7" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="AM7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN7" s="2"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>268</v>
@@ -6302,62 +7678,64 @@
         <v>300</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>280</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>91</v>
+        <v>285</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="15"/>
+        <v>91</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>312</v>
+      </c>
       <c r="R8" s="19" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="19">
-        <v>15.99</v>
+        <v>3.99</v>
       </c>
       <c r="T8" s="19">
-        <v>20.99</v>
+        <v>4.99</v>
       </c>
       <c r="U8" s="19">
-        <v>25.99</v>
+        <v>5.99</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="W8" s="19">
-        <v>15.99</v>
+        <v>3.99</v>
       </c>
       <c r="X8" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="Y8" s="15" t="s">
-        <v>91</v>
+      <c r="Y8" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="Z8" s="19">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AA8" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB8" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AC8" s="15" t="s">
         <v>91</v>
@@ -6373,10 +7751,10 @@
         <v>91</v>
       </c>
       <c r="AH8" s="22" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="AI8" s="22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AJ8" s="15" t="s">
         <v>3</v>
@@ -6385,14 +7763,10 @@
       <c r="AL8" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="AM8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN8" s="2"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>57</v>
@@ -6401,13 +7775,13 @@
         <v>29</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>55</v>
@@ -6416,25 +7790,25 @@
         <v>301</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>91</v>
+        <v>285</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="P9" s="15" t="s">
         <v>3</v>
@@ -6444,756 +7818,71 @@
         <v>91</v>
       </c>
       <c r="S9" s="19">
+        <v>29.99</v>
+      </c>
+      <c r="T9" s="19">
+        <v>39.99</v>
+      </c>
+      <c r="U9" s="19">
         <v>49.99</v>
       </c>
-      <c r="T9" s="19">
-        <v>59.99</v>
-      </c>
-      <c r="U9" s="19">
-        <v>69.989999999999995</v>
-      </c>
       <c r="V9" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="W9" s="19">
+        <v>29.99</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="19">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB9" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF9" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH9" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="W9" s="19">
-        <v>49.99</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z9" s="19">
-        <v>10</v>
-      </c>
-      <c r="AA9" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB9" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF9" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
+      <c r="AI9" s="22" t="s">
+        <v>328</v>
+      </c>
       <c r="AJ9" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK9" s="15"/>
       <c r="AL9" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="AM9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN9" s="2"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" s="19">
-        <v>3.99</v>
-      </c>
-      <c r="T10" s="19">
-        <v>4.99</v>
-      </c>
-      <c r="U10" s="19">
-        <v>5.99</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="W10" s="19">
-        <v>3.99</v>
-      </c>
-      <c r="X10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="19">
-        <v>150</v>
-      </c>
-      <c r="AA10" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB10" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH10" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="AI10" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="AJ10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="AM10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN10" s="2"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="S11" s="19">
-        <v>39.99</v>
-      </c>
-      <c r="T11" s="19">
-        <v>49.99</v>
-      </c>
-      <c r="U11" s="19">
-        <v>59.99</v>
-      </c>
-      <c r="V11" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="W11" s="19">
-        <v>39.99</v>
-      </c>
-      <c r="X11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z11" s="19">
-        <v>30</v>
-      </c>
-      <c r="AA11" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB11" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH11" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="AI11" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="AJ11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="AM11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN11" s="2"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" s="19">
-        <v>25.99</v>
-      </c>
-      <c r="T12" s="19">
-        <v>35.99</v>
-      </c>
-      <c r="U12" s="19">
-        <v>45.99</v>
-      </c>
-      <c r="V12" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="W12" s="19">
-        <v>25.99</v>
-      </c>
-      <c r="X12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z12" s="19">
-        <v>60</v>
-      </c>
-      <c r="AA12" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB12" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF12" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="AG12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH12" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="AI12" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="AJ12" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="AM12" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN12" s="2"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="S13" s="19">
-        <v>29.99</v>
-      </c>
-      <c r="T13" s="19">
-        <v>39.99</v>
-      </c>
-      <c r="U13" s="19">
-        <v>49.99</v>
-      </c>
-      <c r="V13" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="W13" s="19">
-        <v>29.99</v>
-      </c>
-      <c r="X13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="19">
-        <v>40</v>
-      </c>
-      <c r="AA13" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB13" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD13" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE13" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF13" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="AG13" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH13" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="AI13" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="AJ13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="AM13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN13" s="2"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="19">
-        <v>4.99</v>
-      </c>
-      <c r="T14" s="19">
-        <v>6.99</v>
-      </c>
-      <c r="U14" s="19">
-        <v>8.99</v>
-      </c>
-      <c r="V14" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="W14" s="19">
-        <v>4.99</v>
-      </c>
-      <c r="X14" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="19">
-        <v>200</v>
-      </c>
-      <c r="AA14" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB14" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC14" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="AM14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN14" s="2"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
-        <v>569</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>570</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>573</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="23">
-        <v>90</v>
-      </c>
-      <c r="T15" s="23">
-        <v>120</v>
-      </c>
-      <c r="U15" s="23">
-        <v>150</v>
-      </c>
-      <c r="V15" s="23">
-        <v>20</v>
-      </c>
-      <c r="W15" s="23">
-        <v>90</v>
-      </c>
-      <c r="X15" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="23">
-        <v>10</v>
-      </c>
-      <c r="AA15" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK15" s="23"/>
-      <c r="AL15" s="23" t="s">
-        <v>574</v>
-      </c>
-      <c r="AM15" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN15" s="2">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F147CD6B-CA39-477C-82FD-5D86870A8EFB}">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -7208,7 +7897,7 @@
     <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="17" customWidth="1"/>
     <col min="7" max="7" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -7221,7 +7910,7 @@
         <v>126</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>141</v>
@@ -7230,7 +7919,7 @@
         <v>231</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>209</v>
@@ -7238,10 +7927,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C2" s="19">
         <v>30</v>
@@ -7250,21 +7939,21 @@
         <v>29</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -7273,44 +7962,44 @@
         <v>29</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C4" s="19">
         <v>20</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>347</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>349</v>
       </c>
       <c r="C5" s="19">
         <v>5</v>
@@ -7319,21 +8008,21 @@
         <v>29</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C6" s="19">
         <v>50</v>
@@ -7342,21 +8031,21 @@
         <v>29</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C7" s="19">
         <v>10</v>
@@ -7365,21 +8054,21 @@
         <v>29</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C8" s="19">
         <v>100</v>
@@ -7388,21 +8077,21 @@
         <v>29</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C9" s="19">
         <v>100</v>
@@ -7411,13 +8100,13 @@
         <v>29</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -7427,7 +8116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6C325F-4A76-431C-998A-38D75363C07E}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -7452,22 +8141,22 @@
         <v>126</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>338</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>141</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -7481,7 +8170,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>29</v>
@@ -7499,10 +8188,10 @@
         <v>1002</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>29</v>
@@ -7525,7 +8214,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>62</v>
@@ -7539,16 +8228,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B5" s="19">
         <v>1004</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>29</v>
@@ -7560,7 +8249,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B6" s="19">
         <v>1005</v>
@@ -7569,7 +8258,7 @@
         <v>53</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>29</v>
@@ -7581,16 +8270,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B7" s="19">
         <v>1006</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>32</v>
@@ -7606,7 +8295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C7655F-AC18-4255-9C9F-28DEDD520460}">
   <dimension ref="A1:W9"/>
   <sheetViews>
@@ -7644,10 +8333,10 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>85</v>
@@ -7668,7 +8357,7 @@
         <v>90</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>97</v>
@@ -7677,48 +8366,48 @@
         <v>96</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>141</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O1" s="13" t="s">
         <v>202</v>
       </c>
       <c r="P1" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>377</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
@@ -7739,22 +8428,22 @@
         <v>90001</v>
       </c>
       <c r="I2" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>384</v>
-      </c>
       <c r="K2" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>383</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>385</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>45</v>
@@ -7763,33 +8452,33 @@
         <v>91</v>
       </c>
       <c r="Q2" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>388</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>390</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>127</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="W2" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>114</v>
@@ -7810,22 +8499,22 @@
         <v>78701</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>46</v>
@@ -7834,33 +8523,33 @@
         <v>3</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R3" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="T3" s="15" t="s">
         <v>388</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>390</v>
       </c>
       <c r="U3" s="15" t="s">
         <v>127</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="W3" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>121</v>
@@ -7879,22 +8568,22 @@
         <v>75201</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>62</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="O4" s="15" t="s">
         <v>44</v>
@@ -7903,33 +8592,33 @@
         <v>91</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="R4" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="T4" s="15" t="s">
         <v>388</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>390</v>
       </c>
       <c r="U4" s="15" t="s">
         <v>127</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="W4" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>128</v>
@@ -7950,22 +8639,22 @@
         <v>10118</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>48</v>
@@ -7974,33 +8663,33 @@
         <v>91</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="R5" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="T5" s="15" t="s">
         <v>388</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>390</v>
       </c>
       <c r="U5" s="15" t="s">
         <v>127</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="W5" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>135</v>
@@ -8021,22 +8710,22 @@
         <v>60606</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>48</v>
@@ -8045,25 +8734,25 @@
         <v>91</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="R6" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="T6" s="15" t="s">
         <v>388</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>390</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>127</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="W6" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -8105,7 +8794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3846B3E9-78EC-4A21-B7B1-295C9A6CBED2}">
   <dimension ref="A1:V5"/>
   <sheetViews>
@@ -8138,7 +8827,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>209</v>
@@ -8147,81 +8836,81 @@
         <v>126</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>435</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G2" s="2">
         <v>23.7044</v>
@@ -8275,13 +8964,13 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -8343,90 +9032,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA816B9A-A2BD-448E-99B5-2B148B525D17}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -1,35 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Files\MAS_FloraFire\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462E904D-2A9E-41A6-BF5E-571F3460F420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334D584D-1DC1-4042-8201-261CEB2350C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="803" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
     <sheet name="ValueList" sheetId="1" r:id="rId2"/>
     <sheet name="Customer" sheetId="4" r:id="rId3"/>
     <sheet name="Product" sheetId="8" r:id="rId4"/>
-    <sheet name="Import" sheetId="23" r:id="rId5"/>
-    <sheet name="Discount" sheetId="11" r:id="rId6"/>
-    <sheet name="GiftCard" sheetId="10" r:id="rId7"/>
-    <sheet name="Employee" sheetId="12" r:id="rId8"/>
-    <sheet name="Zone" sheetId="13" r:id="rId9"/>
-    <sheet name="Slot" sheetId="15" r:id="rId10"/>
-    <sheet name="Mode" sheetId="17" r:id="rId11"/>
-    <sheet name="Calendar" sheetId="21" r:id="rId12"/>
-    <sheet name="Code" sheetId="16" r:id="rId13"/>
-    <sheet name="ShortCode" sheetId="19" r:id="rId14"/>
-    <sheet name="Vehicle" sheetId="7" r:id="rId15"/>
-    <sheet name="ShortCuts" sheetId="6" r:id="rId16"/>
-    <sheet name="Test" sheetId="22" r:id="rId17"/>
+    <sheet name="Discount" sheetId="11" r:id="rId5"/>
+    <sheet name="GiftCard" sheetId="10" r:id="rId6"/>
+    <sheet name="Employee" sheetId="12" r:id="rId7"/>
+    <sheet name="Zone" sheetId="13" r:id="rId8"/>
+    <sheet name="Slot" sheetId="15" r:id="rId9"/>
+    <sheet name="Mode" sheetId="17" r:id="rId10"/>
+    <sheet name="Calendar" sheetId="21" r:id="rId11"/>
+    <sheet name="Code" sheetId="16" r:id="rId12"/>
+    <sheet name="ShortCode" sheetId="19" r:id="rId13"/>
+    <sheet name="Vehicle" sheetId="7" r:id="rId14"/>
+    <sheet name="ShortCuts" sheetId="6" r:id="rId15"/>
+    <sheet name="Test" sheetId="22" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="553">
   <si>
     <t>Name</t>
   </si>
@@ -745,195 +744,72 @@
     <t>URL</t>
   </si>
   <si>
-    <t>HC</t>
-  </si>
-  <si>
-    <t>DL</t>
-  </si>
-  <si>
-    <t>TL</t>
-  </si>
-  <si>
-    <t>F001</t>
-  </si>
-  <si>
-    <t>F002</t>
-  </si>
-  <si>
     <t>F003</t>
   </si>
   <si>
     <t>F004</t>
   </si>
   <si>
-    <t>F005</t>
-  </si>
-  <si>
-    <t>F006</t>
-  </si>
-  <si>
     <t>F007</t>
   </si>
   <si>
     <t>F008</t>
   </si>
   <si>
-    <t>F009</t>
-  </si>
-  <si>
     <t>F010</t>
   </si>
   <si>
-    <t>Discontinued</t>
-  </si>
-  <si>
-    <t>HC-01</t>
-  </si>
-  <si>
-    <t>DL-01</t>
-  </si>
-  <si>
-    <t>TL-01</t>
-  </si>
-  <si>
-    <t>BQ-1001</t>
-  </si>
-  <si>
-    <t>ARR-2001</t>
-  </si>
-  <si>
     <t>ST-3001</t>
   </si>
   <si>
     <t>BQ-1002</t>
   </si>
   <si>
-    <t>ARR-2002</t>
-  </si>
-  <si>
-    <t>ST-3002</t>
-  </si>
-  <si>
-    <t>ARR-2003</t>
-  </si>
-  <si>
     <t>ST-3003</t>
   </si>
   <si>
     <t>Stems</t>
   </si>
   <si>
-    <t>Hyacinths Flower</t>
-  </si>
-  <si>
-    <t>Daffodils</t>
-  </si>
-  <si>
-    <t>Tulip</t>
-  </si>
-  <si>
-    <t>Rose Delight</t>
-  </si>
-  <si>
-    <t>Sunflower Bliss</t>
-  </si>
-  <si>
     <t>Pink Lily</t>
   </si>
   <si>
     <t>Daisy Charm</t>
   </si>
   <si>
-    <t>Orchid Elegance</t>
-  </si>
-  <si>
-    <t>Red Tulip</t>
-  </si>
-  <si>
     <t>Peony Paradise</t>
   </si>
   <si>
     <t>Spring Melody</t>
   </si>
   <si>
-    <t>Autumn Harvest</t>
-  </si>
-  <si>
     <t>White Rose</t>
   </si>
   <si>
-    <t>Daffodils Flower</t>
-  </si>
-  <si>
-    <t>Tulip Flower</t>
-  </si>
-  <si>
-    <t>A classic bouquet of red roses</t>
-  </si>
-  <si>
-    <t>Bright sunflower arrangement</t>
-  </si>
-  <si>
     <t>Elegant pink lily stem</t>
   </si>
   <si>
     <t>Mixed daisy bouquet</t>
   </si>
   <si>
-    <t>Stunning orchid arrangement</t>
-  </si>
-  <si>
-    <t>Vibrant red tulip stem</t>
-  </si>
-  <si>
     <t>Lush pink peonies bouquet</t>
   </si>
   <si>
     <t>Fresh mix of spring flowers</t>
   </si>
   <si>
-    <t>Warm arrangement of fall colors</t>
-  </si>
-  <si>
     <t>Elegant single white rose stem</t>
   </si>
   <si>
     <t>Flower</t>
   </si>
   <si>
-    <t>34.99</t>
-  </si>
-  <si>
     <t>6.99</t>
   </si>
   <si>
-    <t>54.99</t>
-  </si>
-  <si>
     <t>30.99</t>
   </si>
   <si>
-    <t>12/01/2024</t>
-  </si>
-  <si>
-    <t>01/01/2025</t>
-  </si>
-  <si>
-    <t>FLR-A01-S01</t>
-  </si>
-  <si>
-    <t>FLR-A01-S02</t>
-  </si>
-  <si>
-    <t>FLR-A02-S01</t>
-  </si>
-  <si>
-    <t>FLR-B01-S01</t>
-  </si>
-  <si>
-    <t>FLR-B02-S02</t>
-  </si>
-  <si>
     <t>FLR-C01-S03</t>
   </si>
   <si>
@@ -958,87 +834,42 @@
     <t>0</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>Bloomnet</t>
-  </si>
-  <si>
-    <t>FTD</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>hc.png</t>
-  </si>
-  <si>
-    <t>dl.png</t>
-  </si>
-  <si>
-    <t>tl.png</t>
-  </si>
-  <si>
-    <t>f001.png</t>
-  </si>
-  <si>
-    <t>f002.png</t>
-  </si>
-  <si>
     <t>f003.png</t>
   </si>
   <si>
     <t>f004.png</t>
   </si>
   <si>
-    <t>f005.png</t>
-  </si>
-  <si>
-    <t>f006.png</t>
-  </si>
-  <si>
     <t>f007.png</t>
   </si>
   <si>
     <t>f008.png</t>
   </si>
   <si>
-    <t>f009.png</t>
-  </si>
-  <si>
     <t>f010.png</t>
   </si>
   <si>
     <t>31/12/2025</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
-    <t>75</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
@@ -1744,9 +1575,6 @@
     <t>Recipe</t>
   </si>
   <si>
-    <t>BQ001</t>
-  </si>
-  <si>
     <t>BQ-1005</t>
   </si>
   <si>
@@ -1790,9 +1618,6 @@
   </si>
   <si>
     <t>Corporate Gift</t>
-  </si>
-  <si>
-    <t>Loose Flowers</t>
   </si>
   <si>
     <t>Roses</t>
@@ -2173,7 +1998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2247,22 +2072,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2552,13 +2374,13 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2566,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2574,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2582,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2590,7 +2412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2598,7 +2420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2606,7 +2428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -2614,7 +2436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2622,7 +2444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -2630,7 +2452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -2638,7 +2460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -2646,7 +2468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -2654,7 +2476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2662,7 +2484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2670,7 +2492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -2678,7 +2500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -2686,7 +2508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -2694,7 +2516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -2702,7 +2524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>65</v>
       </c>
@@ -2710,17 +2532,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="B20" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>557</v>
+        <v>501</v>
       </c>
       <c r="B21" s="2">
         <v>19</v>
@@ -2733,92 +2555,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA816B9A-A2BD-448E-99B5-2B148B525D17}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>453</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DA318D-8073-4D46-A062-C668992104C1}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2826,45 +2562,90 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>447</v>
+        <v>391</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>455</v>
+        <v>399</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>447</v>
+        <v>391</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>448</v>
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F571E0E-8389-463F-9299-88D0F2C4674B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -2874,382 +2655,337 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F571E0E-8389-463F-9299-88D0F2C4674B}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08473418-9C08-4415-9A18-E4B9858BD3EF}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="23.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="31.21875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="23.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>460</v>
+        <v>404</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>461</v>
+        <v>405</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>462</v>
+        <v>406</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>463</v>
+        <v>407</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>141</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>473</v>
+        <v>417</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>477</v>
+        <v>421</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>478</v>
+        <v>422</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>479</v>
+        <v>423</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>481</v>
+        <v>425</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>505</v>
+        <v>449</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>531</v>
+        <v>475</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>91</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>509</v>
+        <v>453</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>520</v>
+        <v>464</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>482</v>
+        <v>426</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>506</v>
+        <v>450</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>532</v>
+        <v>476</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>513</v>
+        <v>457</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>483</v>
+        <v>427</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>492</v>
+        <v>436</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>502</v>
+        <v>446</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>508</v>
+        <v>452</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>533</v>
+        <v>477</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>517</v>
+        <v>461</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>91</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>522</v>
+        <v>466</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>484</v>
+        <v>428</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>498</v>
+        <v>442</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>503</v>
+        <v>447</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>510</v>
+        <v>454</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>534</v>
+        <v>478</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>518</v>
+        <v>462</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>523</v>
+        <v>467</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>485</v>
+        <v>429</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>499</v>
+        <v>443</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>512</v>
+        <v>456</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>533</v>
+        <v>477</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>519</v>
+        <v>463</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>516</v>
+        <v>460</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>524</v>
+        <v>468</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>91</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>529</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -3264,7 +3000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0917F802-0E2D-4130-BB01-3BF4DABE74A1}">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -3272,31 +3008,31 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>535</v>
+        <v>479</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>85</v>
@@ -3320,27 +3056,27 @@
         <v>97</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>539</v>
+        <v>483</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>536</v>
+        <v>480</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>537</v>
+        <v>481</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
@@ -3361,16 +3097,16 @@
         <v>90001</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>549</v>
+        <v>493</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>550</v>
+        <v>494</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>436</v>
+        <v>380</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>3</v>
@@ -3379,12 +3115,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>114</v>
@@ -3405,10 +3141,10 @@
         <v>78701</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>548</v>
+        <v>492</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>551</v>
+        <v>495</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>45</v>
@@ -3423,12 +3159,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>121</v>
@@ -3447,16 +3183,16 @@
         <v>75201</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>547</v>
+        <v>491</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>552</v>
+        <v>496</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>436</v>
+        <v>380</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>3</v>
@@ -3465,12 +3201,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>128</v>
@@ -3491,10 +3227,10 @@
         <v>10118</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>546</v>
+        <v>490</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>45</v>
@@ -3509,12 +3245,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>544</v>
+        <v>488</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>135</v>
@@ -3535,16 +3271,16 @@
         <v>60606</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>545</v>
+        <v>489</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>554</v>
+        <v>498</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>436</v>
+        <v>380</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>91</v>
@@ -3567,7 +3303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE96B074-BAA6-41E4-A885-01589CFEB352}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -3575,18 +3311,18 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="17.88671875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="17.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>166</v>
       </c>
@@ -3606,7 +3342,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>171</v>
       </c>
@@ -3626,7 +3362,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
@@ -3646,7 +3382,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>173</v>
       </c>
@@ -3666,7 +3402,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>174</v>
       </c>
@@ -3686,7 +3422,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>175</v>
       </c>
@@ -3706,7 +3442,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>176</v>
       </c>
@@ -3724,6 +3460,115 @@
       </c>
       <c r="F7" s="15" t="s">
         <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B997F-3DC4-4C7D-9993-70026FD21600}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3733,115 +3578,6 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B997F-3DC4-4C7D-9993-70026FD21600}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570EFCBF-8E1B-4B5B-AD83-ED4683CA7299}">
   <dimension ref="A1:AM2"/>
   <sheetViews>
@@ -3849,51 +3585,50 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.77734375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.77734375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="21.77734375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="12.109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="21.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.140625" style="1" customWidth="1"/>
     <col min="35" max="35" width="12" style="1" customWidth="1"/>
-    <col min="36" max="36" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.21875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="12.6640625" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="1"/>
+    <col min="36" max="36" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.28515625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.7109375" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>200</v>
       </c>
@@ -4006,15 +3741,15 @@
         <v>233</v>
       </c>
       <c r="AL1" s="13" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="AM1" s="13" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>60</v>
@@ -4023,37 +3758,37 @@
         <v>29</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>568</v>
+        <v>511</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>569</v>
+        <v>512</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>570</v>
+        <v>513</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="J2" s="23">
         <v>70</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="L2" s="23">
         <v>90</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>571</v>
+        <v>514</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>3</v>
@@ -4115,7 +3850,7 @@
       </c>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23" t="s">
-        <v>572</v>
+        <v>515</v>
       </c>
       <c r="AM2" s="23" t="s">
         <v>91</v>
@@ -4135,17 +3870,17 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="33.44140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="33.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4162,7 +3897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
@@ -4175,11 +3910,11 @@
       <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
@@ -4194,7 +3929,7 @@
       </c>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
@@ -4207,9 +3942,9 @@
       <c r="D4" s="11">
         <v>-1</v>
       </c>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
@@ -4222,14 +3957,14 @@
       <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="27" t="s">
         <v>82</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
@@ -4244,7 +3979,7 @@
       </c>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -4257,9 +3992,9 @@
       <c r="D7" s="6">
         <v>-1</v>
       </c>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -4272,11 +4007,11 @@
       <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
@@ -4291,7 +4026,7 @@
       </c>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
@@ -4306,7 +4041,7 @@
       </c>
       <c r="E10" s="28"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>32</v>
       </c>
@@ -4321,7 +4056,7 @@
       </c>
       <c r="E11" s="28"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -4334,11 +4069,11 @@
       <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>34</v>
       </c>
@@ -4351,9 +4086,9 @@
       <c r="D13" s="11">
         <v>-1</v>
       </c>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -4366,11 +4101,11 @@
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
@@ -4385,7 +4120,7 @@
       </c>
       <c r="E15" s="28"/>
     </row>
-    <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -4398,9 +4133,9 @@
       <c r="D16" s="6">
         <v>-1</v>
       </c>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -4413,11 +4148,11 @@
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
@@ -4430,9 +4165,9 @@
       <c r="D18" s="11">
         <v>-1</v>
       </c>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="29"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -4445,11 +4180,11 @@
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>41</v>
       </c>
@@ -4464,7 +4199,7 @@
       </c>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
@@ -4479,7 +4214,7 @@
       </c>
       <c r="E21" s="28"/>
     </row>
-    <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
@@ -4492,9 +4227,9 @@
       <c r="D22" s="6">
         <v>-1</v>
       </c>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="29"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
@@ -4507,11 +4242,11 @@
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>45</v>
       </c>
@@ -4526,7 +4261,7 @@
       </c>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
@@ -4541,7 +4276,7 @@
       </c>
       <c r="E25" s="28"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -4556,7 +4291,7 @@
       </c>
       <c r="E26" s="28"/>
     </row>
-    <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>48</v>
       </c>
@@ -4569,9 +4304,9 @@
       <c r="D27" s="11">
         <v>-1</v>
       </c>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
@@ -4584,11 +4319,11 @@
       <c r="D28" s="8">
         <v>1</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
@@ -4603,7 +4338,7 @@
       </c>
       <c r="E29" s="28"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>31</v>
       </c>
@@ -4618,7 +4353,7 @@
       </c>
       <c r="E30" s="28"/>
     </row>
-    <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>32</v>
       </c>
@@ -4631,9 +4366,9 @@
       <c r="D31" s="6">
         <v>-1</v>
       </c>
-      <c r="E31" s="27"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>49</v>
       </c>
@@ -4646,11 +4381,11 @@
       <c r="D32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>50</v>
       </c>
@@ -4665,9 +4400,9 @@
       </c>
       <c r="E33" s="28"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
@@ -4680,7 +4415,7 @@
       </c>
       <c r="E34" s="28"/>
     </row>
-    <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>51</v>
       </c>
@@ -4693,9 +4428,9 @@
       <c r="D35" s="6">
         <v>-1</v>
       </c>
-      <c r="E35" s="27"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="29"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>52</v>
       </c>
@@ -4708,11 +4443,11 @@
       <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>53</v>
       </c>
@@ -4725,9 +4460,9 @@
       <c r="D37" s="11">
         <v>-1</v>
       </c>
-      <c r="E37" s="27"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="29"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>54</v>
       </c>
@@ -4740,11 +4475,11 @@
       <c r="D38" s="8">
         <v>1</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>55</v>
       </c>
@@ -4757,9 +4492,9 @@
       <c r="D39" s="11">
         <v>-1</v>
       </c>
-      <c r="E39" s="27"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="29"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>56</v>
       </c>
@@ -4772,13 +4507,13 @@
       <c r="D40" s="8">
         <v>1</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -4791,7 +4526,7 @@
       </c>
       <c r="E41" s="28"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>57</v>
       </c>
@@ -4806,7 +4541,7 @@
       </c>
       <c r="E42" s="28"/>
     </row>
-    <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>58</v>
       </c>
@@ -4819,9 +4554,9 @@
       <c r="D43" s="6">
         <v>-1</v>
       </c>
-      <c r="E43" s="27"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="29"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>57</v>
       </c>
@@ -4834,11 +4569,11 @@
       <c r="D44" s="8">
         <v>1</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>59</v>
       </c>
@@ -4853,7 +4588,7 @@
       </c>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>60</v>
       </c>
@@ -4868,7 +4603,7 @@
       </c>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>61</v>
       </c>
@@ -4881,9 +4616,9 @@
       <c r="D47" s="6">
         <v>-1</v>
       </c>
-      <c r="E47" s="27"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="29"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>29</v>
       </c>
@@ -4896,11 +4631,11 @@
       <c r="D48" s="8">
         <v>1</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>62</v>
       </c>
@@ -4915,7 +4650,7 @@
       </c>
       <c r="E49" s="28"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>63</v>
       </c>
@@ -4930,7 +4665,7 @@
       </c>
       <c r="E50" s="28"/>
     </row>
-    <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>64</v>
       </c>
@@ -4943,9 +4678,9 @@
       <c r="D51" s="6">
         <v>-1</v>
       </c>
-      <c r="E51" s="27"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="29"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>45</v>
       </c>
@@ -4958,11 +4693,11 @@
       <c r="D52" s="8">
         <v>1</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>46</v>
       </c>
@@ -4977,7 +4712,7 @@
       </c>
       <c r="E53" s="28"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>48</v>
       </c>
@@ -4992,7 +4727,7 @@
       </c>
       <c r="E54" s="28"/>
     </row>
-    <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>66</v>
       </c>
@@ -5007,9 +4742,9 @@
       </c>
       <c r="E55" s="28"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>558</v>
+        <v>502</v>
       </c>
       <c r="B56" s="8">
         <v>0</v>
@@ -5020,13 +4755,13 @@
       <c r="D56" s="8">
         <v>1</v>
       </c>
-      <c r="E56" s="29" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E56" s="25" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
-        <v>559</v>
+        <v>503</v>
       </c>
       <c r="B57" s="6">
         <v>1</v>
@@ -5037,11 +4772,11 @@
       <c r="D57" s="6">
         <v>-1</v>
       </c>
-      <c r="E57" s="30"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E57" s="26"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>560</v>
+        <v>504</v>
       </c>
       <c r="B58" s="8">
         <v>0</v>
@@ -5052,13 +4787,13 @@
       <c r="D58" s="8">
         <v>1</v>
       </c>
-      <c r="E58" s="26" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E58" s="27" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="B59" s="2">
         <v>1</v>
@@ -5071,9 +4806,9 @@
       </c>
       <c r="E59" s="28"/>
     </row>
-    <row r="60" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="B60" s="11">
         <v>2</v>
@@ -5084,10 +4819,12 @@
       <c r="D60" s="11">
         <v>-1</v>
       </c>
-      <c r="E60" s="27"/>
+      <c r="E60" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="E58:E60"/>
     <mergeCell ref="E52:E55"/>
@@ -5104,8 +4841,6 @@
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -5120,31 +4855,31 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
@@ -5206,7 +4941,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>91</v>
       </c>
@@ -5239,7 +4974,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>576</v>
+        <v>519</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>91</v>
@@ -5264,7 +4999,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -5299,7 +5034,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>3</v>
@@ -5320,13 +5055,13 @@
         <v>104</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>555</v>
+        <v>499</v>
       </c>
       <c r="T3" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>91</v>
       </c>
@@ -5359,7 +5094,7 @@
         <v>140</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>91</v>
@@ -5384,7 +5119,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -5415,7 +5150,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>576</v>
+        <v>519</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>3</v>
@@ -5442,7 +5177,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>91</v>
       </c>
@@ -5475,7 +5210,7 @@
         <v>140</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>578</v>
+        <v>521</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>91</v>
@@ -5500,7 +5235,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -5535,7 +5270,7 @@
         <v>25</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>577</v>
+        <v>520</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
@@ -5578,57 +5313,57 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76421E-550A-4F58-ABC5-0AC68C5F2DE6}">
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="79.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="77.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.77734375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.77734375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="21.77734375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="12.109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="21.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.140625" style="1" customWidth="1"/>
     <col min="35" max="35" width="12" style="1" customWidth="1"/>
-    <col min="36" max="36" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.5546875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="8.88671875" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="1"/>
+    <col min="36" max="36" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="8.85546875" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>200</v>
       </c>
@@ -5741,12 +5476,12 @@
         <v>233</v>
       </c>
       <c r="AL1" s="13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>587</v>
+        <v>529</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>61</v>
@@ -5755,37 +5490,37 @@
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>589</v>
+        <v>531</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>585</v>
+        <v>527</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>593</v>
+        <v>535</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>591</v>
+        <v>533</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>91</v>
@@ -5807,7 +5542,7 @@
         <v>39.99</v>
       </c>
       <c r="V2" s="2">
-        <v>25.99</v>
+        <v>25</v>
       </c>
       <c r="W2" s="2">
         <v>15</v>
@@ -5847,12 +5582,12 @@
       </c>
       <c r="AK2" s="23"/>
       <c r="AL2" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>61</v>
@@ -5861,37 +5596,37 @@
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>590</v>
+        <v>532</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>586</v>
+        <v>528</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>594</v>
+        <v>536</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>592</v>
+        <v>534</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="O3" s="19" t="s">
         <v>3</v>
@@ -5913,7 +5648,7 @@
         <v>49.99</v>
       </c>
       <c r="V3" s="2">
-        <v>35.99</v>
+        <v>35</v>
       </c>
       <c r="W3" s="2">
         <v>20</v>
@@ -5953,12 +5688,12 @@
       </c>
       <c r="AK3" s="23"/>
       <c r="AL3" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>60</v>
@@ -5967,37 +5702,37 @@
         <v>29</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>579</v>
+        <v>522</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="O4" s="19" t="s">
         <v>3</v>
@@ -6019,7 +5754,7 @@
         <v>9.99</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="W4" s="19">
         <v>5.99</v>
@@ -6034,10 +5769,10 @@
         <v>100</v>
       </c>
       <c r="AA4" s="15" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="AB4" s="15" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="AC4" s="15" t="s">
         <v>91</v>
@@ -6049,28 +5784,28 @@
         <v>91</v>
       </c>
       <c r="AF4" s="20" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="AG4" s="15" t="s">
         <v>91</v>
       </c>
       <c r="AH4" s="22" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="AI4" s="22" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="AJ4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK4" s="15"/>
       <c r="AL4" s="15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>60</v>
@@ -6079,37 +5814,37 @@
         <v>62</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>579</v>
+        <v>522</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>91</v>
@@ -6131,7 +5866,7 @@
         <v>25.99</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="W5" s="19">
         <v>15.99</v>
@@ -6146,10 +5881,10 @@
         <v>75</v>
       </c>
       <c r="AA5" s="15" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="AB5" s="15" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="AC5" s="15" t="s">
         <v>91</v>
@@ -6165,22 +5900,22 @@
         <v>91</v>
       </c>
       <c r="AH5" s="22" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="AI5" s="22" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="AJ5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK5" s="15"/>
       <c r="AL5" s="15" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>57</v>
@@ -6189,37 +5924,37 @@
         <v>29</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>609</v>
+        <v>551</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>91</v>
@@ -6241,7 +5976,7 @@
         <v>59.99</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="W6" s="19">
         <v>39.99</v>
@@ -6256,10 +5991,10 @@
         <v>30</v>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="AB6" s="15" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="AC6" s="15" t="s">
         <v>91</v>
@@ -6275,22 +6010,22 @@
         <v>91</v>
       </c>
       <c r="AH6" s="22" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="AI6" s="22" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="AJ6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK6" s="15"/>
       <c r="AL6" s="15" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>57</v>
@@ -6299,37 +6034,37 @@
         <v>29</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>610</v>
+        <v>552</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="O7" s="15" t="s">
         <v>91</v>
@@ -6351,7 +6086,7 @@
         <v>45.99</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="W7" s="19">
         <v>25.99</v>
@@ -6366,10 +6101,10 @@
         <v>60</v>
       </c>
       <c r="AA7" s="15" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="AB7" s="15" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="AC7" s="15" t="s">
         <v>91</v>
@@ -6381,67 +6116,67 @@
         <v>91</v>
       </c>
       <c r="AF7" s="20" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="AG7" s="15" t="s">
         <v>91</v>
       </c>
       <c r="AH7" s="22" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="AI7" s="22" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="AJ7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AK7" s="15"/>
       <c r="AL7" s="15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>584</v>
+        <v>526</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>584</v>
+        <v>526</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="O8" s="15" t="s">
         <v>91</v>
@@ -6463,7 +6198,7 @@
         <v>8.99</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="W8" s="19">
         <v>4.99</v>
@@ -6478,10 +6213,10 @@
         <v>200</v>
       </c>
       <c r="AA8" s="15" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="AB8" s="15" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="AC8" s="15" t="s">
         <v>91</v>
@@ -6503,51 +6238,51 @@
       </c>
       <c r="AK8" s="15"/>
       <c r="AL8" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>597</v>
+        <v>539</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>601</v>
+        <v>543</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>599</v>
+        <v>541</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>605</v>
+        <v>547</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>603</v>
+        <v>545</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="O9" s="19" t="s">
         <v>3</v>
@@ -6569,7 +6304,7 @@
         <v>159.99</v>
       </c>
       <c r="V9" s="2">
-        <v>89.99</v>
+        <v>89</v>
       </c>
       <c r="W9" s="2">
         <v>50</v>
@@ -6584,10 +6319,10 @@
         <v>50</v>
       </c>
       <c r="AA9" s="15" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="AB9" s="15" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="AC9" s="19" t="s">
         <v>3</v>
@@ -6609,51 +6344,51 @@
       </c>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>598</v>
+        <v>540</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>602</v>
+        <v>544</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>600</v>
+        <v>542</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>606</v>
+        <v>548</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>604</v>
+        <v>546</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="O10" s="15" t="s">
         <v>91</v>
@@ -6675,7 +6410,7 @@
         <v>119.99</v>
       </c>
       <c r="V10" s="2">
-        <v>69.989999999999995</v>
+        <v>69</v>
       </c>
       <c r="W10" s="2">
         <v>40</v>
@@ -6690,10 +6425,10 @@
         <v>20</v>
       </c>
       <c r="AA10" s="15" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="AB10" s="15" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="AC10" s="19" t="s">
         <v>3</v>
@@ -6715,113 +6450,7 @@
       </c>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>568</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>569</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="S11" s="23">
-        <v>90</v>
-      </c>
-      <c r="T11" s="23">
-        <v>120</v>
-      </c>
-      <c r="U11" s="23">
-        <v>150</v>
-      </c>
-      <c r="V11" s="23">
-        <v>20</v>
-      </c>
-      <c r="W11" s="23">
-        <v>90</v>
-      </c>
-      <c r="X11" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="23">
-        <v>10</v>
-      </c>
-      <c r="AA11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
-      <c r="AJ11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK11" s="23"/>
-      <c r="AL11" s="23" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -6832,1057 +6461,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB6C220-98DB-4070-A1DE-74811C615533}">
-  <dimension ref="A1:AL9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.77734375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.77734375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="21.77734375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="12.109375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="12" style="1" customWidth="1"/>
-    <col min="36" max="36" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.21875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="8.88671875" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="19">
-        <v>10</v>
-      </c>
-      <c r="T2" s="19">
-        <v>15</v>
-      </c>
-      <c r="U2" s="19">
-        <v>20</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="W2" s="19">
-        <v>10</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="19">
-        <v>20</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="S3" s="19">
-        <v>20</v>
-      </c>
-      <c r="T3" s="19">
-        <v>25</v>
-      </c>
-      <c r="U3" s="19">
-        <v>30</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="W3" s="19">
-        <v>20</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="19">
-        <v>20</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="S4" s="19">
-        <v>5</v>
-      </c>
-      <c r="T4" s="19">
-        <v>10</v>
-      </c>
-      <c r="U4" s="19">
-        <v>15</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="W4" s="19">
-        <v>5</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z4" s="19">
-        <v>50</v>
-      </c>
-      <c r="AA4" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB4" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF4" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="AG4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH4" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="AI4" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="AJ4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="S5" s="19">
-        <v>29.99</v>
-      </c>
-      <c r="T5" s="19">
-        <v>39.99</v>
-      </c>
-      <c r="U5" s="19">
-        <v>49.99</v>
-      </c>
-      <c r="V5" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="W5" s="19">
-        <v>29.99</v>
-      </c>
-      <c r="X5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z5" s="19">
-        <v>50</v>
-      </c>
-      <c r="AA5" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB5" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF5" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="AG5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH5" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="AI5" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="AJ5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="S6" s="19">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="T6" s="19">
-        <v>24.99</v>
-      </c>
-      <c r="U6" s="19">
-        <v>29.99</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="W6" s="19">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z6" s="19">
-        <v>20</v>
-      </c>
-      <c r="AA6" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB6" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="S7" s="19">
-        <v>49.99</v>
-      </c>
-      <c r="T7" s="19">
-        <v>59.99</v>
-      </c>
-      <c r="U7" s="19">
-        <v>69.989999999999995</v>
-      </c>
-      <c r="V7" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="W7" s="19">
-        <v>49.99</v>
-      </c>
-      <c r="X7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z7" s="19">
-        <v>10</v>
-      </c>
-      <c r="AA7" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB7" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF7" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="AG7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="19">
-        <v>3.99</v>
-      </c>
-      <c r="T8" s="19">
-        <v>4.99</v>
-      </c>
-      <c r="U8" s="19">
-        <v>5.99</v>
-      </c>
-      <c r="V8" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="W8" s="19">
-        <v>3.99</v>
-      </c>
-      <c r="X8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z8" s="19">
-        <v>150</v>
-      </c>
-      <c r="AA8" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB8" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH8" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="AI8" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="AJ8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="S9" s="19">
-        <v>29.99</v>
-      </c>
-      <c r="T9" s="19">
-        <v>39.99</v>
-      </c>
-      <c r="U9" s="19">
-        <v>49.99</v>
-      </c>
-      <c r="V9" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="W9" s="19">
-        <v>29.99</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z9" s="19">
-        <v>40</v>
-      </c>
-      <c r="AA9" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB9" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF9" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="AG9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH9" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="AI9" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="AJ9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F147CD6B-CA39-477C-82FD-5D86870A8EFB}">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -7890,19 +6468,19 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="17" customWidth="1"/>
     <col min="7" max="7" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>200</v>
       </c>
@@ -7910,7 +6488,7 @@
         <v>126</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>141</v>
@@ -7919,18 +6497,18 @@
         <v>231</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>343</v>
+        <v>287</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="C2" s="19">
         <v>30</v>
@@ -7939,21 +6517,21 @@
         <v>29</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -7962,44 +6540,44 @@
         <v>29</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="C4" s="19">
         <v>20</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>348</v>
+        <v>292</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="C5" s="19">
         <v>5</v>
@@ -8008,21 +6586,21 @@
         <v>29</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="C6" s="19">
         <v>50</v>
@@ -8031,21 +6609,21 @@
         <v>29</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="C7" s="19">
         <v>10</v>
@@ -8054,21 +6632,21 @@
         <v>29</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="C8" s="19">
         <v>100</v>
@@ -8077,21 +6655,21 @@
         <v>29</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="C9" s="19">
         <v>100</v>
@@ -8100,13 +6678,13 @@
         <v>29</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -8116,7 +6694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6C325F-4A76-431C-998A-38D75363C07E}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -8124,42 +6702,41 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.21875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>141</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>140</v>
       </c>
@@ -8170,7 +6747,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>29</v>
@@ -8180,7 +6757,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>140</v>
       </c>
@@ -8188,10 +6765,10 @@
         <v>1002</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>580</v>
+        <v>523</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>29</v>
@@ -8203,7 +6780,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>140</v>
       </c>
@@ -8214,7 +6791,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>62</v>
@@ -8226,18 +6803,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="B5" s="19">
         <v>1004</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>581</v>
+        <v>524</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>29</v>
@@ -8247,9 +6824,9 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="B6" s="19">
         <v>1005</v>
@@ -8258,7 +6835,7 @@
         <v>53</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>29</v>
@@ -8268,18 +6845,18 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="B7" s="19">
         <v>1006</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>582</v>
+        <v>525</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>32</v>
@@ -8295,7 +6872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C7655F-AC18-4255-9C9F-28DEDD520460}">
   <dimension ref="A1:W9"/>
   <sheetViews>
@@ -8303,40 +6880,38 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="17" customWidth="1"/>
+    <col min="1" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="17" customWidth="1"/>
     <col min="6" max="6" width="11" style="17" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="1" customWidth="1"/>
     <col min="20" max="20" width="8" style="1" customWidth="1"/>
     <col min="21" max="21" width="16" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="13.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>85</v>
@@ -8357,7 +6932,7 @@
         <v>90</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>97</v>
@@ -8366,48 +6941,48 @@
         <v>96</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>141</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="O1" s="13" t="s">
         <v>202</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
@@ -8428,22 +7003,22 @@
         <v>90001</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>381</v>
+        <v>325</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>45</v>
@@ -8452,33 +7027,33 @@
         <v>91</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>127</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="W2" s="19" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>114</v>
@@ -8499,22 +7074,22 @@
         <v>78701</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>46</v>
@@ -8523,33 +7098,33 @@
         <v>3</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="U3" s="15" t="s">
         <v>127</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="W3" s="19" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>121</v>
@@ -8568,22 +7143,22 @@
         <v>75201</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>62</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="O4" s="15" t="s">
         <v>44</v>
@@ -8592,33 +7167,33 @@
         <v>91</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="U4" s="15" t="s">
         <v>127</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="W4" s="19" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>128</v>
@@ -8639,22 +7214,22 @@
         <v>10118</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>48</v>
@@ -8663,33 +7238,33 @@
         <v>91</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="U5" s="15" t="s">
         <v>127</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="W5" s="19" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>135</v>
@@ -8710,22 +7285,22 @@
         <v>60606</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>48</v>
@@ -8734,28 +7309,28 @@
         <v>91</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>127</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="W6" s="19" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N9" s="1" t="s">
         <v>67</v>
       </c>
@@ -8794,7 +7369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3846B3E9-78EC-4A21-B7B1-295C9A6CBED2}">
   <dimension ref="A1:V5"/>
   <sheetViews>
@@ -8802,32 +7377,32 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.21875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>209</v>
@@ -8836,81 +7411,81 @@
         <v>126</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>422</v>
+        <v>366</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>424</v>
+        <v>368</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>425</v>
+        <v>369</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>426</v>
+        <v>370</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>428</v>
+        <v>372</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>436</v>
+        <v>380</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>437</v>
+        <v>381</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>436</v>
+        <v>380</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>439</v>
+        <v>383</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="G2" s="2">
         <v>23.7044</v>
@@ -8959,18 +7534,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>438</v>
+        <v>382</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>424</v>
+        <v>368</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -9015,7 +7590,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N5" s="1" t="s">
         <v>67</v>
       </c>
@@ -9032,4 +7607,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA816B9A-A2BD-448E-99B5-2B148B525D17}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/ClientPortal_Data.xlsx
+++ b/src/main/resources/ClientPortal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS01361\My Folder\0. Test Type\4. Automation Testing\Selenium Files\MAS_FloraFire\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334D584D-1DC1-4042-8201-261CEB2350C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB6444C-5B0D-414E-A9A3-D28D0606ED5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="803" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="803" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="2" r:id="rId1"/>
@@ -2072,19 +2072,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2374,13 +2374,13 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="32.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>65</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>500</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>501</v>
       </c>
@@ -2562,15 +2562,15 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>402</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>398</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>399</v>
       </c>
@@ -2617,14 +2617,14 @@
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>507</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>509</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>264</v>
       </c>
@@ -2662,25 +2662,25 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="23.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="23.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.33203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>403</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>415</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>425</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>426</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>427</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>428</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>429</v>
       </c>
@@ -3008,26 +3008,26 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" style="1" customWidth="1"/>
     <col min="14" max="14" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>484</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>485</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>486</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>487</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>488</v>
       </c>
@@ -3311,18 +3311,18 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="17.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="17.88671875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>166</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>171</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>173</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>174</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>175</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>176</v>
       </c>
@@ -3476,14 +3476,14 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>146</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>148</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>151</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>152</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>154</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>156</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>158</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>160</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>162</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>164</v>
       </c>
@@ -3585,50 +3585,50 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.140625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.7109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="21.7109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="12.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19.109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.6640625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="21.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.109375" style="1" customWidth="1"/>
     <col min="35" max="35" width="12" style="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.28515625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="12.7109375" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.85546875" style="1"/>
+    <col min="36" max="36" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.33203125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.6640625" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>200</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>516</v>
       </c>
@@ -3870,17 +3870,17 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="33.42578125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="33.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
@@ -3910,11 +3910,11 @@
       <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
@@ -3927,9 +3927,9 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
@@ -3942,9 +3942,9 @@
       <c r="D4" s="11">
         <v>-1</v>
       </c>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
@@ -3957,14 +3957,14 @@
       <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="25" t="s">
         <v>82</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
@@ -3977,9 +3977,9 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -3992,9 +3992,9 @@
       <c r="D7" s="6">
         <v>-1</v>
       </c>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -4007,11 +4007,11 @@
       <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
@@ -4024,9 +4024,9 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
@@ -4039,9 +4039,9 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>32</v>
       </c>
@@ -4054,9 +4054,9 @@
       <c r="D11" s="6">
         <v>-1</v>
       </c>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -4069,11 +4069,11 @@
       <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>34</v>
       </c>
@@ -4086,9 +4086,9 @@
       <c r="D13" s="11">
         <v>-1</v>
       </c>
-      <c r="E13" s="29"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -4101,11 +4101,11 @@
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
@@ -4118,9 +4118,9 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="28"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -4133,9 +4133,9 @@
       <c r="D16" s="6">
         <v>-1</v>
       </c>
-      <c r="E16" s="29"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -4148,11 +4148,11 @@
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
@@ -4165,9 +4165,9 @@
       <c r="D18" s="11">
         <v>-1</v>
       </c>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -4180,11 +4180,11 @@
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>41</v>
       </c>
@@ -4197,9 +4197,9 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
@@ -4212,9 +4212,9 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="28"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="29"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
@@ -4227,9 +4227,9 @@
       <c r="D22" s="6">
         <v>-1</v>
       </c>
-      <c r="E22" s="29"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
@@ -4242,11 +4242,11 @@
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>45</v>
       </c>
@@ -4259,9 +4259,9 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
@@ -4274,9 +4274,9 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="29"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -4289,9 +4289,9 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>48</v>
       </c>
@@ -4304,9 +4304,9 @@
       <c r="D27" s="11">
         <v>-1</v>
       </c>
-      <c r="E27" s="29"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
@@ -4319,11 +4319,11 @@
       <c r="D28" s="8">
         <v>1</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
@@ -4336,9 +4336,9 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="28"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>31</v>
       </c>
@@ -4351,9 +4351,9 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="28"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>32</v>
       </c>
@@ -4366,9 +4366,9 @@
       <c r="D31" s="6">
         <v>-1</v>
       </c>
-      <c r="E31" s="29"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="26"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>49</v>
       </c>
@@ -4381,11 +4381,11 @@
       <c r="D32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>50</v>
       </c>
@@ -4398,9 +4398,9 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="28"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="29"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>342</v>
       </c>
@@ -4413,9 +4413,9 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="28"/>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="29"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>51</v>
       </c>
@@ -4428,9 +4428,9 @@
       <c r="D35" s="6">
         <v>-1</v>
       </c>
-      <c r="E35" s="29"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="26"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>52</v>
       </c>
@@ -4443,11 +4443,11 @@
       <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>53</v>
       </c>
@@ -4460,9 +4460,9 @@
       <c r="D37" s="11">
         <v>-1</v>
       </c>
-      <c r="E37" s="29"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="26"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>54</v>
       </c>
@@ -4475,11 +4475,11 @@
       <c r="D38" s="8">
         <v>1</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>55</v>
       </c>
@@ -4492,9 +4492,9 @@
       <c r="D39" s="11">
         <v>-1</v>
       </c>
-      <c r="E39" s="29"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="26"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>56</v>
       </c>
@@ -4507,11 +4507,11 @@
       <c r="D40" s="8">
         <v>1</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>242</v>
       </c>
@@ -4524,9 +4524,9 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="28"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="29"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>57</v>
       </c>
@@ -4539,9 +4539,9 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="28"/>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="29"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>58</v>
       </c>
@@ -4554,9 +4554,9 @@
       <c r="D43" s="6">
         <v>-1</v>
       </c>
-      <c r="E43" s="29"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>57</v>
       </c>
@@ -4569,11 +4569,11 @@
       <c r="D44" s="8">
         <v>1</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>59</v>
       </c>
@@ -4586,9 +4586,9 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="28"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="29"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>60</v>
       </c>
@@ -4601,9 +4601,9 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="28"/>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="29"/>
+    </row>
+    <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>61</v>
       </c>
@@ -4616,9 +4616,9 @@
       <c r="D47" s="6">
         <v>-1</v>
       </c>
-      <c r="E47" s="29"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="26"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>29</v>
       </c>
@@ -4631,11 +4631,11 @@
       <c r="D48" s="8">
         <v>1</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>62</v>
       </c>
@@ -4648,9 +4648,9 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="28"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="29"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>63</v>
       </c>
@@ -4663,9 +4663,9 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="28"/>
-    </row>
-    <row r="51" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="29"/>
+    </row>
+    <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>64</v>
       </c>
@@ -4678,9 +4678,9 @@
       <c r="D51" s="6">
         <v>-1</v>
       </c>
-      <c r="E51" s="29"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="26"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>45</v>
       </c>
@@ -4693,11 +4693,11 @@
       <c r="D52" s="8">
         <v>1</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>46</v>
       </c>
@@ -4710,9 +4710,9 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="28"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="29"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>48</v>
       </c>
@@ -4725,9 +4725,9 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="28"/>
-    </row>
-    <row r="55" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="29"/>
+    </row>
+    <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>66</v>
       </c>
@@ -4740,9 +4740,9 @@
       <c r="D55" s="6">
         <v>-1</v>
       </c>
-      <c r="E55" s="28"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="29"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>502</v>
       </c>
@@ -4755,11 +4755,11 @@
       <c r="D56" s="8">
         <v>1</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E56" s="27" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>503</v>
       </c>
@@ -4772,9 +4772,9 @@
       <c r="D57" s="6">
         <v>-1</v>
       </c>
-      <c r="E57" s="26"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="28"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>504</v>
       </c>
@@ -4787,11 +4787,11 @@
       <c r="D58" s="8">
         <v>1</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E58" s="25" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>505</v>
       </c>
@@ -4804,9 +4804,9 @@
       <c r="D59" s="2">
         <v>0</v>
       </c>
-      <c r="E59" s="28"/>
-    </row>
-    <row r="60" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="29"/>
+    </row>
+    <row r="60" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>506</v>
       </c>
@@ -4819,20 +4819,10 @@
       <c r="D60" s="11">
         <v>-1</v>
       </c>
-      <c r="E60" s="29"/>
+      <c r="E60" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E16"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="E40:E43"/>
@@ -4841,6 +4831,16 @@
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="E52:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4855,31 +4855,31 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="28.109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="1"/>
+    <col min="19" max="19" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>91</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>91</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>91</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -5315,55 +5315,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76421E-550A-4F58-ABC5-0AC68C5F2DE6}">
   <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="77.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="77.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19.109375" style="1" customWidth="1"/>
     <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="21.7109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="12.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="21.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.109375" style="1" customWidth="1"/>
     <col min="35" max="35" width="12" style="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="8.85546875" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.85546875" style="1"/>
+    <col min="36" max="36" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.5546875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="8.88671875" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>200</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>529</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>530</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>234</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>235</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>236</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>237</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>238</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>539</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>540</v>
       </c>
@@ -6468,19 +6468,19 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="17" customWidth="1"/>
     <col min="7" max="7" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>200</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>288</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>297</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>290</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>289</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>300</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>302</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>304</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>307</v>
       </c>
@@ -6702,18 +6702,18 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>126</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>140</v>
       </c>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>140</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>140</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>283</v>
       </c>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>283</v>
       </c>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>283</v>
       </c>
@@ -6876,37 +6876,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C7655F-AC18-4255-9C9F-28DEDD520460}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="17" customWidth="1"/>
+    <col min="1" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="17" customWidth="1"/>
     <col min="6" max="6" width="11" style="17" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="1" customWidth="1"/>
     <col min="20" max="20" width="8" style="1" customWidth="1"/>
     <col min="21" max="21" width="16" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="1"/>
+    <col min="22" max="22" width="13.109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>309</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>322</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>334</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>349</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>350</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>352</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N9" s="1" t="s">
         <v>67</v>
       </c>
@@ -7377,30 +7377,30 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="1"/>
+    <col min="21" max="21" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>360</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>380</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>90</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N5" s="1" t="s">
         <v>67</v>
       </c>
@@ -7617,18 +7617,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>385</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>391</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>392</v>
       </c>
